--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="85">
   <si>
     <t>Hoje</t>
   </si>
@@ -46,70 +46,190 @@
     <t>Opções</t>
   </si>
   <si>
-    <t>29-08-2022</t>
+    <t>15-02-2023</t>
   </si>
   <si>
     <t>417823 - PREMIUM SAÚDE S.A</t>
   </si>
   <si>
-    <t>15/08/2022  16:18:00</t>
-  </si>
-  <si>
-    <t>16/08/2022  12:39:21</t>
-  </si>
-  <si>
-    <t>16/08/2022  13:33:52</t>
-  </si>
-  <si>
-    <t>16/08/2022  16:00:04</t>
-  </si>
-  <si>
-    <t>16/08/2022  16:15:07</t>
-  </si>
-  <si>
-    <t>17/08/2022  12:31:13</t>
-  </si>
-  <si>
-    <t>17/08/2022  12:39:31</t>
-  </si>
-  <si>
-    <t>17/08/2022  13:13:51</t>
-  </si>
-  <si>
-    <t>17/08/2022  15:08:14</t>
-  </si>
-  <si>
-    <t>17/08/2022  17:39:39</t>
-  </si>
-  <si>
-    <t>VITOR DE LAZZARI BICALHO</t>
-  </si>
-  <si>
-    <t>JULIO CESAR ALVES MACHADO</t>
-  </si>
-  <si>
-    <t>AILTON APARECIDO ALMEIDA SILVA</t>
-  </si>
-  <si>
-    <t>ZULEUMA FERNANDES MEIRELES</t>
-  </si>
-  <si>
-    <t>TATIANE MARA MANGABEIRA DA MATTA MACHADO</t>
-  </si>
-  <si>
-    <t>CLEUZA CRISTINA CARVALHO DE SOUZA</t>
-  </si>
-  <si>
-    <t>JOAO GABRIEL DE OLIVEIRA FERNANDES</t>
-  </si>
-  <si>
-    <t>HEITOR RODRIGUES DA SILVA GOMES</t>
-  </si>
-  <si>
-    <t>CAMILA ALVES BRANDÃO DE AGUIAR</t>
-  </si>
-  <si>
-    <t>CONCEIÇÃO APARECIDA COSTA DE ALMEIDA</t>
+    <t>01/02/2023  11:37:37</t>
+  </si>
+  <si>
+    <t>01/02/2023  13:52:05</t>
+  </si>
+  <si>
+    <t>01/02/2023  14:14:32</t>
+  </si>
+  <si>
+    <t>01/02/2023  14:20:12</t>
+  </si>
+  <si>
+    <t>01/02/2023  14:24:54</t>
+  </si>
+  <si>
+    <t>01/02/2023  16:54:10</t>
+  </si>
+  <si>
+    <t>01/02/2023  17:16:29</t>
+  </si>
+  <si>
+    <t>02/02/2023  13:12:25</t>
+  </si>
+  <si>
+    <t>02/02/2023  15:57:17</t>
+  </si>
+  <si>
+    <t>03/02/2023  09:15:42</t>
+  </si>
+  <si>
+    <t>03/02/2023  10:01:59</t>
+  </si>
+  <si>
+    <t>03/02/2023  12:35:48</t>
+  </si>
+  <si>
+    <t>03/02/2023  17:05:41</t>
+  </si>
+  <si>
+    <t>06/02/2023  10:30:27</t>
+  </si>
+  <si>
+    <t>06/02/2023  11:33:36</t>
+  </si>
+  <si>
+    <t>06/02/2023  14:20:31</t>
+  </si>
+  <si>
+    <t>06/02/2023  14:31:22</t>
+  </si>
+  <si>
+    <t>07/02/2023  10:01:03</t>
+  </si>
+  <si>
+    <t>07/02/2023  10:11:49</t>
+  </si>
+  <si>
+    <t>07/02/2023  10:12:34</t>
+  </si>
+  <si>
+    <t>07/02/2023  15:46:34</t>
+  </si>
+  <si>
+    <t>08/02/2023  09:29:56</t>
+  </si>
+  <si>
+    <t>08/02/2023  10:14:46</t>
+  </si>
+  <si>
+    <t>09/02/2023  11:06:30</t>
+  </si>
+  <si>
+    <t>09/02/2023  11:47:50</t>
+  </si>
+  <si>
+    <t>13/02/2023  10:59:48</t>
+  </si>
+  <si>
+    <t>13/02/2023  17:53:42</t>
+  </si>
+  <si>
+    <t>14/02/2023  15:30:29</t>
+  </si>
+  <si>
+    <t>15/02/2023  09:41:19</t>
+  </si>
+  <si>
+    <t>15/02/2023  12:01:13</t>
+  </si>
+  <si>
+    <t>RAQUEL ANGELICA CAMPOS MOREIRA MENDES</t>
+  </si>
+  <si>
+    <t>YASMIN SANTOS PALHARES HORTA</t>
+  </si>
+  <si>
+    <t>MAURICIO EVANGELISTA GONZAGA</t>
+  </si>
+  <si>
+    <t>ANA PAULA CARDOSO DE ASSIS MONTEIRO</t>
+  </si>
+  <si>
+    <t>VINNICIUS MONTEIRO GONZAGA</t>
+  </si>
+  <si>
+    <t>PEDRO HENRIQUE ALVES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>DILEIANE MARTINS DE SOUZA</t>
+  </si>
+  <si>
+    <t>NEUZA AUGUASTA SOARES</t>
+  </si>
+  <si>
+    <t>LILIANE CALDEIRA DE SOUZA</t>
+  </si>
+  <si>
+    <t>PATRICIA PIERONI PAIN</t>
+  </si>
+  <si>
+    <t>RAPHAEL DOS REIS CARVALHO</t>
+  </si>
+  <si>
+    <t>LEILA PINHEIRO DE AVILA</t>
+  </si>
+  <si>
+    <t>MARISTELLA DE SOUZA PAIVA</t>
+  </si>
+  <si>
+    <t>JOSE RAIMUNDO RIBEIRO BRANDAO</t>
+  </si>
+  <si>
+    <t>MATHEUS RODRIGUES CHAVES SAMPAIO</t>
+  </si>
+  <si>
+    <t>MARIA LUIZA DE MOURA BRAGA SANTOS</t>
+  </si>
+  <si>
+    <t>CARINA KELY VIEIRA SOARES</t>
+  </si>
+  <si>
+    <t>MIDORI SUGAHARA</t>
+  </si>
+  <si>
+    <t>JULIA CASSIA FERREIRA FROIS</t>
+  </si>
+  <si>
+    <t>MAURICIO DINIZ JUNIOR</t>
+  </si>
+  <si>
+    <t>GISLENE MARTINS DE CASTRO</t>
+  </si>
+  <si>
+    <t>LUCIENE ALVES DE ALMEIDA DA SILVA</t>
+  </si>
+  <si>
+    <t>MIGUEL LUCAS HONORATO OLIVEIRA SILVA</t>
+  </si>
+  <si>
+    <t>VERA LUCIA PIMENTA PEREIRA</t>
+  </si>
+  <si>
+    <t>CELIA CRISTINA DA SILVA</t>
+  </si>
+  <si>
+    <t>ARTHUR SANTOS SOUZA</t>
+  </si>
+  <si>
+    <t>GAEL SOARES ALMEIDA</t>
+  </si>
+  <si>
+    <t>MARIA EMILIA FONSECA RODRIGUES</t>
+  </si>
+  <si>
+    <t>DALILA DE OLIVEIRA SILVA</t>
+  </si>
+  <si>
+    <t>VIVIANE KARINE SANTOS</t>
   </si>
   <si>
     <t>1 dias úteis</t>
@@ -121,7 +241,22 @@
     <t>3 dias úteis</t>
   </si>
   <si>
-    <t>SIM</t>
+    <t>4 dias úteis</t>
+  </si>
+  <si>
+    <t>5 dias úteis</t>
+  </si>
+  <si>
+    <t>6 dias úteis</t>
+  </si>
+  <si>
+    <t>7 dias úteis</t>
+  </si>
+  <si>
+    <t>9 dias úteis</t>
+  </si>
+  <si>
+    <t>10 dias úteis</t>
   </si>
   <si>
     <t>NO</t>
@@ -491,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,25 +678,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>5795303</v>
+        <v>6032756</v>
       </c>
       <c r="F2">
-        <v>8193885</v>
+        <v>8493031</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -578,25 +713,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>5796678</v>
+        <v>6033246</v>
       </c>
       <c r="F3">
-        <v>8195678</v>
+        <v>8493697</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -613,25 +748,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>5796873</v>
+        <v>6033326</v>
       </c>
       <c r="F4">
-        <v>8195876</v>
+        <v>8493770</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -648,25 +783,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>5797440</v>
+        <v>6033356</v>
       </c>
       <c r="F5">
-        <v>8196572</v>
+        <v>8493770</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -683,25 +818,25 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>5797506</v>
+        <v>6033374</v>
       </c>
       <c r="F6">
-        <v>8196609</v>
+        <v>8493770</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -718,25 +853,25 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>5798816</v>
+        <v>6033894</v>
       </c>
       <c r="F7">
-        <v>8198342</v>
+        <v>8494441</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -753,25 +888,25 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>5798847</v>
+        <v>6033938</v>
       </c>
       <c r="F8">
-        <v>8198366</v>
+        <v>8494501</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -788,25 +923,25 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>5798945</v>
+        <v>6035045</v>
       </c>
       <c r="F9">
-        <v>8198504</v>
+        <v>8495820</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -823,25 +958,25 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>5799351</v>
+        <v>6035618</v>
       </c>
       <c r="F10">
-        <v>8198990</v>
+        <v>8496540</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -858,25 +993,725 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>5799874</v>
+        <v>6036134</v>
       </c>
       <c r="F11">
-        <v>8199609</v>
+        <v>8497256</v>
       </c>
       <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>6036237</v>
+      </c>
+      <c r="F12">
+        <v>8497362</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>6036711</v>
+      </c>
+      <c r="F13">
+        <v>8497964</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>6037472</v>
+      </c>
+      <c r="F14">
+        <v>8498927</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>6038194</v>
+      </c>
+      <c r="F15">
+        <v>8499817</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>6038410</v>
+      </c>
+      <c r="F16">
+        <v>8500059</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>6038950</v>
+      </c>
+      <c r="F17">
+        <v>8500689</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>6038984</v>
+      </c>
+      <c r="F18">
+        <v>8500745</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>6040064</v>
+      </c>
+      <c r="F19">
+        <v>8502080</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>6040087</v>
+      </c>
+      <c r="F20">
+        <v>8502113</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="H11" t="s">
+      <c r="E21">
+        <v>6040088</v>
+      </c>
+      <c r="F21">
+        <v>8502115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>6041343</v>
+      </c>
+      <c r="F22">
+        <v>8503499</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>12083979</v>
+      </c>
+      <c r="F23">
+        <v>8504470</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="I11" t="s">
+      <c r="E24">
+        <v>12084078</v>
+      </c>
+      <c r="F24">
+        <v>8504582</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25">
+        <v>12085828</v>
+      </c>
+      <c r="F25">
+        <v>8506994</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
         <v>36</v>
       </c>
-      <c r="J11" t="s">
+      <c r="E26">
+        <v>12085981</v>
+      </c>
+      <c r="F26">
+        <v>8507153</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
         <v>37</v>
       </c>
-      <c r="K11" t="s">
+      <c r="E27">
+        <v>12089562</v>
+      </c>
+      <c r="F27">
+        <v>8511540</v>
+      </c>
+      <c r="G27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>12090861</v>
+      </c>
+      <c r="F28">
+        <v>8513150</v>
+      </c>
+      <c r="G28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
         <v>39</v>
+      </c>
+      <c r="E29">
+        <v>12092359</v>
+      </c>
+      <c r="F29">
+        <v>8514904</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>12093061</v>
+      </c>
+      <c r="F30">
+        <v>8515747</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>12093493</v>
+      </c>
+      <c r="F31">
+        <v>8516300</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="79">
   <si>
     <t>Hoje</t>
   </si>
@@ -46,190 +46,166 @@
     <t>Opções</t>
   </si>
   <si>
-    <t>15-02-2023</t>
+    <t>08-03-2023</t>
   </si>
   <si>
     <t>417823 - PREMIUM SAÚDE S.A</t>
   </si>
   <si>
-    <t>01/02/2023  11:37:37</t>
-  </si>
-  <si>
-    <t>01/02/2023  13:52:05</t>
-  </si>
-  <si>
-    <t>01/02/2023  14:14:32</t>
-  </si>
-  <si>
-    <t>01/02/2023  14:20:12</t>
-  </si>
-  <si>
-    <t>01/02/2023  14:24:54</t>
-  </si>
-  <si>
-    <t>01/02/2023  16:54:10</t>
-  </si>
-  <si>
-    <t>01/02/2023  17:16:29</t>
-  </si>
-  <si>
-    <t>02/02/2023  13:12:25</t>
-  </si>
-  <si>
-    <t>02/02/2023  15:57:17</t>
-  </si>
-  <si>
-    <t>03/02/2023  09:15:42</t>
-  </si>
-  <si>
-    <t>03/02/2023  10:01:59</t>
-  </si>
-  <si>
-    <t>03/02/2023  12:35:48</t>
-  </si>
-  <si>
-    <t>03/02/2023  17:05:41</t>
-  </si>
-  <si>
-    <t>06/02/2023  10:30:27</t>
-  </si>
-  <si>
-    <t>06/02/2023  11:33:36</t>
-  </si>
-  <si>
-    <t>06/02/2023  14:20:31</t>
-  </si>
-  <si>
-    <t>06/02/2023  14:31:22</t>
-  </si>
-  <si>
-    <t>07/02/2023  10:01:03</t>
-  </si>
-  <si>
-    <t>07/02/2023  10:11:49</t>
-  </si>
-  <si>
-    <t>07/02/2023  10:12:34</t>
-  </si>
-  <si>
-    <t>07/02/2023  15:46:34</t>
-  </si>
-  <si>
-    <t>08/02/2023  09:29:56</t>
-  </si>
-  <si>
-    <t>08/02/2023  10:14:46</t>
-  </si>
-  <si>
-    <t>09/02/2023  11:06:30</t>
-  </si>
-  <si>
-    <t>09/02/2023  11:47:50</t>
-  </si>
-  <si>
-    <t>13/02/2023  10:59:48</t>
-  </si>
-  <si>
-    <t>13/02/2023  17:53:42</t>
-  </si>
-  <si>
-    <t>14/02/2023  15:30:29</t>
-  </si>
-  <si>
-    <t>15/02/2023  09:41:19</t>
-  </si>
-  <si>
-    <t>15/02/2023  12:01:13</t>
-  </si>
-  <si>
-    <t>RAQUEL ANGELICA CAMPOS MOREIRA MENDES</t>
-  </si>
-  <si>
-    <t>YASMIN SANTOS PALHARES HORTA</t>
-  </si>
-  <si>
-    <t>MAURICIO EVANGELISTA GONZAGA</t>
-  </si>
-  <si>
-    <t>ANA PAULA CARDOSO DE ASSIS MONTEIRO</t>
-  </si>
-  <si>
-    <t>VINNICIUS MONTEIRO GONZAGA</t>
-  </si>
-  <si>
-    <t>PEDRO HENRIQUE ALVES DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>DILEIANE MARTINS DE SOUZA</t>
-  </si>
-  <si>
-    <t>NEUZA AUGUASTA SOARES</t>
-  </si>
-  <si>
-    <t>LILIANE CALDEIRA DE SOUZA</t>
-  </si>
-  <si>
-    <t>PATRICIA PIERONI PAIN</t>
-  </si>
-  <si>
-    <t>RAPHAEL DOS REIS CARVALHO</t>
-  </si>
-  <si>
-    <t>LEILA PINHEIRO DE AVILA</t>
-  </si>
-  <si>
-    <t>MARISTELLA DE SOUZA PAIVA</t>
-  </si>
-  <si>
-    <t>JOSE RAIMUNDO RIBEIRO BRANDAO</t>
-  </si>
-  <si>
-    <t>MATHEUS RODRIGUES CHAVES SAMPAIO</t>
-  </si>
-  <si>
-    <t>MARIA LUIZA DE MOURA BRAGA SANTOS</t>
-  </si>
-  <si>
-    <t>CARINA KELY VIEIRA SOARES</t>
-  </si>
-  <si>
-    <t>MIDORI SUGAHARA</t>
-  </si>
-  <si>
-    <t>JULIA CASSIA FERREIRA FROIS</t>
-  </si>
-  <si>
-    <t>MAURICIO DINIZ JUNIOR</t>
-  </si>
-  <si>
-    <t>GISLENE MARTINS DE CASTRO</t>
-  </si>
-  <si>
-    <t>LUCIENE ALVES DE ALMEIDA DA SILVA</t>
-  </si>
-  <si>
-    <t>MIGUEL LUCAS HONORATO OLIVEIRA SILVA</t>
-  </si>
-  <si>
-    <t>VERA LUCIA PIMENTA PEREIRA</t>
-  </si>
-  <si>
-    <t>CELIA CRISTINA DA SILVA</t>
-  </si>
-  <si>
-    <t>ARTHUR SANTOS SOUZA</t>
-  </si>
-  <si>
-    <t>GAEL SOARES ALMEIDA</t>
-  </si>
-  <si>
-    <t>MARIA EMILIA FONSECA RODRIGUES</t>
-  </si>
-  <si>
-    <t>DALILA DE OLIVEIRA SILVA</t>
-  </si>
-  <si>
-    <t>VIVIANE KARINE SANTOS</t>
+    <t>22/02/2023  13:20:30</t>
+  </si>
+  <si>
+    <t>23/02/2023  14:43:35</t>
+  </si>
+  <si>
+    <t>23/02/2023  16:18:56</t>
+  </si>
+  <si>
+    <t>23/02/2023  18:13:42</t>
+  </si>
+  <si>
+    <t>24/02/2023  09:52:10</t>
+  </si>
+  <si>
+    <t>24/02/2023  11:28:04</t>
+  </si>
+  <si>
+    <t>24/02/2023  11:57:39</t>
+  </si>
+  <si>
+    <t>24/02/2023  15:00:12</t>
+  </si>
+  <si>
+    <t>27/02/2023  08:52:53</t>
+  </si>
+  <si>
+    <t>27/02/2023  13:41:12</t>
+  </si>
+  <si>
+    <t>27/02/2023  14:18:57</t>
+  </si>
+  <si>
+    <t>27/02/2023  17:50:50</t>
+  </si>
+  <si>
+    <t>28/02/2023  16:34:18</t>
+  </si>
+  <si>
+    <t>01/03/2023  13:44:26</t>
+  </si>
+  <si>
+    <t>01/03/2023  15:25:43</t>
+  </si>
+  <si>
+    <t>01/03/2023  15:28:35</t>
+  </si>
+  <si>
+    <t>02/03/2023  13:02:25</t>
+  </si>
+  <si>
+    <t>02/03/2023  15:05:54</t>
+  </si>
+  <si>
+    <t>02/03/2023  17:41:35</t>
+  </si>
+  <si>
+    <t>03/03/2023  09:14:37</t>
+  </si>
+  <si>
+    <t>03/03/2023  13:44:58</t>
+  </si>
+  <si>
+    <t>03/03/2023  14:24:02</t>
+  </si>
+  <si>
+    <t>03/03/2023  17:10:10</t>
+  </si>
+  <si>
+    <t>06/03/2023  13:06:59</t>
+  </si>
+  <si>
+    <t>06/03/2023  15:55:51</t>
+  </si>
+  <si>
+    <t>07/03/2023  19:16:59</t>
+  </si>
+  <si>
+    <t>JANAINA RODRIGUES DA SILVA</t>
+  </si>
+  <si>
+    <t>ALEXANDRO ALVES BORGES</t>
+  </si>
+  <si>
+    <t>KEITI ALVES MASSUDA SANCHES</t>
+  </si>
+  <si>
+    <t>MATHEUS SOARES</t>
+  </si>
+  <si>
+    <t>ANDREIA OLIVEIRA DA SILVA NERIS</t>
+  </si>
+  <si>
+    <t>ANA PAULA CUNHA VIANA ARAUJO</t>
+  </si>
+  <si>
+    <t>MARCIA MARIA DA SILVA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>ALISSON DUMONT BESSA</t>
+  </si>
+  <si>
+    <t>IARA MARIA SILVA</t>
+  </si>
+  <si>
+    <t>HENRIQUE CALDEIRA RODRIGUES</t>
+  </si>
+  <si>
+    <t>DAVI LUCCA DE SOUZA FALCAO</t>
+  </si>
+  <si>
+    <t>RACHEL SILVA ROCHA NOGUEIRA</t>
+  </si>
+  <si>
+    <t>GIOVANA CARLA ALMEIDA CAMPOS</t>
+  </si>
+  <si>
+    <t>MARCIA MARIA DE SOUSA</t>
+  </si>
+  <si>
+    <t>LUANA KAROLINE OLIVEIRA LIMA</t>
+  </si>
+  <si>
+    <t>ANDREY CAMILO BARROS</t>
+  </si>
+  <si>
+    <t>VILMAR XAVIER DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ROBERT RICHARD DE FREITAS LANNES</t>
+  </si>
+  <si>
+    <t>IRAÇUY LUZIA SOUZA</t>
+  </si>
+  <si>
+    <t>LAISLA DOS SANTOS RIBEIRO</t>
+  </si>
+  <si>
+    <t>GABRIELLE DA COSTA VIANA CHIABAI PATERLINI</t>
+  </si>
+  <si>
+    <t>JOSE JULIO DA SILVA</t>
+  </si>
+  <si>
+    <t>ELIEL DA SILVEIRA</t>
+  </si>
+  <si>
+    <t>NAYARA LORRAYNE DA SILVA</t>
+  </si>
+  <si>
+    <t>SOFIA SOUZA NASCIMENTO</t>
+  </si>
+  <si>
+    <t>AMANDA VICENTE DA SILVA</t>
   </si>
   <si>
     <t>1 dias úteis</t>
@@ -253,10 +229,16 @@
     <t>7 dias úteis</t>
   </si>
   <si>
+    <t>8 dias úteis</t>
+  </si>
+  <si>
     <t>9 dias úteis</t>
   </si>
   <si>
     <t>10 dias úteis</t>
+  </si>
+  <si>
+    <t>SIM</t>
   </si>
   <si>
     <t>NO</t>
@@ -626,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,25 +660,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>6032756</v>
+        <v>12098731</v>
       </c>
       <c r="F2">
-        <v>8493031</v>
+        <v>8522684</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -713,25 +695,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>6033246</v>
+        <v>12100608</v>
       </c>
       <c r="F3">
-        <v>8493697</v>
+        <v>8525088</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -748,25 +730,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>6033326</v>
+        <v>12100990</v>
       </c>
       <c r="F4">
-        <v>8493770</v>
+        <v>8525516</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -783,25 +765,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>6033356</v>
+        <v>12101245</v>
       </c>
       <c r="F5">
-        <v>8493770</v>
+        <v>8525822</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -818,25 +800,25 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>6033374</v>
+        <v>12101668</v>
       </c>
       <c r="F6">
-        <v>8493770</v>
+        <v>8526271</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -853,25 +835,25 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>6033894</v>
+        <v>12101971</v>
       </c>
       <c r="F7">
-        <v>8494441</v>
+        <v>8526638</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -888,25 +870,25 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>6033938</v>
+        <v>12102054</v>
       </c>
       <c r="F8">
-        <v>8494501</v>
+        <v>8526729</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -923,25 +905,25 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>6035045</v>
+        <v>12102643</v>
       </c>
       <c r="F9">
-        <v>8495820</v>
+        <v>8527426</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -958,25 +940,25 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>6035618</v>
+        <v>12103694</v>
       </c>
       <c r="F10">
-        <v>8496540</v>
+        <v>8528664</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -993,25 +975,25 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>6036134</v>
+        <v>12104467</v>
       </c>
       <c r="F11">
-        <v>8497256</v>
+        <v>8529617</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1028,25 +1010,25 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>6036237</v>
+        <v>12104624</v>
       </c>
       <c r="F12">
-        <v>8497362</v>
+        <v>8529808</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1063,25 +1045,25 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>6036711</v>
+        <v>12105288</v>
       </c>
       <c r="F13">
-        <v>8497964</v>
+        <v>8530611</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1098,25 +1080,25 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>6037472</v>
+        <v>12107119</v>
       </c>
       <c r="F14">
-        <v>8498927</v>
+        <v>8532804</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1133,25 +1115,25 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>6038194</v>
+        <v>12108424</v>
       </c>
       <c r="F15">
-        <v>8499817</v>
+        <v>8534335</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1168,25 +1150,25 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>6038410</v>
+        <v>12108778</v>
       </c>
       <c r="F16">
-        <v>8500059</v>
+        <v>8534721</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1203,25 +1185,25 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>6038950</v>
+        <v>12108785</v>
       </c>
       <c r="F17">
-        <v>8500689</v>
+        <v>8534706</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1238,25 +1220,25 @@
         <v>28</v>
       </c>
       <c r="E18">
-        <v>6038984</v>
+        <v>12110193</v>
       </c>
       <c r="F18">
-        <v>8500745</v>
+        <v>8536412</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1273,25 +1255,25 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>6040064</v>
+        <v>12110574</v>
       </c>
       <c r="F19">
-        <v>8502080</v>
+        <v>8536852</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1308,25 +1290,25 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>6040087</v>
+        <v>12110992</v>
       </c>
       <c r="F20">
-        <v>8502113</v>
+        <v>8537322</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1343,25 +1325,25 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>6040088</v>
+        <v>12111393</v>
       </c>
       <c r="F21">
-        <v>8502115</v>
+        <v>8537868</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1378,25 +1360,25 @@
         <v>32</v>
       </c>
       <c r="E22">
-        <v>6041343</v>
+        <v>12112182</v>
       </c>
       <c r="F22">
-        <v>8503499</v>
+        <v>8538847</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1413,25 +1395,25 @@
         <v>33</v>
       </c>
       <c r="E23">
-        <v>12083979</v>
+        <v>12112314</v>
       </c>
       <c r="F23">
-        <v>8504470</v>
+        <v>8538963</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" t="s">
         <v>77</v>
       </c>
-      <c r="I23" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" t="s">
-        <v>82</v>
-      </c>
       <c r="K23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1448,25 +1430,25 @@
         <v>34</v>
       </c>
       <c r="E24">
-        <v>12084078</v>
+        <v>12112822</v>
       </c>
       <c r="F24">
-        <v>8504582</v>
+        <v>8539614</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" t="s">
         <v>77</v>
       </c>
-      <c r="I24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J24" t="s">
-        <v>82</v>
-      </c>
       <c r="K24" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1483,25 +1465,25 @@
         <v>35</v>
       </c>
       <c r="E25">
-        <v>12085828</v>
+        <v>12114298</v>
       </c>
       <c r="F25">
-        <v>8506994</v>
+        <v>8541330</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1518,25 +1500,25 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>12085981</v>
+        <v>12114966</v>
       </c>
       <c r="F26">
-        <v>8507153</v>
+        <v>8542114</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1553,165 +1535,25 @@
         <v>37</v>
       </c>
       <c r="E27">
-        <v>12089562</v>
+        <v>12117464</v>
       </c>
       <c r="F27">
-        <v>8511540</v>
+        <v>8545117</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28">
-        <v>12090861</v>
-      </c>
-      <c r="F28">
-        <v>8513150</v>
-      </c>
-      <c r="G28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" t="s">
-        <v>82</v>
-      </c>
-      <c r="K28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29">
-        <v>12092359</v>
-      </c>
-      <c r="F29">
-        <v>8514904</v>
-      </c>
-      <c r="G29" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" t="s">
-        <v>81</v>
-      </c>
-      <c r="J29" t="s">
-        <v>82</v>
-      </c>
-      <c r="K29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30">
-        <v>12093061</v>
-      </c>
-      <c r="F30">
-        <v>8515747</v>
-      </c>
-      <c r="G30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30" t="s">
-        <v>83</v>
-      </c>
-      <c r="K30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31">
-        <v>12093493</v>
-      </c>
-      <c r="F31">
-        <v>8516300</v>
-      </c>
-      <c r="G31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K31" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="85">
   <si>
     <t>Hoje</t>
   </si>
@@ -46,166 +46,184 @@
     <t>Opções</t>
   </si>
   <si>
-    <t>08-03-2023</t>
+    <t>11-04-2023</t>
   </si>
   <si>
     <t>417823 - PREMIUM SAÚDE S.A</t>
   </si>
   <si>
-    <t>22/02/2023  13:20:30</t>
-  </si>
-  <si>
-    <t>23/02/2023  14:43:35</t>
-  </si>
-  <si>
-    <t>23/02/2023  16:18:56</t>
-  </si>
-  <si>
-    <t>23/02/2023  18:13:42</t>
-  </si>
-  <si>
-    <t>24/02/2023  09:52:10</t>
-  </si>
-  <si>
-    <t>24/02/2023  11:28:04</t>
-  </si>
-  <si>
-    <t>24/02/2023  11:57:39</t>
-  </si>
-  <si>
-    <t>24/02/2023  15:00:12</t>
-  </si>
-  <si>
-    <t>27/02/2023  08:52:53</t>
-  </si>
-  <si>
-    <t>27/02/2023  13:41:12</t>
-  </si>
-  <si>
-    <t>27/02/2023  14:18:57</t>
-  </si>
-  <si>
-    <t>27/02/2023  17:50:50</t>
-  </si>
-  <si>
-    <t>28/02/2023  16:34:18</t>
-  </si>
-  <si>
-    <t>01/03/2023  13:44:26</t>
-  </si>
-  <si>
-    <t>01/03/2023  15:25:43</t>
-  </si>
-  <si>
-    <t>01/03/2023  15:28:35</t>
-  </si>
-  <si>
-    <t>02/03/2023  13:02:25</t>
-  </si>
-  <si>
-    <t>02/03/2023  15:05:54</t>
-  </si>
-  <si>
-    <t>02/03/2023  17:41:35</t>
-  </si>
-  <si>
-    <t>03/03/2023  09:14:37</t>
-  </si>
-  <si>
-    <t>03/03/2023  13:44:58</t>
-  </si>
-  <si>
-    <t>03/03/2023  14:24:02</t>
-  </si>
-  <si>
-    <t>03/03/2023  17:10:10</t>
-  </si>
-  <si>
-    <t>06/03/2023  13:06:59</t>
-  </si>
-  <si>
-    <t>06/03/2023  15:55:51</t>
-  </si>
-  <si>
-    <t>07/03/2023  19:16:59</t>
-  </si>
-  <si>
-    <t>JANAINA RODRIGUES DA SILVA</t>
-  </si>
-  <si>
-    <t>ALEXANDRO ALVES BORGES</t>
-  </si>
-  <si>
-    <t>KEITI ALVES MASSUDA SANCHES</t>
-  </si>
-  <si>
-    <t>MATHEUS SOARES</t>
-  </si>
-  <si>
-    <t>ANDREIA OLIVEIRA DA SILVA NERIS</t>
-  </si>
-  <si>
-    <t>ANA PAULA CUNHA VIANA ARAUJO</t>
-  </si>
-  <si>
-    <t>MARCIA MARIA DA SILVA DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>ALISSON DUMONT BESSA</t>
-  </si>
-  <si>
-    <t>IARA MARIA SILVA</t>
-  </si>
-  <si>
-    <t>HENRIQUE CALDEIRA RODRIGUES</t>
-  </si>
-  <si>
-    <t>DAVI LUCCA DE SOUZA FALCAO</t>
-  </si>
-  <si>
-    <t>RACHEL SILVA ROCHA NOGUEIRA</t>
-  </si>
-  <si>
-    <t>GIOVANA CARLA ALMEIDA CAMPOS</t>
-  </si>
-  <si>
-    <t>MARCIA MARIA DE SOUSA</t>
-  </si>
-  <si>
-    <t>LUANA KAROLINE OLIVEIRA LIMA</t>
-  </si>
-  <si>
-    <t>ANDREY CAMILO BARROS</t>
-  </si>
-  <si>
-    <t>VILMAR XAVIER DOS SANTOS</t>
-  </si>
-  <si>
-    <t>ROBERT RICHARD DE FREITAS LANNES</t>
-  </si>
-  <si>
-    <t>IRAÇUY LUZIA SOUZA</t>
-  </si>
-  <si>
-    <t>LAISLA DOS SANTOS RIBEIRO</t>
-  </si>
-  <si>
-    <t>GABRIELLE DA COSTA VIANA CHIABAI PATERLINI</t>
-  </si>
-  <si>
-    <t>JOSE JULIO DA SILVA</t>
-  </si>
-  <si>
-    <t>ELIEL DA SILVEIRA</t>
-  </si>
-  <si>
-    <t>NAYARA LORRAYNE DA SILVA</t>
-  </si>
-  <si>
-    <t>SOFIA SOUZA NASCIMENTO</t>
-  </si>
-  <si>
-    <t>AMANDA VICENTE DA SILVA</t>
+    <t>27/03/2023  11:42:35</t>
+  </si>
+  <si>
+    <t>28/03/2023  12:56:37</t>
+  </si>
+  <si>
+    <t>28/03/2023  14:38:13</t>
+  </si>
+  <si>
+    <t>29/03/2023  09:47:08</t>
+  </si>
+  <si>
+    <t>29/03/2023  12:30:46</t>
+  </si>
+  <si>
+    <t>29/03/2023  13:12:34</t>
+  </si>
+  <si>
+    <t>29/03/2023  13:31:59</t>
+  </si>
+  <si>
+    <t>29/03/2023  15:02:49</t>
+  </si>
+  <si>
+    <t>29/03/2023  16:41:58</t>
+  </si>
+  <si>
+    <t>29/03/2023  17:44:07</t>
+  </si>
+  <si>
+    <t>30/03/2023  10:18:35</t>
+  </si>
+  <si>
+    <t>30/03/2023  18:10:52</t>
+  </si>
+  <si>
+    <t>31/03/2023  15:44:32</t>
+  </si>
+  <si>
+    <t>31/03/2023  16:30:14</t>
+  </si>
+  <si>
+    <t>03/04/2023  13:44:27</t>
+  </si>
+  <si>
+    <t>03/04/2023  14:47:05</t>
+  </si>
+  <si>
+    <t>03/04/2023  15:25:17</t>
+  </si>
+  <si>
+    <t>03/04/2023  19:51:17</t>
+  </si>
+  <si>
+    <t>04/04/2023  09:49:35</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:25:14</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:37:21</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:44:53</t>
+  </si>
+  <si>
+    <t>04/04/2023  16:42:14</t>
+  </si>
+  <si>
+    <t>05/04/2023  14:26:09</t>
+  </si>
+  <si>
+    <t>06/04/2023  13:03:51</t>
+  </si>
+  <si>
+    <t>10/04/2023  09:19:30</t>
+  </si>
+  <si>
+    <t>10/04/2023  10:47:50</t>
+  </si>
+  <si>
+    <t>11/04/2023  08:39:19</t>
+  </si>
+  <si>
+    <t>11/04/2023  11:09:14</t>
+  </si>
+  <si>
+    <t>BETHANIA DE PAULA BARBOSA</t>
+  </si>
+  <si>
+    <t>YASMIN SANTOS PALHARES HORTA</t>
+  </si>
+  <si>
+    <t>ANA PAULA DE MELO ASSIS</t>
+  </si>
+  <si>
+    <t>GAEL AUGUSTO FERREIRA SANTOS</t>
+  </si>
+  <si>
+    <t>MARIANA FERREIRA BORGES</t>
+  </si>
+  <si>
+    <t>GILMAR DE JESUS</t>
+  </si>
+  <si>
+    <t>CLAUDETE APARECIDA SILVA</t>
+  </si>
+  <si>
+    <t>LARA EMANUELLY BARBOSA ALVES DE MELO</t>
+  </si>
+  <si>
+    <t>VALDIRA FOGACA FLORES</t>
+  </si>
+  <si>
+    <t>DURVALINA SOUZA PEREIRA</t>
+  </si>
+  <si>
+    <t>MARIA LENICE DA SILVA BOA VENTURA</t>
+  </si>
+  <si>
+    <t>PRISCILA TIZONI GOMES RIBEIRO SILVA</t>
+  </si>
+  <si>
+    <t>ALEXSANDRA RAMOS MARGARIDA</t>
+  </si>
+  <si>
+    <t>CREUZA CASTELLARI MARCONSINI REIS</t>
+  </si>
+  <si>
+    <t>BÁRBARA DE OLIVEIRA PATRÍCIO</t>
+  </si>
+  <si>
+    <t>KEPA FREDRICK STOCKNER</t>
+  </si>
+  <si>
+    <t>DAVIDSON LUIZ PEREIRA LOPES</t>
+  </si>
+  <si>
+    <t>KENIA CLAUDIA FARIA CAMPOS</t>
+  </si>
+  <si>
+    <t>CRISTIANE BATISTA ROCHA</t>
+  </si>
+  <si>
+    <t>ROBSON FRANCISCO LANZA JUNIOR</t>
+  </si>
+  <si>
+    <t>ANDREIA MARIA OTTONI MORAES</t>
+  </si>
+  <si>
+    <t>ANTONIA EVA MAGALHAES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ISIS NOGUEIRA CHAVES</t>
+  </si>
+  <si>
+    <t>ANTONIO CARLOS SANTOS</t>
+  </si>
+  <si>
+    <t>DANIELA FARIAS VASCONCELOS</t>
+  </si>
+  <si>
+    <t>CAIO HENRIQUE RODRIGUES FERNANDES</t>
+  </si>
+  <si>
+    <t>DIEGO SANTOS DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>AYLA ALVES COELHO</t>
+  </si>
+  <si>
+    <t>PRISCILA APARECIDA SANTOS FRANCISCO</t>
   </si>
   <si>
     <t>1 dias úteis</t>
@@ -608,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,25 +678,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>12098731</v>
+        <v>12142270</v>
       </c>
       <c r="F2">
-        <v>8522684</v>
+        <v>8574731</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -695,25 +713,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>12100608</v>
+        <v>12144548</v>
       </c>
       <c r="F3">
-        <v>8525088</v>
+        <v>8577545</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -730,25 +748,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>12100990</v>
+        <v>12144906</v>
       </c>
       <c r="F4">
-        <v>8525516</v>
+        <v>8578064</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -765,25 +783,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>12101245</v>
+        <v>12145988</v>
       </c>
       <c r="F5">
-        <v>8525822</v>
+        <v>8579353</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -800,25 +818,25 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>12101668</v>
+        <v>12146576</v>
       </c>
       <c r="F6">
-        <v>8526271</v>
+        <v>8580030</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -835,25 +853,25 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>12101971</v>
+        <v>12146711</v>
       </c>
       <c r="F7">
-        <v>8526638</v>
+        <v>8580119</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -870,25 +888,25 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>12102054</v>
+        <v>12146787</v>
       </c>
       <c r="F8">
-        <v>8526729</v>
+        <v>8580243</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -905,25 +923,25 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>12102643</v>
+        <v>12147152</v>
       </c>
       <c r="F9">
-        <v>8527426</v>
+        <v>8580726</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -940,25 +958,25 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>12103694</v>
+        <v>12147478</v>
       </c>
       <c r="F10">
-        <v>8528664</v>
+        <v>8230607</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -975,25 +993,25 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>12104467</v>
+        <v>12147631</v>
       </c>
       <c r="F11">
-        <v>8529617</v>
+        <v>8581299</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1010,25 +1028,25 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>12104624</v>
+        <v>12148200</v>
       </c>
       <c r="F12">
-        <v>8529808</v>
+        <v>8581975</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1045,25 +1063,25 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>12105288</v>
+        <v>12149727</v>
       </c>
       <c r="F13">
-        <v>8530611</v>
+        <v>8583861</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1080,25 +1098,25 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>12107119</v>
+        <v>12151325</v>
       </c>
       <c r="F14">
-        <v>8532804</v>
+        <v>8585862</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1115,25 +1133,25 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>12108424</v>
+        <v>12151461</v>
       </c>
       <c r="F15">
-        <v>8534335</v>
+        <v>8586030</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1150,25 +1168,25 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>12108778</v>
+        <v>12153205</v>
       </c>
       <c r="F16">
-        <v>8534721</v>
+        <v>8588077</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1185,25 +1203,25 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>12108785</v>
+        <v>12153463</v>
       </c>
       <c r="F17">
-        <v>8534706</v>
+        <v>8588431</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1220,25 +1238,25 @@
         <v>28</v>
       </c>
       <c r="E18">
-        <v>12110193</v>
+        <v>12153630</v>
       </c>
       <c r="F18">
-        <v>8536412</v>
+        <v>8588645</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1255,25 +1273,25 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>12110574</v>
+        <v>12154294</v>
       </c>
       <c r="F19">
-        <v>8536852</v>
+        <v>8589407</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1290,25 +1308,25 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>12110992</v>
+        <v>12154631</v>
       </c>
       <c r="F20">
-        <v>8537322</v>
+        <v>8589813</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1325,25 +1343,25 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>12111393</v>
+        <v>12155655</v>
       </c>
       <c r="F21">
-        <v>8537868</v>
+        <v>8591050</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1360,25 +1378,25 @@
         <v>32</v>
       </c>
       <c r="E22">
-        <v>12112182</v>
+        <v>12155706</v>
       </c>
       <c r="F22">
-        <v>8538847</v>
+        <v>8591067</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1395,25 +1413,25 @@
         <v>33</v>
       </c>
       <c r="E23">
-        <v>12112314</v>
+        <v>12155732</v>
       </c>
       <c r="F23">
-        <v>8538963</v>
+        <v>8591079</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1430,25 +1448,25 @@
         <v>34</v>
       </c>
       <c r="E24">
-        <v>12112822</v>
+        <v>12156130</v>
       </c>
       <c r="F24">
-        <v>8539614</v>
+        <v>8591725</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1465,25 +1483,25 @@
         <v>35</v>
       </c>
       <c r="E25">
-        <v>12114298</v>
+        <v>12157899</v>
       </c>
       <c r="F25">
-        <v>8541330</v>
+        <v>8593801</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1500,25 +1518,25 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>12114966</v>
+        <v>12159646</v>
       </c>
       <c r="F26">
-        <v>8542114</v>
+        <v>7797800</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1535,25 +1553,130 @@
         <v>37</v>
       </c>
       <c r="E27">
-        <v>12117464</v>
+        <v>12161100</v>
       </c>
       <c r="F27">
-        <v>8545117</v>
+        <v>8597675</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>12161386</v>
+      </c>
+      <c r="F28">
+        <v>8598016</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>12163407</v>
+      </c>
+      <c r="F29">
+        <v>8600473</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>12163869</v>
+      </c>
+      <c r="F30">
+        <v>8601052</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="111">
   <si>
     <t>Hoje</t>
   </si>
@@ -49,181 +49,262 @@
     <t>11-04-2023</t>
   </si>
   <si>
-    <t>417823 - PREMIUM SAÚDE S.A</t>
-  </si>
-  <si>
-    <t>27/03/2023  11:42:35</t>
-  </si>
-  <si>
-    <t>28/03/2023  12:56:37</t>
-  </si>
-  <si>
-    <t>28/03/2023  14:38:13</t>
-  </si>
-  <si>
-    <t>29/03/2023  09:47:08</t>
-  </si>
-  <si>
-    <t>29/03/2023  12:30:46</t>
-  </si>
-  <si>
-    <t>29/03/2023  13:12:34</t>
-  </si>
-  <si>
-    <t>29/03/2023  13:31:59</t>
-  </si>
-  <si>
-    <t>29/03/2023  15:02:49</t>
-  </si>
-  <si>
-    <t>29/03/2023  16:41:58</t>
-  </si>
-  <si>
-    <t>29/03/2023  17:44:07</t>
-  </si>
-  <si>
-    <t>30/03/2023  10:18:35</t>
-  </si>
-  <si>
-    <t>30/03/2023  18:10:52</t>
-  </si>
-  <si>
-    <t>31/03/2023  15:44:32</t>
-  </si>
-  <si>
-    <t>31/03/2023  16:30:14</t>
-  </si>
-  <si>
-    <t>03/04/2023  13:44:27</t>
-  </si>
-  <si>
-    <t>03/04/2023  14:47:05</t>
-  </si>
-  <si>
-    <t>03/04/2023  15:25:17</t>
-  </si>
-  <si>
-    <t>03/04/2023  19:51:17</t>
-  </si>
-  <si>
-    <t>04/04/2023  09:49:35</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:25:14</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:37:21</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:44:53</t>
-  </si>
-  <si>
-    <t>04/04/2023  16:42:14</t>
-  </si>
-  <si>
-    <t>05/04/2023  14:26:09</t>
-  </si>
-  <si>
-    <t>06/04/2023  13:03:51</t>
-  </si>
-  <si>
-    <t>10/04/2023  09:19:30</t>
-  </si>
-  <si>
-    <t>10/04/2023  10:47:50</t>
-  </si>
-  <si>
-    <t>11/04/2023  08:39:19</t>
-  </si>
-  <si>
-    <t>11/04/2023  11:09:14</t>
-  </si>
-  <si>
-    <t>BETHANIA DE PAULA BARBOSA</t>
-  </si>
-  <si>
-    <t>YASMIN SANTOS PALHARES HORTA</t>
-  </si>
-  <si>
-    <t>ANA PAULA DE MELO ASSIS</t>
-  </si>
-  <si>
-    <t>GAEL AUGUSTO FERREIRA SANTOS</t>
-  </si>
-  <si>
-    <t>MARIANA FERREIRA BORGES</t>
-  </si>
-  <si>
-    <t>GILMAR DE JESUS</t>
-  </si>
-  <si>
-    <t>CLAUDETE APARECIDA SILVA</t>
-  </si>
-  <si>
-    <t>LARA EMANUELLY BARBOSA ALVES DE MELO</t>
-  </si>
-  <si>
-    <t>VALDIRA FOGACA FLORES</t>
-  </si>
-  <si>
-    <t>DURVALINA SOUZA PEREIRA</t>
-  </si>
-  <si>
-    <t>MARIA LENICE DA SILVA BOA VENTURA</t>
-  </si>
-  <si>
-    <t>PRISCILA TIZONI GOMES RIBEIRO SILVA</t>
-  </si>
-  <si>
-    <t>ALEXSANDRA RAMOS MARGARIDA</t>
-  </si>
-  <si>
-    <t>CREUZA CASTELLARI MARCONSINI REIS</t>
-  </si>
-  <si>
-    <t>BÁRBARA DE OLIVEIRA PATRÍCIO</t>
-  </si>
-  <si>
-    <t>KEPA FREDRICK STOCKNER</t>
-  </si>
-  <si>
-    <t>DAVIDSON LUIZ PEREIRA LOPES</t>
-  </si>
-  <si>
-    <t>KENIA CLAUDIA FARIA CAMPOS</t>
-  </si>
-  <si>
-    <t>CRISTIANE BATISTA ROCHA</t>
-  </si>
-  <si>
-    <t>ROBSON FRANCISCO LANZA JUNIOR</t>
-  </si>
-  <si>
-    <t>ANDREIA MARIA OTTONI MORAES</t>
-  </si>
-  <si>
-    <t>ANTONIA EVA MAGALHAES DOS SANTOS</t>
-  </si>
-  <si>
-    <t>ISIS NOGUEIRA CHAVES</t>
-  </si>
-  <si>
-    <t>ANTONIO CARLOS SANTOS</t>
-  </si>
-  <si>
-    <t>DANIELA FARIAS VASCONCELOS</t>
-  </si>
-  <si>
-    <t>CAIO HENRIQUE RODRIGUES FERNANDES</t>
-  </si>
-  <si>
-    <t>DIEGO SANTOS DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>AYLA ALVES COELHO</t>
-  </si>
-  <si>
-    <t>PRISCILA APARECIDA SANTOS FRANCISCO</t>
+    <t>422380 - YOU ASSISTÊNCIA MÉDICA LTDA</t>
+  </si>
+  <si>
+    <t>27/03/2023  10:12:21</t>
+  </si>
+  <si>
+    <t>27/03/2023  13:27:06</t>
+  </si>
+  <si>
+    <t>27/03/2023  17:25:16</t>
+  </si>
+  <si>
+    <t>27/03/2023  19:42:18</t>
+  </si>
+  <si>
+    <t>27/03/2023  19:57:33</t>
+  </si>
+  <si>
+    <t>28/03/2023  10:09:05</t>
+  </si>
+  <si>
+    <t>28/03/2023  13:41:27</t>
+  </si>
+  <si>
+    <t>28/03/2023  18:17:17</t>
+  </si>
+  <si>
+    <t>29/03/2023  15:40:36</t>
+  </si>
+  <si>
+    <t>29/03/2023  17:18:47</t>
+  </si>
+  <si>
+    <t>30/03/2023  10:44:52</t>
+  </si>
+  <si>
+    <t>30/03/2023  14:42:51</t>
+  </si>
+  <si>
+    <t>30/03/2023  22:05:13</t>
+  </si>
+  <si>
+    <t>31/03/2023  09:33:21</t>
+  </si>
+  <si>
+    <t>31/03/2023  09:49:39</t>
+  </si>
+  <si>
+    <t>31/03/2023  11:43:24</t>
+  </si>
+  <si>
+    <t>01/04/2023  16:35:36</t>
+  </si>
+  <si>
+    <t>01/04/2023  16:55:34</t>
+  </si>
+  <si>
+    <t>03/04/2023  09:41:48</t>
+  </si>
+  <si>
+    <t>03/04/2023  14:02:31</t>
+  </si>
+  <si>
+    <t>03/04/2023  18:58:23</t>
+  </si>
+  <si>
+    <t>04/04/2023  09:27:21</t>
+  </si>
+  <si>
+    <t>04/04/2023  11:32:18</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:57:51</t>
+  </si>
+  <si>
+    <t>04/04/2023  16:52:11</t>
+  </si>
+  <si>
+    <t>04/04/2023  17:48:58</t>
+  </si>
+  <si>
+    <t>05/04/2023  09:17:32</t>
+  </si>
+  <si>
+    <t>05/04/2023  09:38:27</t>
+  </si>
+  <si>
+    <t>05/04/2023  11:14:32</t>
+  </si>
+  <si>
+    <t>05/04/2023  14:58:01</t>
+  </si>
+  <si>
+    <t>05/04/2023  17:16:13</t>
+  </si>
+  <si>
+    <t>05/04/2023  18:37:46</t>
+  </si>
+  <si>
+    <t>06/04/2023  09:43:31</t>
+  </si>
+  <si>
+    <t>06/04/2023  17:07:51</t>
+  </si>
+  <si>
+    <t>10/04/2023  08:44:11</t>
+  </si>
+  <si>
+    <t>10/04/2023  11:56:29</t>
+  </si>
+  <si>
+    <t>10/04/2023  13:25:58</t>
+  </si>
+  <si>
+    <t>10/04/2023  14:54:09</t>
+  </si>
+  <si>
+    <t>10/04/2023  15:00:01</t>
+  </si>
+  <si>
+    <t>11/04/2023  08:23:00</t>
+  </si>
+  <si>
+    <t>11/04/2023  09:34:28</t>
+  </si>
+  <si>
+    <t>11/04/2023  13:50:53</t>
+  </si>
+  <si>
+    <t>11/04/2023  15:08:53</t>
+  </si>
+  <si>
+    <t>RUAN LUCAS NUNES DE SOUZA</t>
+  </si>
+  <si>
+    <t>ANA CRISTINA BORGES DA SILVA</t>
+  </si>
+  <si>
+    <t>WILZA CARLA BARBOSA</t>
+  </si>
+  <si>
+    <t>DEISE ROCHA DA SILVA</t>
+  </si>
+  <si>
+    <t>ISABELLE VIEIRA PIO</t>
+  </si>
+  <si>
+    <t>ANDREA DA SILVA AMORIM</t>
+  </si>
+  <si>
+    <t>EDMILSON RODRIGUES DE SOUZA</t>
+  </si>
+  <si>
+    <t>HELLEN REIS DE FRANCA PEREIRA</t>
+  </si>
+  <si>
+    <t>MARILIA LUIZA OLIVEIRA DE MELO</t>
+  </si>
+  <si>
+    <t>LORRAYNE BALDI ANDRADE</t>
+  </si>
+  <si>
+    <t>MARIA CLAUDIA MENDES DA COSTA</t>
+  </si>
+  <si>
+    <t>ANDRESSA CASSANDRO STOFEL DE LIMA</t>
+  </si>
+  <si>
+    <t>FABIO DE VASCONCELOS MELO</t>
+  </si>
+  <si>
+    <t>ELIANE SANTOS XAVIER DAS NEVES</t>
+  </si>
+  <si>
+    <t>SUELI DOS SANTOS DA SILVA</t>
+  </si>
+  <si>
+    <t>MARCELINA CAMPELO DE SOUSA</t>
+  </si>
+  <si>
+    <t>SILMA MEDEIROS DO PATROCÃ­NIO</t>
+  </si>
+  <si>
+    <t>WERISLAYNI OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>RENATA ADRIANA DOS SANTOS NASCIMENTO</t>
+  </si>
+  <si>
+    <t>AUDILENE FERREIRA LOPES NASCIMENTO</t>
+  </si>
+  <si>
+    <t>ANDREZZA PEVAS DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>MARIA CRISTINA TAVARES DA SILVA</t>
+  </si>
+  <si>
+    <t>ANA DRIELI DA SILVA LAGES</t>
+  </si>
+  <si>
+    <t>PYETRO SOUZA DE JESUS</t>
+  </si>
+  <si>
+    <t>MAURICEA DA SILVA CORREIA TAVARES</t>
+  </si>
+  <si>
+    <t>MARIA APARECIDA DA SILVA RIBEIRO</t>
+  </si>
+  <si>
+    <t>ALEXANDRE DE MELO WAGNER JUNIOR</t>
+  </si>
+  <si>
+    <t>SUELLEN PINHEIRO VIANA</t>
+  </si>
+  <si>
+    <t>EDNA LOPES DA SILVA</t>
+  </si>
+  <si>
+    <t>RHILLARY CAMILLE SOARES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>SARAH DE OLIVEIRA PEREZ</t>
+  </si>
+  <si>
+    <t>CARLOS RODRIGO CHAGAS GITIRANA</t>
+  </si>
+  <si>
+    <t>CRISTIANO DE OLIVEIRA CARNEIRO</t>
+  </si>
+  <si>
+    <t>BRAYAN MIGUEL JAFFRA PEREIRA</t>
+  </si>
+  <si>
+    <t>JANAINA MARIA DA SILVA</t>
+  </si>
+  <si>
+    <t>CLEO DALSIOR VOM DOELINGER</t>
+  </si>
+  <si>
+    <t>WELLINGTON FERREIRA DE JESUS</t>
+  </si>
+  <si>
+    <t>BENICIO MARTINS FERNANDES</t>
+  </si>
+  <si>
+    <t>PAOLA MONIQUE DA SILVA TEIXEIRA</t>
+  </si>
+  <si>
+    <t>IDEILDO LUCENA MOURA DA SILVA JUNIOR</t>
+  </si>
+  <si>
+    <t>MARIA DA CONCEICAO DA SILVA</t>
+  </si>
+  <si>
+    <t>VALDIR FERNANDES DE ARAUJO</t>
   </si>
   <si>
     <t>1 dias úteis</t>
@@ -254,9 +335,6 @@
   </si>
   <si>
     <t>10 dias úteis</t>
-  </si>
-  <si>
-    <t>SIM</t>
   </si>
   <si>
     <t>NO</t>
@@ -626,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,25 +756,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>12142270</v>
+        <v>12141979</v>
       </c>
       <c r="F2">
-        <v>8574731</v>
+        <v>8574393</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -713,25 +791,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>12144548</v>
+        <v>12142637</v>
       </c>
       <c r="F3">
-        <v>8577545</v>
+        <v>8575143</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -748,25 +826,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>12144906</v>
+        <v>12143473</v>
       </c>
       <c r="F4">
-        <v>8578064</v>
+        <v>8576202</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -783,25 +861,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>12145988</v>
+        <v>12143688</v>
       </c>
       <c r="F5">
-        <v>8579353</v>
+        <v>8576509</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -818,25 +896,25 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>12146576</v>
+        <v>12143713</v>
       </c>
       <c r="F6">
-        <v>8580030</v>
+        <v>8576536</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -853,25 +931,25 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>12146711</v>
+        <v>12144046</v>
       </c>
       <c r="F7">
-        <v>8580119</v>
+        <v>8576958</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -888,25 +966,25 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>12146787</v>
+        <v>12144699</v>
       </c>
       <c r="F8">
-        <v>8580243</v>
+        <v>8577773</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -923,25 +1001,25 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>12147152</v>
+        <v>12145536</v>
       </c>
       <c r="F9">
-        <v>8580726</v>
+        <v>8578787</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -958,25 +1036,25 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>12147478</v>
+        <v>12147299</v>
       </c>
       <c r="F10">
-        <v>8230607</v>
+        <v>8580883</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -993,25 +1071,25 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>12147631</v>
+        <v>12147571</v>
       </c>
       <c r="F11">
-        <v>8581299</v>
+        <v>8581252</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1028,25 +1106,25 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>12148200</v>
+        <v>12148282</v>
       </c>
       <c r="F12">
-        <v>8581975</v>
+        <v>8582107</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1063,25 +1141,25 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>12149727</v>
+        <v>12149112</v>
       </c>
       <c r="F13">
-        <v>8583861</v>
+        <v>8583135</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1098,25 +1176,25 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>12151325</v>
+        <v>12149924</v>
       </c>
       <c r="F14">
-        <v>8585862</v>
+        <v>8584156</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1133,25 +1211,25 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>12151461</v>
+        <v>12150089</v>
       </c>
       <c r="F15">
-        <v>8586030</v>
+        <v>8584343</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1168,25 +1246,25 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>12153205</v>
+        <v>12150135</v>
       </c>
       <c r="F16">
-        <v>8588077</v>
+        <v>8584374</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1203,25 +1281,25 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>12153463</v>
+        <v>12150483</v>
       </c>
       <c r="F17">
-        <v>8588431</v>
+        <v>8584813</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1238,25 +1316,25 @@
         <v>28</v>
       </c>
       <c r="E18">
-        <v>12153630</v>
+        <v>12152006</v>
       </c>
       <c r="F18">
-        <v>8588645</v>
+        <v>8586692</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1273,25 +1351,25 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>12154294</v>
+        <v>12152010</v>
       </c>
       <c r="F19">
-        <v>8589407</v>
+        <v>8586697</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K19" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1308,25 +1386,25 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>12154631</v>
+        <v>12152365</v>
       </c>
       <c r="F20">
-        <v>8589813</v>
+        <v>8587082</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1343,25 +1421,25 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>12155655</v>
+        <v>12153268</v>
       </c>
       <c r="F21">
-        <v>8591050</v>
+        <v>8588178</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1378,25 +1456,25 @@
         <v>32</v>
       </c>
       <c r="E22">
-        <v>12155706</v>
+        <v>12154201</v>
       </c>
       <c r="F22">
-        <v>8591067</v>
+        <v>8589287</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1413,25 +1491,25 @@
         <v>33</v>
       </c>
       <c r="E23">
-        <v>12155732</v>
+        <v>12154563</v>
       </c>
       <c r="F23">
-        <v>8591079</v>
+        <v>8589717</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K23" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1448,25 +1526,25 @@
         <v>34</v>
       </c>
       <c r="E24">
-        <v>12156130</v>
+        <v>12154995</v>
       </c>
       <c r="F24">
-        <v>8591725</v>
+        <v>8590264</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K24" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1483,25 +1561,25 @@
         <v>35</v>
       </c>
       <c r="E25">
-        <v>12157899</v>
+        <v>12155773</v>
       </c>
       <c r="F25">
-        <v>8593801</v>
+        <v>8591144</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1518,25 +1596,25 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>12159646</v>
+        <v>12156156</v>
       </c>
       <c r="F26">
-        <v>7797800</v>
+        <v>8591752</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K26" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1553,25 +1631,25 @@
         <v>37</v>
       </c>
       <c r="E27">
-        <v>12161100</v>
+        <v>12156297</v>
       </c>
       <c r="F27">
-        <v>8597675</v>
+        <v>8591919</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K27" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1588,25 +1666,25 @@
         <v>38</v>
       </c>
       <c r="E28">
-        <v>12161386</v>
+        <v>12156771</v>
       </c>
       <c r="F28">
-        <v>8598016</v>
+        <v>8592489</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K28" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1623,25 +1701,25 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>12163407</v>
+        <v>12156826</v>
       </c>
       <c r="F29">
-        <v>8600473</v>
+        <v>8592529</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="I29" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K29" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1658,25 +1736,515 @@
         <v>40</v>
       </c>
       <c r="E30">
-        <v>12163869</v>
+        <v>12157160</v>
       </c>
       <c r="F30">
-        <v>8601052</v>
+        <v>8592956</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>12158020</v>
+      </c>
+      <c r="F31">
+        <v>8593967</v>
+      </c>
+      <c r="G31" t="s">
         <v>84</v>
+      </c>
+      <c r="H31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <v>12158435</v>
+      </c>
+      <c r="F32">
+        <v>8594522</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33">
+        <v>12158576</v>
+      </c>
+      <c r="F33">
+        <v>8594695</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>12159014</v>
+      </c>
+      <c r="F34">
+        <v>8595238</v>
+      </c>
+      <c r="G34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35">
+        <v>12160376</v>
+      </c>
+      <c r="F35">
+        <v>8596884</v>
+      </c>
+      <c r="G35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36">
+        <v>12161017</v>
+      </c>
+      <c r="F36">
+        <v>8597595</v>
+      </c>
+      <c r="G36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" t="s">
+        <v>109</v>
+      </c>
+      <c r="K36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37">
+        <v>12161650</v>
+      </c>
+      <c r="F37">
+        <v>8598342</v>
+      </c>
+      <c r="G37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38">
+        <v>12162010</v>
+      </c>
+      <c r="F38">
+        <v>8598761</v>
+      </c>
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39">
+        <v>12162415</v>
+      </c>
+      <c r="F39">
+        <v>8599264</v>
+      </c>
+      <c r="G39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>12162439</v>
+      </c>
+      <c r="F40">
+        <v>8599230</v>
+      </c>
+      <c r="G40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" t="s">
+        <v>107</v>
+      </c>
+      <c r="J40" t="s">
+        <v>108</v>
+      </c>
+      <c r="K40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41">
+        <v>12163370</v>
+      </c>
+      <c r="F41">
+        <v>8600412</v>
+      </c>
+      <c r="G41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" t="s">
+        <v>107</v>
+      </c>
+      <c r="J41" t="s">
+        <v>108</v>
+      </c>
+      <c r="K41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42">
+        <v>12163535</v>
+      </c>
+      <c r="F42">
+        <v>8600621</v>
+      </c>
+      <c r="G42" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42" t="s">
+        <v>107</v>
+      </c>
+      <c r="J42" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43">
+        <v>12164502</v>
+      </c>
+      <c r="F43">
+        <v>8601769</v>
+      </c>
+      <c r="G43" t="s">
+        <v>95</v>
+      </c>
+      <c r="H43" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" t="s">
+        <v>107</v>
+      </c>
+      <c r="J43" t="s">
+        <v>108</v>
+      </c>
+      <c r="K43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44">
+        <v>12164852</v>
+      </c>
+      <c r="F44">
+        <v>8602234</v>
+      </c>
+      <c r="G44" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" t="s">
+        <v>107</v>
+      </c>
+      <c r="J44" t="s">
+        <v>108</v>
+      </c>
+      <c r="K44" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="85">
   <si>
     <t>Hoje</t>
   </si>
@@ -49,262 +49,181 @@
     <t>11-04-2023</t>
   </si>
   <si>
-    <t>422380 - YOU ASSISTÊNCIA MÉDICA LTDA</t>
-  </si>
-  <si>
-    <t>27/03/2023  10:12:21</t>
-  </si>
-  <si>
-    <t>27/03/2023  13:27:06</t>
-  </si>
-  <si>
-    <t>27/03/2023  17:25:16</t>
-  </si>
-  <si>
-    <t>27/03/2023  19:42:18</t>
-  </si>
-  <si>
-    <t>27/03/2023  19:57:33</t>
-  </si>
-  <si>
-    <t>28/03/2023  10:09:05</t>
-  </si>
-  <si>
-    <t>28/03/2023  13:41:27</t>
-  </si>
-  <si>
-    <t>28/03/2023  18:17:17</t>
-  </si>
-  <si>
-    <t>29/03/2023  15:40:36</t>
-  </si>
-  <si>
-    <t>29/03/2023  17:18:47</t>
-  </si>
-  <si>
-    <t>30/03/2023  10:44:52</t>
-  </si>
-  <si>
-    <t>30/03/2023  14:42:51</t>
-  </si>
-  <si>
-    <t>30/03/2023  22:05:13</t>
-  </si>
-  <si>
-    <t>31/03/2023  09:33:21</t>
-  </si>
-  <si>
-    <t>31/03/2023  09:49:39</t>
-  </si>
-  <si>
-    <t>31/03/2023  11:43:24</t>
-  </si>
-  <si>
-    <t>01/04/2023  16:35:36</t>
-  </si>
-  <si>
-    <t>01/04/2023  16:55:34</t>
-  </si>
-  <si>
-    <t>03/04/2023  09:41:48</t>
-  </si>
-  <si>
-    <t>03/04/2023  14:02:31</t>
-  </si>
-  <si>
-    <t>03/04/2023  18:58:23</t>
-  </si>
-  <si>
-    <t>04/04/2023  09:27:21</t>
-  </si>
-  <si>
-    <t>04/04/2023  11:32:18</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:57:51</t>
-  </si>
-  <si>
-    <t>04/04/2023  16:52:11</t>
-  </si>
-  <si>
-    <t>04/04/2023  17:48:58</t>
-  </si>
-  <si>
-    <t>05/04/2023  09:17:32</t>
-  </si>
-  <si>
-    <t>05/04/2023  09:38:27</t>
-  </si>
-  <si>
-    <t>05/04/2023  11:14:32</t>
-  </si>
-  <si>
-    <t>05/04/2023  14:58:01</t>
-  </si>
-  <si>
-    <t>05/04/2023  17:16:13</t>
-  </si>
-  <si>
-    <t>05/04/2023  18:37:46</t>
-  </si>
-  <si>
-    <t>06/04/2023  09:43:31</t>
-  </si>
-  <si>
-    <t>06/04/2023  17:07:51</t>
-  </si>
-  <si>
-    <t>10/04/2023  08:44:11</t>
-  </si>
-  <si>
-    <t>10/04/2023  11:56:29</t>
-  </si>
-  <si>
-    <t>10/04/2023  13:25:58</t>
-  </si>
-  <si>
-    <t>10/04/2023  14:54:09</t>
-  </si>
-  <si>
-    <t>10/04/2023  15:00:01</t>
-  </si>
-  <si>
-    <t>11/04/2023  08:23:00</t>
-  </si>
-  <si>
-    <t>11/04/2023  09:34:28</t>
-  </si>
-  <si>
-    <t>11/04/2023  13:50:53</t>
-  </si>
-  <si>
-    <t>11/04/2023  15:08:53</t>
-  </si>
-  <si>
-    <t>RUAN LUCAS NUNES DE SOUZA</t>
-  </si>
-  <si>
-    <t>ANA CRISTINA BORGES DA SILVA</t>
-  </si>
-  <si>
-    <t>WILZA CARLA BARBOSA</t>
-  </si>
-  <si>
-    <t>DEISE ROCHA DA SILVA</t>
-  </si>
-  <si>
-    <t>ISABELLE VIEIRA PIO</t>
-  </si>
-  <si>
-    <t>ANDREA DA SILVA AMORIM</t>
-  </si>
-  <si>
-    <t>EDMILSON RODRIGUES DE SOUZA</t>
-  </si>
-  <si>
-    <t>HELLEN REIS DE FRANCA PEREIRA</t>
-  </si>
-  <si>
-    <t>MARILIA LUIZA OLIVEIRA DE MELO</t>
-  </si>
-  <si>
-    <t>LORRAYNE BALDI ANDRADE</t>
-  </si>
-  <si>
-    <t>MARIA CLAUDIA MENDES DA COSTA</t>
-  </si>
-  <si>
-    <t>ANDRESSA CASSANDRO STOFEL DE LIMA</t>
-  </si>
-  <si>
-    <t>FABIO DE VASCONCELOS MELO</t>
-  </si>
-  <si>
-    <t>ELIANE SANTOS XAVIER DAS NEVES</t>
-  </si>
-  <si>
-    <t>SUELI DOS SANTOS DA SILVA</t>
-  </si>
-  <si>
-    <t>MARCELINA CAMPELO DE SOUSA</t>
-  </si>
-  <si>
-    <t>SILMA MEDEIROS DO PATROCÃ­NIO</t>
-  </si>
-  <si>
-    <t>WERISLAYNI OLIVEIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>RENATA ADRIANA DOS SANTOS NASCIMENTO</t>
-  </si>
-  <si>
-    <t>AUDILENE FERREIRA LOPES NASCIMENTO</t>
-  </si>
-  <si>
-    <t>ANDREZZA PEVAS DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>MARIA CRISTINA TAVARES DA SILVA</t>
-  </si>
-  <si>
-    <t>ANA DRIELI DA SILVA LAGES</t>
-  </si>
-  <si>
-    <t>PYETRO SOUZA DE JESUS</t>
-  </si>
-  <si>
-    <t>MAURICEA DA SILVA CORREIA TAVARES</t>
-  </si>
-  <si>
-    <t>MARIA APARECIDA DA SILVA RIBEIRO</t>
-  </si>
-  <si>
-    <t>ALEXANDRE DE MELO WAGNER JUNIOR</t>
-  </si>
-  <si>
-    <t>SUELLEN PINHEIRO VIANA</t>
-  </si>
-  <si>
-    <t>EDNA LOPES DA SILVA</t>
-  </si>
-  <si>
-    <t>RHILLARY CAMILLE SOARES DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>SARAH DE OLIVEIRA PEREZ</t>
-  </si>
-  <si>
-    <t>CARLOS RODRIGO CHAGAS GITIRANA</t>
-  </si>
-  <si>
-    <t>CRISTIANO DE OLIVEIRA CARNEIRO</t>
-  </si>
-  <si>
-    <t>BRAYAN MIGUEL JAFFRA PEREIRA</t>
-  </si>
-  <si>
-    <t>JANAINA MARIA DA SILVA</t>
-  </si>
-  <si>
-    <t>CLEO DALSIOR VOM DOELINGER</t>
-  </si>
-  <si>
-    <t>WELLINGTON FERREIRA DE JESUS</t>
-  </si>
-  <si>
-    <t>BENICIO MARTINS FERNANDES</t>
-  </si>
-  <si>
-    <t>PAOLA MONIQUE DA SILVA TEIXEIRA</t>
-  </si>
-  <si>
-    <t>IDEILDO LUCENA MOURA DA SILVA JUNIOR</t>
-  </si>
-  <si>
-    <t>MARIA DA CONCEICAO DA SILVA</t>
-  </si>
-  <si>
-    <t>VALDIR FERNANDES DE ARAUJO</t>
+    <t>417823 - PREMIUM SAÚDE S.A</t>
+  </si>
+  <si>
+    <t>27/03/2023  11:42:35</t>
+  </si>
+  <si>
+    <t>28/03/2023  12:56:37</t>
+  </si>
+  <si>
+    <t>28/03/2023  14:38:13</t>
+  </si>
+  <si>
+    <t>29/03/2023  09:47:08</t>
+  </si>
+  <si>
+    <t>29/03/2023  12:30:46</t>
+  </si>
+  <si>
+    <t>29/03/2023  13:12:34</t>
+  </si>
+  <si>
+    <t>29/03/2023  13:31:59</t>
+  </si>
+  <si>
+    <t>29/03/2023  15:02:49</t>
+  </si>
+  <si>
+    <t>29/03/2023  16:41:58</t>
+  </si>
+  <si>
+    <t>29/03/2023  17:44:07</t>
+  </si>
+  <si>
+    <t>30/03/2023  10:18:35</t>
+  </si>
+  <si>
+    <t>30/03/2023  18:10:52</t>
+  </si>
+  <si>
+    <t>31/03/2023  15:44:32</t>
+  </si>
+  <si>
+    <t>31/03/2023  16:30:14</t>
+  </si>
+  <si>
+    <t>03/04/2023  13:44:27</t>
+  </si>
+  <si>
+    <t>03/04/2023  14:47:05</t>
+  </si>
+  <si>
+    <t>03/04/2023  15:25:17</t>
+  </si>
+  <si>
+    <t>03/04/2023  19:51:17</t>
+  </si>
+  <si>
+    <t>04/04/2023  09:49:35</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:25:14</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:37:21</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:44:53</t>
+  </si>
+  <si>
+    <t>04/04/2023  16:42:14</t>
+  </si>
+  <si>
+    <t>05/04/2023  14:26:09</t>
+  </si>
+  <si>
+    <t>06/04/2023  13:03:51</t>
+  </si>
+  <si>
+    <t>10/04/2023  09:19:30</t>
+  </si>
+  <si>
+    <t>10/04/2023  10:47:50</t>
+  </si>
+  <si>
+    <t>11/04/2023  08:39:19</t>
+  </si>
+  <si>
+    <t>11/04/2023  11:09:14</t>
+  </si>
+  <si>
+    <t>BETHANIA DE PAULA BARBOSA</t>
+  </si>
+  <si>
+    <t>YASMIN SANTOS PALHARES HORTA</t>
+  </si>
+  <si>
+    <t>ANA PAULA DE MELO ASSIS</t>
+  </si>
+  <si>
+    <t>GAEL AUGUSTO FERREIRA SANTOS</t>
+  </si>
+  <si>
+    <t>MARIANA FERREIRA BORGES</t>
+  </si>
+  <si>
+    <t>GILMAR DE JESUS</t>
+  </si>
+  <si>
+    <t>CLAUDETE APARECIDA SILVA</t>
+  </si>
+  <si>
+    <t>LARA EMANUELLY BARBOSA ALVES DE MELO</t>
+  </si>
+  <si>
+    <t>VALDIRA FOGACA FLORES</t>
+  </si>
+  <si>
+    <t>DURVALINA SOUZA PEREIRA</t>
+  </si>
+  <si>
+    <t>MARIA LENICE DA SILVA BOA VENTURA</t>
+  </si>
+  <si>
+    <t>PRISCILA TIZONI GOMES RIBEIRO SILVA</t>
+  </si>
+  <si>
+    <t>ALEXSANDRA RAMOS MARGARIDA</t>
+  </si>
+  <si>
+    <t>CREUZA CASTELLARI MARCONSINI REIS</t>
+  </si>
+  <si>
+    <t>BÁRBARA DE OLIVEIRA PATRÍCIO</t>
+  </si>
+  <si>
+    <t>KEPA FREDRICK STOCKNER</t>
+  </si>
+  <si>
+    <t>DAVIDSON LUIZ PEREIRA LOPES</t>
+  </si>
+  <si>
+    <t>KENIA CLAUDIA FARIA CAMPOS</t>
+  </si>
+  <si>
+    <t>CRISTIANE BATISTA ROCHA</t>
+  </si>
+  <si>
+    <t>ROBSON FRANCISCO LANZA JUNIOR</t>
+  </si>
+  <si>
+    <t>ANDREIA MARIA OTTONI MORAES</t>
+  </si>
+  <si>
+    <t>ANTONIA EVA MAGALHAES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ISIS NOGUEIRA CHAVES</t>
+  </si>
+  <si>
+    <t>ANTONIO CARLOS SANTOS</t>
+  </si>
+  <si>
+    <t>DANIELA FARIAS VASCONCELOS</t>
+  </si>
+  <si>
+    <t>CAIO HENRIQUE RODRIGUES FERNANDES</t>
+  </si>
+  <si>
+    <t>DIEGO SANTOS DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>AYLA ALVES COELHO</t>
+  </si>
+  <si>
+    <t>PRISCILA APARECIDA SANTOS FRANCISCO</t>
   </si>
   <si>
     <t>1 dias úteis</t>
@@ -335,6 +254,9 @@
   </si>
   <si>
     <t>10 dias úteis</t>
+  </si>
+  <si>
+    <t>SIM</t>
   </si>
   <si>
     <t>NO</t>
@@ -704,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -756,25 +678,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>12141979</v>
+        <v>12142270</v>
       </c>
       <c r="F2">
-        <v>8574393</v>
+        <v>8574731</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -791,25 +713,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>12142637</v>
+        <v>12144548</v>
       </c>
       <c r="F3">
-        <v>8575143</v>
+        <v>8577545</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -826,25 +748,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>12143473</v>
+        <v>12144906</v>
       </c>
       <c r="F4">
-        <v>8576202</v>
+        <v>8578064</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -861,25 +783,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>12143688</v>
+        <v>12145988</v>
       </c>
       <c r="F5">
-        <v>8576509</v>
+        <v>8579353</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -896,25 +818,25 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>12143713</v>
+        <v>12146576</v>
       </c>
       <c r="F6">
-        <v>8576536</v>
+        <v>8580030</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -931,25 +853,25 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>12144046</v>
+        <v>12146711</v>
       </c>
       <c r="F7">
-        <v>8576958</v>
+        <v>8580119</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -966,25 +888,25 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>12144699</v>
+        <v>12146787</v>
       </c>
       <c r="F8">
-        <v>8577773</v>
+        <v>8580243</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1001,25 +923,25 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>12145536</v>
+        <v>12147152</v>
       </c>
       <c r="F9">
-        <v>8578787</v>
+        <v>8580726</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1036,25 +958,25 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>12147299</v>
+        <v>12147478</v>
       </c>
       <c r="F10">
-        <v>8580883</v>
+        <v>8230607</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1071,25 +993,25 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>12147571</v>
+        <v>12147631</v>
       </c>
       <c r="F11">
-        <v>8581252</v>
+        <v>8581299</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1106,25 +1028,25 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>12148282</v>
+        <v>12148200</v>
       </c>
       <c r="F12">
-        <v>8582107</v>
+        <v>8581975</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1141,25 +1063,25 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>12149112</v>
+        <v>12149727</v>
       </c>
       <c r="F13">
-        <v>8583135</v>
+        <v>8583861</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1176,25 +1098,25 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>12149924</v>
+        <v>12151325</v>
       </c>
       <c r="F14">
-        <v>8584156</v>
+        <v>8585862</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1211,25 +1133,25 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>12150089</v>
+        <v>12151461</v>
       </c>
       <c r="F15">
-        <v>8584343</v>
+        <v>8586030</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1246,25 +1168,25 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>12150135</v>
+        <v>12153205</v>
       </c>
       <c r="F16">
-        <v>8584374</v>
+        <v>8588077</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1281,25 +1203,25 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>12150483</v>
+        <v>12153463</v>
       </c>
       <c r="F17">
-        <v>8584813</v>
+        <v>8588431</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1316,25 +1238,25 @@
         <v>28</v>
       </c>
       <c r="E18">
-        <v>12152006</v>
+        <v>12153630</v>
       </c>
       <c r="F18">
-        <v>8586692</v>
+        <v>8588645</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1351,25 +1273,25 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>12152010</v>
+        <v>12154294</v>
       </c>
       <c r="F19">
-        <v>8586697</v>
+        <v>8589407</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1386,25 +1308,25 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>12152365</v>
+        <v>12154631</v>
       </c>
       <c r="F20">
-        <v>8587082</v>
+        <v>8589813</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1421,25 +1343,25 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>12153268</v>
+        <v>12155655</v>
       </c>
       <c r="F21">
-        <v>8588178</v>
+        <v>8591050</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1456,25 +1378,25 @@
         <v>32</v>
       </c>
       <c r="E22">
-        <v>12154201</v>
+        <v>12155706</v>
       </c>
       <c r="F22">
-        <v>8589287</v>
+        <v>8591067</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1491,25 +1413,25 @@
         <v>33</v>
       </c>
       <c r="E23">
-        <v>12154563</v>
+        <v>12155732</v>
       </c>
       <c r="F23">
-        <v>8589717</v>
+        <v>8591079</v>
       </c>
       <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
         <v>76</v>
       </c>
-      <c r="H23" t="s">
-        <v>103</v>
-      </c>
       <c r="I23" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1526,25 +1448,25 @@
         <v>34</v>
       </c>
       <c r="E24">
-        <v>12154995</v>
+        <v>12156130</v>
       </c>
       <c r="F24">
-        <v>8590264</v>
+        <v>8591725</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1561,25 +1483,25 @@
         <v>35</v>
       </c>
       <c r="E25">
-        <v>12155773</v>
+        <v>12157899</v>
       </c>
       <c r="F25">
-        <v>8591144</v>
+        <v>8593801</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1596,25 +1518,25 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>12156156</v>
+        <v>12159646</v>
       </c>
       <c r="F26">
-        <v>8591752</v>
+        <v>7797800</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1631,25 +1553,25 @@
         <v>37</v>
       </c>
       <c r="E27">
-        <v>12156297</v>
+        <v>12161100</v>
       </c>
       <c r="F27">
-        <v>8591919</v>
+        <v>8597675</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1666,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="E28">
-        <v>12156771</v>
+        <v>12161386</v>
       </c>
       <c r="F28">
-        <v>8592489</v>
+        <v>8598016</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1701,25 +1623,25 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>12156826</v>
+        <v>12163407</v>
       </c>
       <c r="F29">
-        <v>8592529</v>
+        <v>8600473</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1736,515 +1658,25 @@
         <v>40</v>
       </c>
       <c r="E30">
-        <v>12157160</v>
+        <v>12163869</v>
       </c>
       <c r="F30">
-        <v>8592956</v>
+        <v>8601052</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H30" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31">
-        <v>12158020</v>
-      </c>
-      <c r="F31">
-        <v>8593967</v>
-      </c>
-      <c r="G31" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" t="s">
-        <v>104</v>
-      </c>
-      <c r="I31" t="s">
-        <v>107</v>
-      </c>
-      <c r="J31" t="s">
-        <v>108</v>
-      </c>
-      <c r="K31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32">
-        <v>12158435</v>
-      </c>
-      <c r="F32">
-        <v>8594522</v>
-      </c>
-      <c r="G32" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" t="s">
-        <v>107</v>
-      </c>
-      <c r="J32" t="s">
-        <v>108</v>
-      </c>
-      <c r="K32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33">
-        <v>12158576</v>
-      </c>
-      <c r="F33">
-        <v>8594695</v>
-      </c>
-      <c r="G33" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" t="s">
-        <v>107</v>
-      </c>
-      <c r="J33" t="s">
-        <v>108</v>
-      </c>
-      <c r="K33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34">
-        <v>12159014</v>
-      </c>
-      <c r="F34">
-        <v>8595238</v>
-      </c>
-      <c r="G34" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" t="s">
-        <v>105</v>
-      </c>
-      <c r="I34" t="s">
-        <v>107</v>
-      </c>
-      <c r="J34" t="s">
-        <v>108</v>
-      </c>
-      <c r="K34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35">
-        <v>12160376</v>
-      </c>
-      <c r="F35">
-        <v>8596884</v>
-      </c>
-      <c r="G35" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" t="s">
-        <v>107</v>
-      </c>
-      <c r="J35" t="s">
-        <v>108</v>
-      </c>
-      <c r="K35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36">
-        <v>12161017</v>
-      </c>
-      <c r="F36">
-        <v>8597595</v>
-      </c>
-      <c r="G36" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" t="s">
-        <v>106</v>
-      </c>
-      <c r="I36" t="s">
-        <v>107</v>
-      </c>
-      <c r="J36" t="s">
-        <v>109</v>
-      </c>
-      <c r="K36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37">
-        <v>12161650</v>
-      </c>
-      <c r="F37">
-        <v>8598342</v>
-      </c>
-      <c r="G37" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" t="s">
-        <v>107</v>
-      </c>
-      <c r="J37" t="s">
-        <v>108</v>
-      </c>
-      <c r="K37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38">
-        <v>12162010</v>
-      </c>
-      <c r="F38">
-        <v>8598761</v>
-      </c>
-      <c r="G38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H38" t="s">
-        <v>106</v>
-      </c>
-      <c r="I38" t="s">
-        <v>107</v>
-      </c>
-      <c r="J38" t="s">
-        <v>108</v>
-      </c>
-      <c r="K38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39">
-        <v>12162415</v>
-      </c>
-      <c r="F39">
-        <v>8599264</v>
-      </c>
-      <c r="G39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" t="s">
-        <v>106</v>
-      </c>
-      <c r="I39" t="s">
-        <v>107</v>
-      </c>
-      <c r="J39" t="s">
-        <v>108</v>
-      </c>
-      <c r="K39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40">
-        <v>12162439</v>
-      </c>
-      <c r="F40">
-        <v>8599230</v>
-      </c>
-      <c r="G40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H40" t="s">
-        <v>106</v>
-      </c>
-      <c r="I40" t="s">
-        <v>107</v>
-      </c>
-      <c r="J40" t="s">
-        <v>108</v>
-      </c>
-      <c r="K40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41">
-        <v>12163370</v>
-      </c>
-      <c r="F41">
-        <v>8600412</v>
-      </c>
-      <c r="G41" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41" t="s">
-        <v>106</v>
-      </c>
-      <c r="I41" t="s">
-        <v>107</v>
-      </c>
-      <c r="J41" t="s">
-        <v>108</v>
-      </c>
-      <c r="K41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42">
-        <v>12163535</v>
-      </c>
-      <c r="F42">
-        <v>8600621</v>
-      </c>
-      <c r="G42" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" t="s">
-        <v>106</v>
-      </c>
-      <c r="I42" t="s">
-        <v>107</v>
-      </c>
-      <c r="J42" t="s">
-        <v>108</v>
-      </c>
-      <c r="K42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43">
-        <v>12164502</v>
-      </c>
-      <c r="F43">
-        <v>8601769</v>
-      </c>
-      <c r="G43" t="s">
-        <v>95</v>
-      </c>
-      <c r="H43" t="s">
-        <v>106</v>
-      </c>
-      <c r="I43" t="s">
-        <v>107</v>
-      </c>
-      <c r="J43" t="s">
-        <v>108</v>
-      </c>
-      <c r="K43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44">
-        <v>12164852</v>
-      </c>
-      <c r="F44">
-        <v>8602234</v>
-      </c>
-      <c r="G44" t="s">
-        <v>96</v>
-      </c>
-      <c r="H44" t="s">
-        <v>106</v>
-      </c>
-      <c r="I44" t="s">
-        <v>107</v>
-      </c>
-      <c r="J44" t="s">
-        <v>108</v>
-      </c>
-      <c r="K44" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="86">
   <si>
     <t>Hoje</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Opções</t>
   </si>
   <si>
-    <t>11-04-2023</t>
+    <t>12-04-2023</t>
   </si>
   <si>
     <t>417823 - PREMIUM SAÚDE S.A</t>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>PRISCILA APARECIDA SANTOS FRANCISCO</t>
+  </si>
+  <si>
+    <t>0 dias úteis</t>
   </si>
   <si>
     <t>1 dias úteis</t>
@@ -690,13 +693,13 @@
         <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -725,13 +728,13 @@
         <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -760,13 +763,13 @@
         <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -795,13 +798,13 @@
         <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -830,13 +833,13 @@
         <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -865,13 +868,13 @@
         <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -900,13 +903,13 @@
         <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -935,13 +938,13 @@
         <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -970,13 +973,13 @@
         <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1005,13 +1008,13 @@
         <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1040,13 +1043,13 @@
         <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1075,13 +1078,13 @@
         <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1110,13 +1113,13 @@
         <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1145,13 +1148,13 @@
         <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1180,13 +1183,13 @@
         <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1215,13 +1218,13 @@
         <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1250,13 +1253,13 @@
         <v>75</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1285,13 +1288,13 @@
         <v>75</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1320,13 +1323,13 @@
         <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1355,13 +1358,13 @@
         <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1390,13 +1393,13 @@
         <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1425,13 +1428,13 @@
         <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1460,13 +1463,13 @@
         <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1495,13 +1498,13 @@
         <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1530,13 +1533,13 @@
         <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1565,13 +1568,13 @@
         <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1600,13 +1603,13 @@
         <v>79</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1632,16 +1635,16 @@
         <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1667,16 +1670,16 @@
         <v>69</v>
       </c>
       <c r="H30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="86">
   <si>
     <t>Hoje</t>
   </si>
@@ -52,9 +52,6 @@
     <t>417823 - PREMIUM SAÚDE S.A</t>
   </si>
   <si>
-    <t>27/03/2023  11:42:35</t>
-  </si>
-  <si>
     <t>28/03/2023  12:56:37</t>
   </si>
   <si>
@@ -139,7 +136,10 @@
     <t>11/04/2023  11:09:14</t>
   </si>
   <si>
-    <t>BETHANIA DE PAULA BARBOSA</t>
+    <t>12/04/2023  08:58:03</t>
+  </si>
+  <si>
+    <t>12/04/2023  10:38:24</t>
   </si>
   <si>
     <t>YASMIN SANTOS PALHARES HORTA</t>
@@ -226,7 +226,10 @@
     <t>PRISCILA APARECIDA SANTOS FRANCISCO</t>
   </si>
   <si>
-    <t>0 dias úteis</t>
+    <t>LUDIANE CONCEICAO DOS SANTOS OLIVEIRA MATOS</t>
+  </si>
+  <si>
+    <t>ELENICE DE SIQUEIRA</t>
   </si>
   <si>
     <t>1 dias úteis</t>
@@ -257,9 +260,6 @@
   </si>
   <si>
     <t>10 dias úteis</t>
-  </si>
-  <si>
-    <t>SIM</t>
   </si>
   <si>
     <t>NO</t>
@@ -629,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,19 +681,19 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>12142270</v>
+        <v>12144548</v>
       </c>
       <c r="F2">
-        <v>8574731</v>
+        <v>8577545</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
         <v>83</v>
@@ -716,16 +716,16 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>12144548</v>
+        <v>12144906</v>
       </c>
       <c r="F3">
-        <v>8577545</v>
+        <v>8578064</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
         <v>82</v>
@@ -751,16 +751,16 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>12144906</v>
+        <v>12145988</v>
       </c>
       <c r="F4">
-        <v>8578064</v>
+        <v>8579353</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
         <v>82</v>
@@ -786,22 +786,22 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>12145988</v>
+        <v>12146576</v>
       </c>
       <c r="F5">
-        <v>8579353</v>
+        <v>8580030</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
         <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
         <v>85</v>
@@ -821,16 +821,16 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>12146576</v>
+        <v>12146711</v>
       </c>
       <c r="F6">
-        <v>8580030</v>
+        <v>8580119</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
         <v>82</v>
@@ -856,16 +856,16 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>12146711</v>
+        <v>12146787</v>
       </c>
       <c r="F7">
-        <v>8580119</v>
+        <v>8580243</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
         <v>82</v>
@@ -891,22 +891,22 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>12146787</v>
+        <v>12147152</v>
       </c>
       <c r="F8">
-        <v>8580243</v>
+        <v>8580726</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
         <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
         <v>85</v>
@@ -926,16 +926,16 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>12147152</v>
+        <v>12147478</v>
       </c>
       <c r="F9">
-        <v>8580726</v>
+        <v>8230607</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
         <v>82</v>
@@ -961,16 +961,16 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>12147478</v>
+        <v>12147631</v>
       </c>
       <c r="F10">
-        <v>8230607</v>
+        <v>8581299</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
         <v>82</v>
@@ -996,16 +996,16 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>12147631</v>
+        <v>12148200</v>
       </c>
       <c r="F11">
-        <v>8581299</v>
+        <v>8581975</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
         <v>82</v>
@@ -1031,16 +1031,16 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>12148200</v>
+        <v>12149727</v>
       </c>
       <c r="F12">
-        <v>8581975</v>
+        <v>8583861</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -1066,22 +1066,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>12149727</v>
+        <v>12151325</v>
       </c>
       <c r="F13">
-        <v>8583861</v>
+        <v>8585862</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
         <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
         <v>85</v>
@@ -1101,22 +1101,22 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>12151325</v>
+        <v>12151461</v>
       </c>
       <c r="F14">
-        <v>8585862</v>
+        <v>8586030</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
         <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
         <v>85</v>
@@ -1136,16 +1136,16 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>12151461</v>
+        <v>12153205</v>
       </c>
       <c r="F15">
-        <v>8586030</v>
+        <v>8588077</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s">
         <v>82</v>
@@ -1171,16 +1171,16 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>12153205</v>
+        <v>12153463</v>
       </c>
       <c r="F16">
-        <v>8588077</v>
+        <v>8588431</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
         <v>82</v>
@@ -1206,16 +1206,16 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>12153463</v>
+        <v>12153630</v>
       </c>
       <c r="F17">
-        <v>8588431</v>
+        <v>8588645</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
         <v>82</v>
@@ -1241,16 +1241,16 @@
         <v>28</v>
       </c>
       <c r="E18">
-        <v>12153630</v>
+        <v>12154294</v>
       </c>
       <c r="F18">
-        <v>8588645</v>
+        <v>8589407</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
         <v>82</v>
@@ -1276,16 +1276,16 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>12154294</v>
+        <v>12154631</v>
       </c>
       <c r="F19">
-        <v>8589407</v>
+        <v>8589813</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
         <v>82</v>
@@ -1311,22 +1311,22 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>12154631</v>
+        <v>12155655</v>
       </c>
       <c r="F20">
-        <v>8589813</v>
+        <v>8591050</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
         <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s">
         <v>85</v>
@@ -1346,22 +1346,22 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>12155655</v>
+        <v>12155706</v>
       </c>
       <c r="F21">
-        <v>8591050</v>
+        <v>8591067</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
         <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s">
         <v>85</v>
@@ -1381,16 +1381,16 @@
         <v>32</v>
       </c>
       <c r="E22">
-        <v>12155706</v>
+        <v>12155732</v>
       </c>
       <c r="F22">
-        <v>8591067</v>
+        <v>8591079</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s">
         <v>82</v>
@@ -1416,16 +1416,16 @@
         <v>33</v>
       </c>
       <c r="E23">
-        <v>12155732</v>
+        <v>12156130</v>
       </c>
       <c r="F23">
-        <v>8591079</v>
+        <v>8591725</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s">
         <v>82</v>
@@ -1451,16 +1451,16 @@
         <v>34</v>
       </c>
       <c r="E24">
-        <v>12156130</v>
+        <v>12157899</v>
       </c>
       <c r="F24">
-        <v>8591725</v>
+        <v>8593801</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s">
         <v>82</v>
@@ -1486,16 +1486,16 @@
         <v>35</v>
       </c>
       <c r="E25">
-        <v>12157899</v>
+        <v>12159646</v>
       </c>
       <c r="F25">
-        <v>8593801</v>
+        <v>7797800</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s">
         <v>82</v>
@@ -1521,16 +1521,16 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>12159646</v>
+        <v>12161100</v>
       </c>
       <c r="F26">
-        <v>7797800</v>
+        <v>8597675</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s">
         <v>82</v>
@@ -1556,16 +1556,16 @@
         <v>37</v>
       </c>
       <c r="E27">
-        <v>12161100</v>
+        <v>12161386</v>
       </c>
       <c r="F27">
-        <v>8597675</v>
+        <v>8598016</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s">
         <v>82</v>
@@ -1591,16 +1591,16 @@
         <v>38</v>
       </c>
       <c r="E28">
-        <v>12161386</v>
+        <v>12163407</v>
       </c>
       <c r="F28">
-        <v>8598016</v>
+        <v>8600473</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s">
         <v>82</v>
@@ -1626,16 +1626,16 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>12163407</v>
+        <v>12163869</v>
       </c>
       <c r="F29">
-        <v>8600473</v>
+        <v>8601052</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s">
         <v>82</v>
@@ -1661,16 +1661,16 @@
         <v>40</v>
       </c>
       <c r="E30">
-        <v>12163869</v>
+        <v>12165805</v>
       </c>
       <c r="F30">
-        <v>8601052</v>
+        <v>8603359</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s">
         <v>82</v>
@@ -1679,6 +1679,41 @@
         <v>83</v>
       </c>
       <c r="K30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>12166069</v>
+      </c>
+      <c r="F31">
+        <v>8603674</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" t="s">
         <v>85</v>
       </c>
     </row>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="93">
   <si>
     <t>Hoje</t>
   </si>
@@ -142,6 +142,15 @@
     <t>12/04/2023  10:38:24</t>
   </si>
   <si>
+    <t>12/04/2023  14:44:59</t>
+  </si>
+  <si>
+    <t>12/04/2023  15:02:14</t>
+  </si>
+  <si>
+    <t>12/04/2023  17:36:17</t>
+  </si>
+  <si>
     <t>YASMIN SANTOS PALHARES HORTA</t>
   </si>
   <si>
@@ -232,6 +241,15 @@
     <t>ELENICE DE SIQUEIRA</t>
   </si>
   <si>
+    <t>JENIFE BIANCA AMORIM PEREIRA</t>
+  </si>
+  <si>
+    <t>JUCIMAR AMORIM PEREIRA</t>
+  </si>
+  <si>
+    <t>VIRGILIO ISMAR SANTOS GARCIA</t>
+  </si>
+  <si>
     <t>1 dias úteis</t>
   </si>
   <si>
@@ -260,6 +278,9 @@
   </si>
   <si>
     <t>10 dias úteis</t>
+  </si>
+  <si>
+    <t>SIM</t>
   </si>
   <si>
     <t>NO</t>
@@ -629,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,19 +708,19 @@
         <v>8577545</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -722,19 +743,19 @@
         <v>8578064</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -757,19 +778,19 @@
         <v>8579353</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -792,19 +813,19 @@
         <v>8580030</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -827,19 +848,19 @@
         <v>8580119</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -862,19 +883,19 @@
         <v>8580243</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -897,19 +918,19 @@
         <v>8580726</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -932,19 +953,19 @@
         <v>8230607</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -967,19 +988,19 @@
         <v>8581299</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1002,19 +1023,19 @@
         <v>8581975</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1037,19 +1058,19 @@
         <v>8583861</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1072,19 +1093,19 @@
         <v>8585862</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1107,19 +1128,19 @@
         <v>8586030</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1142,19 +1163,19 @@
         <v>8588077</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1177,19 +1198,19 @@
         <v>8588431</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1212,19 +1233,19 @@
         <v>8588645</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1247,19 +1268,19 @@
         <v>8589407</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1282,19 +1303,19 @@
         <v>8589813</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1317,19 +1338,19 @@
         <v>8591050</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1352,19 +1373,19 @@
         <v>8591067</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1387,19 +1408,19 @@
         <v>8591079</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1422,19 +1443,19 @@
         <v>8591725</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1457,19 +1478,19 @@
         <v>8593801</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1492,19 +1513,19 @@
         <v>7797800</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1527,19 +1548,19 @@
         <v>8597675</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1562,19 +1583,19 @@
         <v>8598016</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I27" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1597,19 +1618,19 @@
         <v>8600473</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1632,19 +1653,19 @@
         <v>8601052</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1667,19 +1688,19 @@
         <v>8603359</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1702,19 +1723,124 @@
         <v>8603674</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <v>12167081</v>
+      </c>
+      <c r="F32">
+        <v>8604741</v>
+      </c>
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33">
+        <v>12167165</v>
+      </c>
+      <c r="F33">
+        <v>8604741</v>
+      </c>
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>12167700</v>
+      </c>
+      <c r="F34">
+        <v>8605615</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K34" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -46,18 +46,12 @@
     <t>Opções</t>
   </si>
   <si>
-    <t>12-04-2023</t>
+    <t>13-04-2023</t>
   </si>
   <si>
     <t>417823 - PREMIUM SAÚDE S.A</t>
   </si>
   <si>
-    <t>28/03/2023  12:56:37</t>
-  </si>
-  <si>
-    <t>28/03/2023  14:38:13</t>
-  </si>
-  <si>
     <t>29/03/2023  09:47:08</t>
   </si>
   <si>
@@ -151,10 +145,10 @@
     <t>12/04/2023  17:36:17</t>
   </si>
   <si>
-    <t>YASMIN SANTOS PALHARES HORTA</t>
-  </si>
-  <si>
-    <t>ANA PAULA DE MELO ASSIS</t>
+    <t>13/04/2023  10:06:53</t>
+  </si>
+  <si>
+    <t>13/04/2023  15:44:44</t>
   </si>
   <si>
     <t>GAEL AUGUSTO FERREIRA SANTOS</t>
@@ -248,6 +242,12 @@
   </si>
   <si>
     <t>VIRGILIO ISMAR SANTOS GARCIA</t>
+  </si>
+  <si>
+    <t>MELINDA GOULART CRUZ</t>
+  </si>
+  <si>
+    <t>JORGE EUSTACIO MEDEIROS</t>
   </si>
   <si>
     <t>1 dias úteis</t>
@@ -702,10 +702,10 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>12144548</v>
+        <v>12145988</v>
       </c>
       <c r="F2">
-        <v>8577545</v>
+        <v>8579353</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
@@ -737,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>12144906</v>
+        <v>12146576</v>
       </c>
       <c r="F3">
-        <v>8578064</v>
+        <v>8580030</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -749,10 +749,10 @@
         <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
         <v>92</v>
@@ -772,22 +772,22 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>12145988</v>
+        <v>12146711</v>
       </c>
       <c r="F4">
-        <v>8579353</v>
+        <v>8580119</v>
       </c>
       <c r="G4" t="s">
         <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
         <v>92</v>
@@ -807,19 +807,19 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>12146576</v>
+        <v>12146787</v>
       </c>
       <c r="F5">
-        <v>8580030</v>
+        <v>8580243</v>
       </c>
       <c r="G5" t="s">
         <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
         <v>91</v>
@@ -842,22 +842,22 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>12146711</v>
+        <v>12147152</v>
       </c>
       <c r="F6">
-        <v>8580119</v>
+        <v>8580726</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
         <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
         <v>92</v>
@@ -877,22 +877,22 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>12146787</v>
+        <v>12147478</v>
       </c>
       <c r="F7">
-        <v>8580243</v>
+        <v>8230607</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
         <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
         <v>92</v>
@@ -912,19 +912,19 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>12147152</v>
+        <v>12147631</v>
       </c>
       <c r="F8">
-        <v>8580726</v>
+        <v>8581299</v>
       </c>
       <c r="G8" t="s">
         <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
         <v>90</v>
@@ -947,10 +947,10 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>12147478</v>
+        <v>12148200</v>
       </c>
       <c r="F9">
-        <v>8230607</v>
+        <v>8581975</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
@@ -982,10 +982,10 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>12147631</v>
+        <v>12149727</v>
       </c>
       <c r="F10">
-        <v>8581299</v>
+        <v>8583861</v>
       </c>
       <c r="G10" t="s">
         <v>53</v>
@@ -1017,10 +1017,10 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>12148200</v>
+        <v>12151325</v>
       </c>
       <c r="F11">
-        <v>8581975</v>
+        <v>8585862</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
@@ -1032,7 +1032,7 @@
         <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s">
         <v>92</v>
@@ -1052,10 +1052,10 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>12149727</v>
+        <v>12151461</v>
       </c>
       <c r="F12">
-        <v>8583861</v>
+        <v>8586030</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
@@ -1087,10 +1087,10 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>12151325</v>
+        <v>12153205</v>
       </c>
       <c r="F13">
-        <v>8585862</v>
+        <v>8588077</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s">
         <v>92</v>
@@ -1122,10 +1122,10 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>12151461</v>
+        <v>12153463</v>
       </c>
       <c r="F14">
-        <v>8586030</v>
+        <v>8588431</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
@@ -1157,16 +1157,16 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>12153205</v>
+        <v>12153630</v>
       </c>
       <c r="F15">
-        <v>8588077</v>
+        <v>8588645</v>
       </c>
       <c r="G15" t="s">
         <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
         <v>89</v>
@@ -1192,16 +1192,16 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>12153463</v>
+        <v>12154294</v>
       </c>
       <c r="F16">
-        <v>8588431</v>
+        <v>8589407</v>
       </c>
       <c r="G16" t="s">
         <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
         <v>89</v>
@@ -1227,10 +1227,10 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>12153630</v>
+        <v>12154631</v>
       </c>
       <c r="F17">
-        <v>8588645</v>
+        <v>8589813</v>
       </c>
       <c r="G17" t="s">
         <v>60</v>
@@ -1262,10 +1262,10 @@
         <v>28</v>
       </c>
       <c r="E18">
-        <v>12154294</v>
+        <v>12155655</v>
       </c>
       <c r="F18">
-        <v>8589407</v>
+        <v>8591050</v>
       </c>
       <c r="G18" t="s">
         <v>61</v>
@@ -1277,7 +1277,7 @@
         <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s">
         <v>92</v>
@@ -1297,16 +1297,16 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>12154631</v>
+        <v>12155706</v>
       </c>
       <c r="F19">
-        <v>8589813</v>
+        <v>8591067</v>
       </c>
       <c r="G19" t="s">
         <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
         <v>89</v>
@@ -1332,22 +1332,22 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>12155655</v>
+        <v>12155732</v>
       </c>
       <c r="F20">
-        <v>8591050</v>
+        <v>8591079</v>
       </c>
       <c r="G20" t="s">
         <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
         <v>89</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s">
         <v>92</v>
@@ -1367,16 +1367,16 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>12155706</v>
+        <v>12156130</v>
       </c>
       <c r="F21">
-        <v>8591067</v>
+        <v>8591725</v>
       </c>
       <c r="G21" t="s">
         <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
         <v>89</v>
@@ -1402,10 +1402,10 @@
         <v>32</v>
       </c>
       <c r="E22">
-        <v>12155732</v>
+        <v>12157899</v>
       </c>
       <c r="F22">
-        <v>8591079</v>
+        <v>8593801</v>
       </c>
       <c r="G22" t="s">
         <v>65</v>
@@ -1437,16 +1437,16 @@
         <v>33</v>
       </c>
       <c r="E23">
-        <v>12156130</v>
+        <v>12159646</v>
       </c>
       <c r="F23">
-        <v>8591725</v>
+        <v>7797800</v>
       </c>
       <c r="G23" t="s">
         <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
         <v>89</v>
@@ -1472,16 +1472,16 @@
         <v>34</v>
       </c>
       <c r="E24">
-        <v>12157899</v>
+        <v>12161100</v>
       </c>
       <c r="F24">
-        <v>8593801</v>
+        <v>8597675</v>
       </c>
       <c r="G24" t="s">
         <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s">
         <v>89</v>
@@ -1507,10 +1507,10 @@
         <v>35</v>
       </c>
       <c r="E25">
-        <v>12159646</v>
+        <v>12161386</v>
       </c>
       <c r="F25">
-        <v>7797800</v>
+        <v>8598016</v>
       </c>
       <c r="G25" t="s">
         <v>68</v>
@@ -1542,10 +1542,10 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>12161100</v>
+        <v>12163407</v>
       </c>
       <c r="F26">
-        <v>8597675</v>
+        <v>8600473</v>
       </c>
       <c r="G26" t="s">
         <v>69</v>
@@ -1577,10 +1577,10 @@
         <v>37</v>
       </c>
       <c r="E27">
-        <v>12161386</v>
+        <v>12163869</v>
       </c>
       <c r="F27">
-        <v>8598016</v>
+        <v>8601052</v>
       </c>
       <c r="G27" t="s">
         <v>70</v>
@@ -1612,10 +1612,10 @@
         <v>38</v>
       </c>
       <c r="E28">
-        <v>12163407</v>
+        <v>12165805</v>
       </c>
       <c r="F28">
-        <v>8600473</v>
+        <v>8603359</v>
       </c>
       <c r="G28" t="s">
         <v>71</v>
@@ -1647,10 +1647,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>12163869</v>
+        <v>12166069</v>
       </c>
       <c r="F29">
-        <v>8601052</v>
+        <v>8603674</v>
       </c>
       <c r="G29" t="s">
         <v>72</v>
@@ -1662,7 +1662,7 @@
         <v>89</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s">
         <v>92</v>
@@ -1682,10 +1682,10 @@
         <v>40</v>
       </c>
       <c r="E30">
-        <v>12165805</v>
+        <v>12167081</v>
       </c>
       <c r="F30">
-        <v>8603359</v>
+        <v>8604741</v>
       </c>
       <c r="G30" t="s">
         <v>73</v>
@@ -1717,10 +1717,10 @@
         <v>41</v>
       </c>
       <c r="E31">
-        <v>12166069</v>
+        <v>12167165</v>
       </c>
       <c r="F31">
-        <v>8603674</v>
+        <v>8604741</v>
       </c>
       <c r="G31" t="s">
         <v>74</v>
@@ -1732,7 +1732,7 @@
         <v>89</v>
       </c>
       <c r="J31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s">
         <v>92</v>
@@ -1752,10 +1752,10 @@
         <v>42</v>
       </c>
       <c r="E32">
-        <v>12167081</v>
+        <v>12167700</v>
       </c>
       <c r="F32">
-        <v>8604741</v>
+        <v>8605615</v>
       </c>
       <c r="G32" t="s">
         <v>75</v>
@@ -1787,10 +1787,10 @@
         <v>43</v>
       </c>
       <c r="E33">
-        <v>12167165</v>
+        <v>12168346</v>
       </c>
       <c r="F33">
-        <v>8604741</v>
+        <v>8606403</v>
       </c>
       <c r="G33" t="s">
         <v>76</v>
@@ -1822,10 +1822,10 @@
         <v>44</v>
       </c>
       <c r="E34">
-        <v>12167700</v>
+        <v>12169638</v>
       </c>
       <c r="F34">
-        <v>8605615</v>
+        <v>8608000</v>
       </c>
       <c r="G34" t="s">
         <v>77</v>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="122">
   <si>
     <t>Hoje</t>
   </si>
@@ -49,205 +49,292 @@
     <t>13-04-2023</t>
   </si>
   <si>
-    <t>417823 - PREMIUM SAÚDE S.A</t>
-  </si>
-  <si>
-    <t>29/03/2023  09:47:08</t>
-  </si>
-  <si>
-    <t>29/03/2023  12:30:46</t>
-  </si>
-  <si>
-    <t>29/03/2023  13:12:34</t>
-  </si>
-  <si>
-    <t>29/03/2023  13:31:59</t>
-  </si>
-  <si>
-    <t>29/03/2023  15:02:49</t>
-  </si>
-  <si>
-    <t>29/03/2023  16:41:58</t>
-  </si>
-  <si>
-    <t>29/03/2023  17:44:07</t>
-  </si>
-  <si>
-    <t>30/03/2023  10:18:35</t>
-  </si>
-  <si>
-    <t>30/03/2023  18:10:52</t>
-  </si>
-  <si>
-    <t>31/03/2023  15:44:32</t>
-  </si>
-  <si>
-    <t>31/03/2023  16:30:14</t>
-  </si>
-  <si>
-    <t>03/04/2023  13:44:27</t>
-  </si>
-  <si>
-    <t>03/04/2023  14:47:05</t>
-  </si>
-  <si>
-    <t>03/04/2023  15:25:17</t>
-  </si>
-  <si>
-    <t>03/04/2023  19:51:17</t>
-  </si>
-  <si>
-    <t>04/04/2023  09:49:35</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:25:14</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:37:21</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:44:53</t>
-  </si>
-  <si>
-    <t>04/04/2023  16:42:14</t>
-  </si>
-  <si>
-    <t>05/04/2023  14:26:09</t>
-  </si>
-  <si>
-    <t>06/04/2023  13:03:51</t>
-  </si>
-  <si>
-    <t>10/04/2023  09:19:30</t>
-  </si>
-  <si>
-    <t>10/04/2023  10:47:50</t>
-  </si>
-  <si>
-    <t>11/04/2023  08:39:19</t>
-  </si>
-  <si>
-    <t>11/04/2023  11:09:14</t>
-  </si>
-  <si>
-    <t>12/04/2023  08:58:03</t>
-  </si>
-  <si>
-    <t>12/04/2023  10:38:24</t>
-  </si>
-  <si>
-    <t>12/04/2023  14:44:59</t>
-  </si>
-  <si>
-    <t>12/04/2023  15:02:14</t>
-  </si>
-  <si>
-    <t>12/04/2023  17:36:17</t>
-  </si>
-  <si>
-    <t>13/04/2023  10:06:53</t>
-  </si>
-  <si>
-    <t>13/04/2023  15:44:44</t>
-  </si>
-  <si>
-    <t>GAEL AUGUSTO FERREIRA SANTOS</t>
-  </si>
-  <si>
-    <t>MARIANA FERREIRA BORGES</t>
-  </si>
-  <si>
-    <t>GILMAR DE JESUS</t>
-  </si>
-  <si>
-    <t>CLAUDETE APARECIDA SILVA</t>
-  </si>
-  <si>
-    <t>LARA EMANUELLY BARBOSA ALVES DE MELO</t>
-  </si>
-  <si>
-    <t>VALDIRA FOGACA FLORES</t>
-  </si>
-  <si>
-    <t>DURVALINA SOUZA PEREIRA</t>
-  </si>
-  <si>
-    <t>MARIA LENICE DA SILVA BOA VENTURA</t>
-  </si>
-  <si>
-    <t>PRISCILA TIZONI GOMES RIBEIRO SILVA</t>
-  </si>
-  <si>
-    <t>ALEXSANDRA RAMOS MARGARIDA</t>
-  </si>
-  <si>
-    <t>CREUZA CASTELLARI MARCONSINI REIS</t>
-  </si>
-  <si>
-    <t>BÁRBARA DE OLIVEIRA PATRÍCIO</t>
-  </si>
-  <si>
-    <t>KEPA FREDRICK STOCKNER</t>
-  </si>
-  <si>
-    <t>DAVIDSON LUIZ PEREIRA LOPES</t>
-  </si>
-  <si>
-    <t>KENIA CLAUDIA FARIA CAMPOS</t>
-  </si>
-  <si>
-    <t>CRISTIANE BATISTA ROCHA</t>
-  </si>
-  <si>
-    <t>ROBSON FRANCISCO LANZA JUNIOR</t>
-  </si>
-  <si>
-    <t>ANDREIA MARIA OTTONI MORAES</t>
-  </si>
-  <si>
-    <t>ANTONIA EVA MAGALHAES DOS SANTOS</t>
-  </si>
-  <si>
-    <t>ISIS NOGUEIRA CHAVES</t>
-  </si>
-  <si>
-    <t>ANTONIO CARLOS SANTOS</t>
-  </si>
-  <si>
-    <t>DANIELA FARIAS VASCONCELOS</t>
-  </si>
-  <si>
-    <t>CAIO HENRIQUE RODRIGUES FERNANDES</t>
-  </si>
-  <si>
-    <t>DIEGO SANTOS DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>AYLA ALVES COELHO</t>
-  </si>
-  <si>
-    <t>PRISCILA APARECIDA SANTOS FRANCISCO</t>
-  </si>
-  <si>
-    <t>LUDIANE CONCEICAO DOS SANTOS OLIVEIRA MATOS</t>
-  </si>
-  <si>
-    <t>ELENICE DE SIQUEIRA</t>
-  </si>
-  <si>
-    <t>JENIFE BIANCA AMORIM PEREIRA</t>
-  </si>
-  <si>
-    <t>JUCIMAR AMORIM PEREIRA</t>
-  </si>
-  <si>
-    <t>VIRGILIO ISMAR SANTOS GARCIA</t>
-  </si>
-  <si>
-    <t>MELINDA GOULART CRUZ</t>
-  </si>
-  <si>
-    <t>JORGE EUSTACIO MEDEIROS</t>
+    <t>422380 - YOU ASSISTÊNCIA MÉDICA LTDA</t>
+  </si>
+  <si>
+    <t>29/03/2023  15:40:36</t>
+  </si>
+  <si>
+    <t>29/03/2023  17:18:47</t>
+  </si>
+  <si>
+    <t>30/03/2023  10:44:52</t>
+  </si>
+  <si>
+    <t>30/03/2023  14:42:51</t>
+  </si>
+  <si>
+    <t>30/03/2023  22:05:13</t>
+  </si>
+  <si>
+    <t>31/03/2023  09:33:21</t>
+  </si>
+  <si>
+    <t>31/03/2023  09:49:39</t>
+  </si>
+  <si>
+    <t>31/03/2023  11:43:24</t>
+  </si>
+  <si>
+    <t>01/04/2023  16:35:36</t>
+  </si>
+  <si>
+    <t>01/04/2023  16:55:34</t>
+  </si>
+  <si>
+    <t>03/04/2023  09:41:48</t>
+  </si>
+  <si>
+    <t>03/04/2023  14:02:31</t>
+  </si>
+  <si>
+    <t>03/04/2023  18:58:23</t>
+  </si>
+  <si>
+    <t>04/04/2023  09:27:21</t>
+  </si>
+  <si>
+    <t>04/04/2023  11:32:18</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:57:51</t>
+  </si>
+  <si>
+    <t>04/04/2023  16:52:11</t>
+  </si>
+  <si>
+    <t>04/04/2023  17:48:58</t>
+  </si>
+  <si>
+    <t>05/04/2023  09:17:32</t>
+  </si>
+  <si>
+    <t>05/04/2023  09:38:27</t>
+  </si>
+  <si>
+    <t>05/04/2023  11:14:32</t>
+  </si>
+  <si>
+    <t>05/04/2023  14:58:01</t>
+  </si>
+  <si>
+    <t>05/04/2023  17:16:13</t>
+  </si>
+  <si>
+    <t>05/04/2023  18:37:46</t>
+  </si>
+  <si>
+    <t>06/04/2023  09:43:31</t>
+  </si>
+  <si>
+    <t>06/04/2023  17:07:51</t>
+  </si>
+  <si>
+    <t>10/04/2023  08:44:11</t>
+  </si>
+  <si>
+    <t>10/04/2023  11:56:29</t>
+  </si>
+  <si>
+    <t>10/04/2023  13:25:58</t>
+  </si>
+  <si>
+    <t>10/04/2023  14:54:09</t>
+  </si>
+  <si>
+    <t>10/04/2023  15:00:01</t>
+  </si>
+  <si>
+    <t>11/04/2023  08:23:00</t>
+  </si>
+  <si>
+    <t>11/04/2023  09:34:28</t>
+  </si>
+  <si>
+    <t>11/04/2023  13:50:53</t>
+  </si>
+  <si>
+    <t>11/04/2023  15:08:53</t>
+  </si>
+  <si>
+    <t>11/04/2023  16:57:02</t>
+  </si>
+  <si>
+    <t>12/04/2023  11:59:41</t>
+  </si>
+  <si>
+    <t>12/04/2023  12:03:08</t>
+  </si>
+  <si>
+    <t>12/04/2023  15:43:18</t>
+  </si>
+  <si>
+    <t>12/04/2023  16:14:52</t>
+  </si>
+  <si>
+    <t>13/04/2023  08:23:06</t>
+  </si>
+  <si>
+    <t>13/04/2023  11:42:27</t>
+  </si>
+  <si>
+    <t>13/04/2023  13:26:27</t>
+  </si>
+  <si>
+    <t>13/04/2023  15:12:39</t>
+  </si>
+  <si>
+    <t>13/04/2023  16:38:38</t>
+  </si>
+  <si>
+    <t>13/04/2023  16:46:57</t>
+  </si>
+  <si>
+    <t>13/04/2023  16:58:57</t>
+  </si>
+  <si>
+    <t>13/04/2023  18:17:42</t>
+  </si>
+  <si>
+    <t>MARILIA LUIZA OLIVEIRA DE MELO</t>
+  </si>
+  <si>
+    <t>LORRAYNE BALDI ANDRADE</t>
+  </si>
+  <si>
+    <t>MARIA CLAUDIA MENDES DA COSTA</t>
+  </si>
+  <si>
+    <t>ANDRESSA CASSANDRO STOFEL DE LIMA</t>
+  </si>
+  <si>
+    <t>FABIO DE VASCONCELOS MELO</t>
+  </si>
+  <si>
+    <t>ELIANE SANTOS XAVIER DAS NEVES</t>
+  </si>
+  <si>
+    <t>SUELI DOS SANTOS DA SILVA</t>
+  </si>
+  <si>
+    <t>MARCELINA CAMPELO DE SOUSA</t>
+  </si>
+  <si>
+    <t>SILMA MEDEIROS DO PATROCÃ­NIO</t>
+  </si>
+  <si>
+    <t>WERISLAYNI OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>RENATA ADRIANA DOS SANTOS NASCIMENTO</t>
+  </si>
+  <si>
+    <t>AUDILENE FERREIRA LOPES NASCIMENTO</t>
+  </si>
+  <si>
+    <t>ANDREZZA PEVAS DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>MARIA CRISTINA TAVARES DA SILVA</t>
+  </si>
+  <si>
+    <t>ANA DRIELI DA SILVA LAGES</t>
+  </si>
+  <si>
+    <t>PYETRO SOUZA DE JESUS</t>
+  </si>
+  <si>
+    <t>MAURICEA DA SILVA CORREIA TAVARES</t>
+  </si>
+  <si>
+    <t>MARIA APARECIDA DA SILVA RIBEIRO</t>
+  </si>
+  <si>
+    <t>ALEXANDRE DE MELO WAGNER JUNIOR</t>
+  </si>
+  <si>
+    <t>SUELLEN PINHEIRO VIANA</t>
+  </si>
+  <si>
+    <t>EDNA LOPES DA SILVA</t>
+  </si>
+  <si>
+    <t>RHILLARY CAMILLE SOARES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>SARAH DE OLIVEIRA PEREZ</t>
+  </si>
+  <si>
+    <t>CARLOS RODRIGO CHAGAS GITIRANA</t>
+  </si>
+  <si>
+    <t>CRISTIANO DE OLIVEIRA CARNEIRO</t>
+  </si>
+  <si>
+    <t>BRAYAN MIGUEL JAFFRA PEREIRA</t>
+  </si>
+  <si>
+    <t>JANAINA MARIA DA SILVA</t>
+  </si>
+  <si>
+    <t>CLEO DALSIOR VOM DOELINGER</t>
+  </si>
+  <si>
+    <t>WELLINGTON FERREIRA DE JESUS</t>
+  </si>
+  <si>
+    <t>BENICIO MARTINS FERNANDES</t>
+  </si>
+  <si>
+    <t>PAOLA MONIQUE DA SILVA TEIXEIRA</t>
+  </si>
+  <si>
+    <t>IDEILDO LUCENA MOURA DA SILVA JUNIOR</t>
+  </si>
+  <si>
+    <t>MARIA DA CONCEICAO DA SILVA</t>
+  </si>
+  <si>
+    <t>VALDIR FERNANDES DE ARAUJO</t>
+  </si>
+  <si>
+    <t>CALINE ESTEFANI DE SOUZA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>MARLENE NUNES HONDA TAVARES</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO DALPRA</t>
+  </si>
+  <si>
+    <t>RAVI SCHULZ XAVIER DA CRUZ</t>
+  </si>
+  <si>
+    <t>KAYKY BRUNNO SOUZA LOPES</t>
+  </si>
+  <si>
+    <t>MÔNICA ALVES GOMES</t>
+  </si>
+  <si>
+    <t>MARCIO CANDIDO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>BARBARA KELLY CARNEIRO LEÃO RODRIGUES</t>
+  </si>
+  <si>
+    <t>ANALIS SOARES SILVA</t>
+  </si>
+  <si>
+    <t>MAICKSON CAIQUE VENANCIO</t>
+  </si>
+  <si>
+    <t>EMILLE FERNANDES CORREA</t>
+  </si>
+  <si>
+    <t>MILENA FREIRE TRAVASSOS COUSSEIRO</t>
+  </si>
+  <si>
+    <t>ROGERIA DORALICE SOARES DA SILVA</t>
   </si>
   <si>
     <t>1 dias úteis</t>
@@ -650,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,25 +789,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>12145988</v>
+        <v>12147299</v>
       </c>
       <c r="F2">
-        <v>8579353</v>
+        <v>8580883</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -737,25 +824,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>12146576</v>
+        <v>12147571</v>
       </c>
       <c r="F3">
-        <v>8580030</v>
+        <v>8581252</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -772,25 +859,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>12146711</v>
+        <v>12148282</v>
       </c>
       <c r="F4">
-        <v>8580119</v>
+        <v>8582107</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -807,25 +894,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>12146787</v>
+        <v>12149112</v>
       </c>
       <c r="F5">
-        <v>8580243</v>
+        <v>8583135</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -842,25 +929,25 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>12147152</v>
+        <v>12149924</v>
       </c>
       <c r="F6">
-        <v>8580726</v>
+        <v>8584156</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -877,25 +964,25 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>12147478</v>
+        <v>12150089</v>
       </c>
       <c r="F7">
-        <v>8230607</v>
+        <v>8584343</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -912,25 +999,25 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>12147631</v>
+        <v>12150135</v>
       </c>
       <c r="F8">
-        <v>8581299</v>
+        <v>8584374</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -947,25 +1034,25 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>12148200</v>
+        <v>12150483</v>
       </c>
       <c r="F9">
-        <v>8581975</v>
+        <v>8584813</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -982,25 +1069,25 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>12149727</v>
+        <v>12152006</v>
       </c>
       <c r="F10">
-        <v>8583861</v>
+        <v>8586692</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1017,25 +1104,25 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>12151325</v>
+        <v>12152010</v>
       </c>
       <c r="F11">
-        <v>8585862</v>
+        <v>8586697</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1052,25 +1139,25 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>12151461</v>
+        <v>12152365</v>
       </c>
       <c r="F12">
-        <v>8586030</v>
+        <v>8587082</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1087,25 +1174,25 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>12153205</v>
+        <v>12153268</v>
       </c>
       <c r="F13">
-        <v>8588077</v>
+        <v>8588178</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1122,25 +1209,25 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>12153463</v>
+        <v>12154201</v>
       </c>
       <c r="F14">
-        <v>8588431</v>
+        <v>8589287</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1157,25 +1244,25 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>12153630</v>
+        <v>12154563</v>
       </c>
       <c r="F15">
-        <v>8588645</v>
+        <v>8589717</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K15" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1192,25 +1279,25 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>12154294</v>
+        <v>12154995</v>
       </c>
       <c r="F16">
-        <v>8589407</v>
+        <v>8590264</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1227,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>12154631</v>
+        <v>12155773</v>
       </c>
       <c r="F17">
-        <v>8589813</v>
+        <v>8591144</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1262,25 +1349,25 @@
         <v>28</v>
       </c>
       <c r="E18">
-        <v>12155655</v>
+        <v>12156156</v>
       </c>
       <c r="F18">
-        <v>8591050</v>
+        <v>8591752</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1297,25 +1384,25 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>12155706</v>
+        <v>12156297</v>
       </c>
       <c r="F19">
-        <v>8591067</v>
+        <v>8591919</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1332,25 +1419,25 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>12155732</v>
+        <v>12156771</v>
       </c>
       <c r="F20">
-        <v>8591079</v>
+        <v>8592489</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1367,25 +1454,25 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>12156130</v>
+        <v>12156826</v>
       </c>
       <c r="F21">
-        <v>8591725</v>
+        <v>8592529</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1402,25 +1489,25 @@
         <v>32</v>
       </c>
       <c r="E22">
-        <v>12157899</v>
+        <v>12157160</v>
       </c>
       <c r="F22">
-        <v>8593801</v>
+        <v>8592956</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K22" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1437,25 +1524,25 @@
         <v>33</v>
       </c>
       <c r="E23">
-        <v>12159646</v>
+        <v>12158020</v>
       </c>
       <c r="F23">
-        <v>7797800</v>
+        <v>8593967</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K23" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1472,25 +1559,25 @@
         <v>34</v>
       </c>
       <c r="E24">
-        <v>12161100</v>
+        <v>12158435</v>
       </c>
       <c r="F24">
-        <v>8597675</v>
+        <v>8594522</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="I24" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K24" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1507,25 +1594,25 @@
         <v>35</v>
       </c>
       <c r="E25">
-        <v>12161386</v>
+        <v>12158576</v>
       </c>
       <c r="F25">
-        <v>8598016</v>
+        <v>8594695</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J25" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K25" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1542,25 +1629,25 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>12163407</v>
+        <v>12159014</v>
       </c>
       <c r="F26">
-        <v>8600473</v>
+        <v>8595238</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K26" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1577,25 +1664,25 @@
         <v>37</v>
       </c>
       <c r="E27">
-        <v>12163869</v>
+        <v>12160376</v>
       </c>
       <c r="F27">
-        <v>8601052</v>
+        <v>8596884</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="I27" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J27" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K27" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1612,25 +1699,25 @@
         <v>38</v>
       </c>
       <c r="E28">
-        <v>12165805</v>
+        <v>12161017</v>
       </c>
       <c r="F28">
-        <v>8603359</v>
+        <v>8597595</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J28" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K28" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1647,25 +1734,25 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>12166069</v>
+        <v>12161650</v>
       </c>
       <c r="F29">
-        <v>8603674</v>
+        <v>8598342</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J29" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="K29" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1682,25 +1769,25 @@
         <v>40</v>
       </c>
       <c r="E30">
-        <v>12167081</v>
+        <v>12162010</v>
       </c>
       <c r="F30">
-        <v>8604741</v>
+        <v>8598761</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="I30" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J30" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K30" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1717,25 +1804,25 @@
         <v>41</v>
       </c>
       <c r="E31">
-        <v>12167165</v>
+        <v>12162415</v>
       </c>
       <c r="F31">
-        <v>8604741</v>
+        <v>8599264</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="I31" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J31" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K31" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1752,25 +1839,25 @@
         <v>42</v>
       </c>
       <c r="E32">
-        <v>12167700</v>
+        <v>12162439</v>
       </c>
       <c r="F32">
-        <v>8605615</v>
+        <v>8599230</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="I32" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K32" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1787,25 +1874,25 @@
         <v>43</v>
       </c>
       <c r="E33">
-        <v>12168346</v>
+        <v>12163370</v>
       </c>
       <c r="F33">
-        <v>8606403</v>
+        <v>8600412</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="I33" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J33" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K33" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1822,25 +1909,550 @@
         <v>44</v>
       </c>
       <c r="E34">
-        <v>12169638</v>
+        <v>12163535</v>
       </c>
       <c r="F34">
-        <v>8608000</v>
+        <v>8600621</v>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="I34" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J34" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35">
+        <v>12164502</v>
+      </c>
+      <c r="F35">
+        <v>8601769</v>
+      </c>
+      <c r="G35" t="s">
         <v>92</v>
+      </c>
+      <c r="H35" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" t="s">
+        <v>118</v>
+      </c>
+      <c r="J35" t="s">
+        <v>119</v>
+      </c>
+      <c r="K35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36">
+        <v>12164852</v>
+      </c>
+      <c r="F36">
+        <v>8602234</v>
+      </c>
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" t="s">
+        <v>118</v>
+      </c>
+      <c r="J36" t="s">
+        <v>119</v>
+      </c>
+      <c r="K36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37">
+        <v>12165245</v>
+      </c>
+      <c r="F37">
+        <v>8602670</v>
+      </c>
+      <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38">
+        <v>12166383</v>
+      </c>
+      <c r="F38">
+        <v>8604036</v>
+      </c>
+      <c r="G38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" t="s">
+        <v>118</v>
+      </c>
+      <c r="J38" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39">
+        <v>12166396</v>
+      </c>
+      <c r="F39">
+        <v>8604069</v>
+      </c>
+      <c r="G39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" t="s">
+        <v>118</v>
+      </c>
+      <c r="J39" t="s">
+        <v>119</v>
+      </c>
+      <c r="K39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>12167333</v>
+      </c>
+      <c r="F40">
+        <v>8605179</v>
+      </c>
+      <c r="G40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" t="s">
+        <v>119</v>
+      </c>
+      <c r="K40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41">
+        <v>12167445</v>
+      </c>
+      <c r="F41">
+        <v>8605345</v>
+      </c>
+      <c r="G41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" t="s">
+        <v>118</v>
+      </c>
+      <c r="J41" t="s">
+        <v>119</v>
+      </c>
+      <c r="K41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42">
+        <v>12168095</v>
+      </c>
+      <c r="F42">
+        <v>8606114</v>
+      </c>
+      <c r="G42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" t="s">
+        <v>118</v>
+      </c>
+      <c r="J42" t="s">
+        <v>119</v>
+      </c>
+      <c r="K42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43">
+        <v>12168687</v>
+      </c>
+      <c r="F43">
+        <v>8606848</v>
+      </c>
+      <c r="G43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" t="s">
+        <v>118</v>
+      </c>
+      <c r="J43" t="s">
+        <v>119</v>
+      </c>
+      <c r="K43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44">
+        <v>12169086</v>
+      </c>
+      <c r="F44">
+        <v>8607367</v>
+      </c>
+      <c r="G44" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" t="s">
+        <v>118</v>
+      </c>
+      <c r="J44" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45">
+        <v>12169516</v>
+      </c>
+      <c r="F45">
+        <v>8607900</v>
+      </c>
+      <c r="G45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" t="s">
+        <v>118</v>
+      </c>
+      <c r="J45" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46">
+        <v>12169806</v>
+      </c>
+      <c r="F46">
+        <v>8608265</v>
+      </c>
+      <c r="G46" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" t="s">
+        <v>116</v>
+      </c>
+      <c r="I46" t="s">
+        <v>118</v>
+      </c>
+      <c r="J46" t="s">
+        <v>119</v>
+      </c>
+      <c r="K46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47">
+        <v>12169830</v>
+      </c>
+      <c r="F47">
+        <v>8608288</v>
+      </c>
+      <c r="G47" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" t="s">
+        <v>118</v>
+      </c>
+      <c r="J47" t="s">
+        <v>119</v>
+      </c>
+      <c r="K47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48">
+        <v>12169862</v>
+      </c>
+      <c r="F48">
+        <v>8608371</v>
+      </c>
+      <c r="G48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" t="s">
+        <v>118</v>
+      </c>
+      <c r="J48" t="s">
+        <v>119</v>
+      </c>
+      <c r="K48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49">
+        <v>12170051</v>
+      </c>
+      <c r="F49">
+        <v>8608573</v>
+      </c>
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49" t="s">
+        <v>118</v>
+      </c>
+      <c r="J49" t="s">
+        <v>119</v>
+      </c>
+      <c r="K49" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="95">
   <si>
     <t>Hoje</t>
   </si>
@@ -49,292 +49,211 @@
     <t>13-04-2023</t>
   </si>
   <si>
-    <t>422380 - YOU ASSISTÊNCIA MÉDICA LTDA</t>
-  </si>
-  <si>
-    <t>29/03/2023  15:40:36</t>
-  </si>
-  <si>
-    <t>29/03/2023  17:18:47</t>
-  </si>
-  <si>
-    <t>30/03/2023  10:44:52</t>
-  </si>
-  <si>
-    <t>30/03/2023  14:42:51</t>
-  </si>
-  <si>
-    <t>30/03/2023  22:05:13</t>
-  </si>
-  <si>
-    <t>31/03/2023  09:33:21</t>
-  </si>
-  <si>
-    <t>31/03/2023  09:49:39</t>
-  </si>
-  <si>
-    <t>31/03/2023  11:43:24</t>
-  </si>
-  <si>
-    <t>01/04/2023  16:35:36</t>
-  </si>
-  <si>
-    <t>01/04/2023  16:55:34</t>
-  </si>
-  <si>
-    <t>03/04/2023  09:41:48</t>
-  </si>
-  <si>
-    <t>03/04/2023  14:02:31</t>
-  </si>
-  <si>
-    <t>03/04/2023  18:58:23</t>
-  </si>
-  <si>
-    <t>04/04/2023  09:27:21</t>
-  </si>
-  <si>
-    <t>04/04/2023  11:32:18</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:57:51</t>
-  </si>
-  <si>
-    <t>04/04/2023  16:52:11</t>
-  </si>
-  <si>
-    <t>04/04/2023  17:48:58</t>
-  </si>
-  <si>
-    <t>05/04/2023  09:17:32</t>
-  </si>
-  <si>
-    <t>05/04/2023  09:38:27</t>
-  </si>
-  <si>
-    <t>05/04/2023  11:14:32</t>
-  </si>
-  <si>
-    <t>05/04/2023  14:58:01</t>
-  </si>
-  <si>
-    <t>05/04/2023  17:16:13</t>
-  </si>
-  <si>
-    <t>05/04/2023  18:37:46</t>
-  </si>
-  <si>
-    <t>06/04/2023  09:43:31</t>
-  </si>
-  <si>
-    <t>06/04/2023  17:07:51</t>
-  </si>
-  <si>
-    <t>10/04/2023  08:44:11</t>
-  </si>
-  <si>
-    <t>10/04/2023  11:56:29</t>
-  </si>
-  <si>
-    <t>10/04/2023  13:25:58</t>
-  </si>
-  <si>
-    <t>10/04/2023  14:54:09</t>
-  </si>
-  <si>
-    <t>10/04/2023  15:00:01</t>
-  </si>
-  <si>
-    <t>11/04/2023  08:23:00</t>
-  </si>
-  <si>
-    <t>11/04/2023  09:34:28</t>
-  </si>
-  <si>
-    <t>11/04/2023  13:50:53</t>
-  </si>
-  <si>
-    <t>11/04/2023  15:08:53</t>
-  </si>
-  <si>
-    <t>11/04/2023  16:57:02</t>
-  </si>
-  <si>
-    <t>12/04/2023  11:59:41</t>
-  </si>
-  <si>
-    <t>12/04/2023  12:03:08</t>
-  </si>
-  <si>
-    <t>12/04/2023  15:43:18</t>
-  </si>
-  <si>
-    <t>12/04/2023  16:14:52</t>
-  </si>
-  <si>
-    <t>13/04/2023  08:23:06</t>
-  </si>
-  <si>
-    <t>13/04/2023  11:42:27</t>
-  </si>
-  <si>
-    <t>13/04/2023  13:26:27</t>
-  </si>
-  <si>
-    <t>13/04/2023  15:12:39</t>
-  </si>
-  <si>
-    <t>13/04/2023  16:38:38</t>
-  </si>
-  <si>
-    <t>13/04/2023  16:46:57</t>
-  </si>
-  <si>
-    <t>13/04/2023  16:58:57</t>
-  </si>
-  <si>
-    <t>13/04/2023  18:17:42</t>
-  </si>
-  <si>
-    <t>MARILIA LUIZA OLIVEIRA DE MELO</t>
-  </si>
-  <si>
-    <t>LORRAYNE BALDI ANDRADE</t>
-  </si>
-  <si>
-    <t>MARIA CLAUDIA MENDES DA COSTA</t>
-  </si>
-  <si>
-    <t>ANDRESSA CASSANDRO STOFEL DE LIMA</t>
-  </si>
-  <si>
-    <t>FABIO DE VASCONCELOS MELO</t>
-  </si>
-  <si>
-    <t>ELIANE SANTOS XAVIER DAS NEVES</t>
-  </si>
-  <si>
-    <t>SUELI DOS SANTOS DA SILVA</t>
-  </si>
-  <si>
-    <t>MARCELINA CAMPELO DE SOUSA</t>
-  </si>
-  <si>
-    <t>SILMA MEDEIROS DO PATROCÃ­NIO</t>
-  </si>
-  <si>
-    <t>WERISLAYNI OLIVEIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>RENATA ADRIANA DOS SANTOS NASCIMENTO</t>
-  </si>
-  <si>
-    <t>AUDILENE FERREIRA LOPES NASCIMENTO</t>
-  </si>
-  <si>
-    <t>ANDREZZA PEVAS DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>MARIA CRISTINA TAVARES DA SILVA</t>
-  </si>
-  <si>
-    <t>ANA DRIELI DA SILVA LAGES</t>
-  </si>
-  <si>
-    <t>PYETRO SOUZA DE JESUS</t>
-  </si>
-  <si>
-    <t>MAURICEA DA SILVA CORREIA TAVARES</t>
-  </si>
-  <si>
-    <t>MARIA APARECIDA DA SILVA RIBEIRO</t>
-  </si>
-  <si>
-    <t>ALEXANDRE DE MELO WAGNER JUNIOR</t>
-  </si>
-  <si>
-    <t>SUELLEN PINHEIRO VIANA</t>
-  </si>
-  <si>
-    <t>EDNA LOPES DA SILVA</t>
-  </si>
-  <si>
-    <t>RHILLARY CAMILLE SOARES DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>SARAH DE OLIVEIRA PEREZ</t>
-  </si>
-  <si>
-    <t>CARLOS RODRIGO CHAGAS GITIRANA</t>
-  </si>
-  <si>
-    <t>CRISTIANO DE OLIVEIRA CARNEIRO</t>
-  </si>
-  <si>
-    <t>BRAYAN MIGUEL JAFFRA PEREIRA</t>
-  </si>
-  <si>
-    <t>JANAINA MARIA DA SILVA</t>
-  </si>
-  <si>
-    <t>CLEO DALSIOR VOM DOELINGER</t>
-  </si>
-  <si>
-    <t>WELLINGTON FERREIRA DE JESUS</t>
-  </si>
-  <si>
-    <t>BENICIO MARTINS FERNANDES</t>
-  </si>
-  <si>
-    <t>PAOLA MONIQUE DA SILVA TEIXEIRA</t>
-  </si>
-  <si>
-    <t>IDEILDO LUCENA MOURA DA SILVA JUNIOR</t>
-  </si>
-  <si>
-    <t>MARIA DA CONCEICAO DA SILVA</t>
-  </si>
-  <si>
-    <t>VALDIR FERNANDES DE ARAUJO</t>
-  </si>
-  <si>
-    <t>CALINE ESTEFANI DE SOUZA OLIVEIRA</t>
-  </si>
-  <si>
-    <t>MARLENE NUNES HONDA TAVARES</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO DALPRA</t>
-  </si>
-  <si>
-    <t>RAVI SCHULZ XAVIER DA CRUZ</t>
-  </si>
-  <si>
-    <t>KAYKY BRUNNO SOUZA LOPES</t>
-  </si>
-  <si>
-    <t>MÔNICA ALVES GOMES</t>
-  </si>
-  <si>
-    <t>MARCIO CANDIDO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>BARBARA KELLY CARNEIRO LEÃO RODRIGUES</t>
-  </si>
-  <si>
-    <t>ANALIS SOARES SILVA</t>
-  </si>
-  <si>
-    <t>MAICKSON CAIQUE VENANCIO</t>
-  </si>
-  <si>
-    <t>EMILLE FERNANDES CORREA</t>
-  </si>
-  <si>
-    <t>MILENA FREIRE TRAVASSOS COUSSEIRO</t>
-  </si>
-  <si>
-    <t>ROGERIA DORALICE SOARES DA SILVA</t>
+    <t>417823 - PREMIUM SAÚDE S.A</t>
+  </si>
+  <si>
+    <t>29/03/2023  09:47:08</t>
+  </si>
+  <si>
+    <t>29/03/2023  12:30:46</t>
+  </si>
+  <si>
+    <t>29/03/2023  13:12:34</t>
+  </si>
+  <si>
+    <t>29/03/2023  13:31:59</t>
+  </si>
+  <si>
+    <t>29/03/2023  15:02:49</t>
+  </si>
+  <si>
+    <t>29/03/2023  16:41:58</t>
+  </si>
+  <si>
+    <t>29/03/2023  17:44:07</t>
+  </si>
+  <si>
+    <t>30/03/2023  10:18:35</t>
+  </si>
+  <si>
+    <t>30/03/2023  18:10:52</t>
+  </si>
+  <si>
+    <t>31/03/2023  15:44:32</t>
+  </si>
+  <si>
+    <t>31/03/2023  16:30:14</t>
+  </si>
+  <si>
+    <t>03/04/2023  13:44:27</t>
+  </si>
+  <si>
+    <t>03/04/2023  14:47:05</t>
+  </si>
+  <si>
+    <t>03/04/2023  15:25:17</t>
+  </si>
+  <si>
+    <t>03/04/2023  19:51:17</t>
+  </si>
+  <si>
+    <t>04/04/2023  09:49:35</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:25:14</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:37:21</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:44:53</t>
+  </si>
+  <si>
+    <t>04/04/2023  16:42:14</t>
+  </si>
+  <si>
+    <t>05/04/2023  14:26:09</t>
+  </si>
+  <si>
+    <t>06/04/2023  13:03:51</t>
+  </si>
+  <si>
+    <t>10/04/2023  09:19:30</t>
+  </si>
+  <si>
+    <t>10/04/2023  10:47:50</t>
+  </si>
+  <si>
+    <t>11/04/2023  08:39:19</t>
+  </si>
+  <si>
+    <t>11/04/2023  11:09:14</t>
+  </si>
+  <si>
+    <t>12/04/2023  08:58:03</t>
+  </si>
+  <si>
+    <t>12/04/2023  10:38:24</t>
+  </si>
+  <si>
+    <t>12/04/2023  14:44:59</t>
+  </si>
+  <si>
+    <t>12/04/2023  15:02:14</t>
+  </si>
+  <si>
+    <t>12/04/2023  17:36:17</t>
+  </si>
+  <si>
+    <t>13/04/2023  10:06:53</t>
+  </si>
+  <si>
+    <t>13/04/2023  15:44:44</t>
+  </si>
+  <si>
+    <t>13/04/2023  17:09:35</t>
+  </si>
+  <si>
+    <t>GAEL AUGUSTO FERREIRA SANTOS</t>
+  </si>
+  <si>
+    <t>MARIANA FERREIRA BORGES</t>
+  </si>
+  <si>
+    <t>GILMAR DE JESUS</t>
+  </si>
+  <si>
+    <t>CLAUDETE APARECIDA SILVA</t>
+  </si>
+  <si>
+    <t>LARA EMANUELLY BARBOSA ALVES DE MELO</t>
+  </si>
+  <si>
+    <t>VALDIRA FOGACA FLORES</t>
+  </si>
+  <si>
+    <t>DURVALINA SOUZA PEREIRA</t>
+  </si>
+  <si>
+    <t>MARIA LENICE DA SILVA BOA VENTURA</t>
+  </si>
+  <si>
+    <t>PRISCILA TIZONI GOMES RIBEIRO SILVA</t>
+  </si>
+  <si>
+    <t>ALEXSANDRA RAMOS MARGARIDA</t>
+  </si>
+  <si>
+    <t>CREUZA CASTELLARI MARCONSINI REIS</t>
+  </si>
+  <si>
+    <t>BÁRBARA DE OLIVEIRA PATRÍCIO</t>
+  </si>
+  <si>
+    <t>KEPA FREDRICK STOCKNER</t>
+  </si>
+  <si>
+    <t>DAVIDSON LUIZ PEREIRA LOPES</t>
+  </si>
+  <si>
+    <t>KENIA CLAUDIA FARIA CAMPOS</t>
+  </si>
+  <si>
+    <t>CRISTIANE BATISTA ROCHA</t>
+  </si>
+  <si>
+    <t>ROBSON FRANCISCO LANZA JUNIOR</t>
+  </si>
+  <si>
+    <t>ANDREIA MARIA OTTONI MORAES</t>
+  </si>
+  <si>
+    <t>ANTONIA EVA MAGALHAES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ISIS NOGUEIRA CHAVES</t>
+  </si>
+  <si>
+    <t>ANTONIO CARLOS SANTOS</t>
+  </si>
+  <si>
+    <t>DANIELA FARIAS VASCONCELOS</t>
+  </si>
+  <si>
+    <t>CAIO HENRIQUE RODRIGUES FERNANDES</t>
+  </si>
+  <si>
+    <t>DIEGO SANTOS DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>AYLA ALVES COELHO</t>
+  </si>
+  <si>
+    <t>PRISCILA APARECIDA SANTOS FRANCISCO</t>
+  </si>
+  <si>
+    <t>LUDIANE CONCEICAO DOS SANTOS OLIVEIRA MATOS</t>
+  </si>
+  <si>
+    <t>ELENICE DE SIQUEIRA</t>
+  </si>
+  <si>
+    <t>JENIFE BIANCA AMORIM PEREIRA</t>
+  </si>
+  <si>
+    <t>JUCIMAR AMORIM PEREIRA</t>
+  </si>
+  <si>
+    <t>VIRGILIO ISMAR SANTOS GARCIA</t>
+  </si>
+  <si>
+    <t>MELINDA GOULART CRUZ</t>
+  </si>
+  <si>
+    <t>JORGE EUSTACIO MEDEIROS</t>
+  </si>
+  <si>
+    <t>NATALIA SOLANO ROSSELIS PEREIRA DA SILVA</t>
   </si>
   <si>
     <t>1 dias úteis</t>
@@ -737,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -789,25 +708,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>12147299</v>
+        <v>12145988</v>
       </c>
       <c r="F2">
-        <v>8580883</v>
+        <v>8579353</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -824,25 +743,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>12147571</v>
+        <v>12146576</v>
       </c>
       <c r="F3">
-        <v>8581252</v>
+        <v>8580030</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -859,25 +778,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>12148282</v>
+        <v>12146711</v>
       </c>
       <c r="F4">
-        <v>8582107</v>
+        <v>8580119</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -894,25 +813,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>12149112</v>
+        <v>12146787</v>
       </c>
       <c r="F5">
-        <v>8583135</v>
+        <v>8580243</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -929,25 +848,25 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>12149924</v>
+        <v>12147152</v>
       </c>
       <c r="F6">
-        <v>8584156</v>
+        <v>8580726</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -964,25 +883,25 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>12150089</v>
+        <v>12147478</v>
       </c>
       <c r="F7">
-        <v>8584343</v>
+        <v>8230607</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -999,25 +918,25 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>12150135</v>
+        <v>12147631</v>
       </c>
       <c r="F8">
-        <v>8584374</v>
+        <v>8581299</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1034,25 +953,25 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>12150483</v>
+        <v>12148200</v>
       </c>
       <c r="F9">
-        <v>8584813</v>
+        <v>8581975</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1069,25 +988,25 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>12152006</v>
+        <v>12149727</v>
       </c>
       <c r="F10">
-        <v>8586692</v>
+        <v>8583861</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1104,25 +1023,25 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>12152010</v>
+        <v>12151325</v>
       </c>
       <c r="F11">
-        <v>8586697</v>
+        <v>8585862</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1139,25 +1058,25 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>12152365</v>
+        <v>12151461</v>
       </c>
       <c r="F12">
-        <v>8587082</v>
+        <v>8586030</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1174,25 +1093,25 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>12153268</v>
+        <v>12153205</v>
       </c>
       <c r="F13">
-        <v>8588178</v>
+        <v>8588077</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1209,25 +1128,25 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>12154201</v>
+        <v>12153463</v>
       </c>
       <c r="F14">
-        <v>8589287</v>
+        <v>8588431</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1244,25 +1163,25 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>12154563</v>
+        <v>12153630</v>
       </c>
       <c r="F15">
-        <v>8589717</v>
+        <v>8588645</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1279,25 +1198,25 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>12154995</v>
+        <v>12154294</v>
       </c>
       <c r="F16">
-        <v>8590264</v>
+        <v>8589407</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1314,25 +1233,25 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>12155773</v>
+        <v>12154631</v>
       </c>
       <c r="F17">
-        <v>8591144</v>
+        <v>8589813</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1349,25 +1268,25 @@
         <v>28</v>
       </c>
       <c r="E18">
-        <v>12156156</v>
+        <v>12155655</v>
       </c>
       <c r="F18">
-        <v>8591752</v>
+        <v>8591050</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1384,25 +1303,25 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>12156297</v>
+        <v>12155706</v>
       </c>
       <c r="F19">
-        <v>8591919</v>
+        <v>8591067</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1419,25 +1338,25 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>12156771</v>
+        <v>12155732</v>
       </c>
       <c r="F20">
-        <v>8592489</v>
+        <v>8591079</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1454,25 +1373,25 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>12156826</v>
+        <v>12156130</v>
       </c>
       <c r="F21">
-        <v>8592529</v>
+        <v>8591725</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1489,25 +1408,25 @@
         <v>32</v>
       </c>
       <c r="E22">
-        <v>12157160</v>
+        <v>12157899</v>
       </c>
       <c r="F22">
-        <v>8592956</v>
+        <v>8593801</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1524,25 +1443,25 @@
         <v>33</v>
       </c>
       <c r="E23">
-        <v>12158020</v>
+        <v>12159646</v>
       </c>
       <c r="F23">
-        <v>8593967</v>
+        <v>7797800</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H23" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1559,25 +1478,25 @@
         <v>34</v>
       </c>
       <c r="E24">
-        <v>12158435</v>
+        <v>12161100</v>
       </c>
       <c r="F24">
-        <v>8594522</v>
+        <v>8597675</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1594,25 +1513,25 @@
         <v>35</v>
       </c>
       <c r="E25">
-        <v>12158576</v>
+        <v>12161386</v>
       </c>
       <c r="F25">
-        <v>8594695</v>
+        <v>8598016</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1629,25 +1548,25 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>12159014</v>
+        <v>12163407</v>
       </c>
       <c r="F26">
-        <v>8595238</v>
+        <v>8600473</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1664,25 +1583,25 @@
         <v>37</v>
       </c>
       <c r="E27">
-        <v>12160376</v>
+        <v>12163869</v>
       </c>
       <c r="F27">
-        <v>8596884</v>
+        <v>8601052</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1699,25 +1618,25 @@
         <v>38</v>
       </c>
       <c r="E28">
-        <v>12161017</v>
+        <v>12165805</v>
       </c>
       <c r="F28">
-        <v>8597595</v>
+        <v>8603359</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1734,25 +1653,25 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>12161650</v>
+        <v>12166069</v>
       </c>
       <c r="F29">
-        <v>8598342</v>
+        <v>8603674</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1769,25 +1688,25 @@
         <v>40</v>
       </c>
       <c r="E30">
-        <v>12162010</v>
+        <v>12167081</v>
       </c>
       <c r="F30">
-        <v>8598761</v>
+        <v>8604741</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1804,25 +1723,25 @@
         <v>41</v>
       </c>
       <c r="E31">
-        <v>12162415</v>
+        <v>12167165</v>
       </c>
       <c r="F31">
-        <v>8599264</v>
+        <v>8604741</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J31" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1839,25 +1758,25 @@
         <v>42</v>
       </c>
       <c r="E32">
-        <v>12162439</v>
+        <v>12167700</v>
       </c>
       <c r="F32">
-        <v>8599230</v>
+        <v>8605615</v>
       </c>
       <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s">
         <v>89</v>
       </c>
-      <c r="H32" t="s">
-        <v>114</v>
-      </c>
       <c r="I32" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J32" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1874,25 +1793,25 @@
         <v>43</v>
       </c>
       <c r="E33">
-        <v>12163370</v>
+        <v>12168346</v>
       </c>
       <c r="F33">
-        <v>8600412</v>
+        <v>8606403</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1909,25 +1828,25 @@
         <v>44</v>
       </c>
       <c r="E34">
-        <v>12163535</v>
+        <v>12169638</v>
       </c>
       <c r="F34">
-        <v>8600621</v>
+        <v>8608000</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1944,515 +1863,25 @@
         <v>45</v>
       </c>
       <c r="E35">
-        <v>12164502</v>
+        <v>12169885</v>
       </c>
       <c r="F35">
-        <v>8601769</v>
+        <v>8608362</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36">
-        <v>12164852</v>
-      </c>
-      <c r="F36">
-        <v>8602234</v>
-      </c>
-      <c r="G36" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" t="s">
-        <v>115</v>
-      </c>
-      <c r="I36" t="s">
-        <v>118</v>
-      </c>
-      <c r="J36" t="s">
-        <v>119</v>
-      </c>
-      <c r="K36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37">
-        <v>12165245</v>
-      </c>
-      <c r="F37">
-        <v>8602670</v>
-      </c>
-      <c r="G37" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" t="s">
-        <v>118</v>
-      </c>
-      <c r="J37" t="s">
-        <v>119</v>
-      </c>
-      <c r="K37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38">
-        <v>12166383</v>
-      </c>
-      <c r="F38">
-        <v>8604036</v>
-      </c>
-      <c r="G38" t="s">
-        <v>95</v>
-      </c>
-      <c r="H38" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" t="s">
-        <v>118</v>
-      </c>
-      <c r="J38" t="s">
-        <v>119</v>
-      </c>
-      <c r="K38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39">
-        <v>12166396</v>
-      </c>
-      <c r="F39">
-        <v>8604069</v>
-      </c>
-      <c r="G39" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" t="s">
-        <v>118</v>
-      </c>
-      <c r="J39" t="s">
-        <v>119</v>
-      </c>
-      <c r="K39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40">
-        <v>12167333</v>
-      </c>
-      <c r="F40">
-        <v>8605179</v>
-      </c>
-      <c r="G40" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" t="s">
-        <v>118</v>
-      </c>
-      <c r="J40" t="s">
-        <v>119</v>
-      </c>
-      <c r="K40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41">
-        <v>12167445</v>
-      </c>
-      <c r="F41">
-        <v>8605345</v>
-      </c>
-      <c r="G41" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" t="s">
-        <v>118</v>
-      </c>
-      <c r="J41" t="s">
-        <v>119</v>
-      </c>
-      <c r="K41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42">
-        <v>12168095</v>
-      </c>
-      <c r="F42">
-        <v>8606114</v>
-      </c>
-      <c r="G42" t="s">
-        <v>99</v>
-      </c>
-      <c r="H42" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" t="s">
-        <v>118</v>
-      </c>
-      <c r="J42" t="s">
-        <v>119</v>
-      </c>
-      <c r="K42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43">
-        <v>12168687</v>
-      </c>
-      <c r="F43">
-        <v>8606848</v>
-      </c>
-      <c r="G43" t="s">
-        <v>100</v>
-      </c>
-      <c r="H43" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" t="s">
-        <v>118</v>
-      </c>
-      <c r="J43" t="s">
-        <v>119</v>
-      </c>
-      <c r="K43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44">
-        <v>12169086</v>
-      </c>
-      <c r="F44">
-        <v>8607367</v>
-      </c>
-      <c r="G44" t="s">
-        <v>101</v>
-      </c>
-      <c r="H44" t="s">
-        <v>116</v>
-      </c>
-      <c r="I44" t="s">
-        <v>118</v>
-      </c>
-      <c r="J44" t="s">
-        <v>119</v>
-      </c>
-      <c r="K44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45">
-        <v>12169516</v>
-      </c>
-      <c r="F45">
-        <v>8607900</v>
-      </c>
-      <c r="G45" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" t="s">
-        <v>116</v>
-      </c>
-      <c r="I45" t="s">
-        <v>118</v>
-      </c>
-      <c r="J45" t="s">
-        <v>119</v>
-      </c>
-      <c r="K45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46">
-        <v>12169806</v>
-      </c>
-      <c r="F46">
-        <v>8608265</v>
-      </c>
-      <c r="G46" t="s">
-        <v>103</v>
-      </c>
-      <c r="H46" t="s">
-        <v>116</v>
-      </c>
-      <c r="I46" t="s">
-        <v>118</v>
-      </c>
-      <c r="J46" t="s">
-        <v>119</v>
-      </c>
-      <c r="K46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47">
-        <v>12169830</v>
-      </c>
-      <c r="F47">
-        <v>8608288</v>
-      </c>
-      <c r="G47" t="s">
-        <v>104</v>
-      </c>
-      <c r="H47" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" t="s">
-        <v>118</v>
-      </c>
-      <c r="J47" t="s">
-        <v>119</v>
-      </c>
-      <c r="K47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48">
-        <v>12169862</v>
-      </c>
-      <c r="F48">
-        <v>8608371</v>
-      </c>
-      <c r="G48" t="s">
-        <v>105</v>
-      </c>
-      <c r="H48" t="s">
-        <v>116</v>
-      </c>
-      <c r="I48" t="s">
-        <v>118</v>
-      </c>
-      <c r="J48" t="s">
-        <v>119</v>
-      </c>
-      <c r="K48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49">
-        <v>12170051</v>
-      </c>
-      <c r="F49">
-        <v>8608573</v>
-      </c>
-      <c r="G49" t="s">
-        <v>106</v>
-      </c>
-      <c r="H49" t="s">
-        <v>116</v>
-      </c>
-      <c r="I49" t="s">
-        <v>118</v>
-      </c>
-      <c r="J49" t="s">
-        <v>119</v>
-      </c>
-      <c r="K49" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="123">
   <si>
     <t>Hoje</t>
   </si>
@@ -46,214 +46,298 @@
     <t>Opções</t>
   </si>
   <si>
-    <t>13-04-2023</t>
-  </si>
-  <si>
-    <t>417823 - PREMIUM SAÚDE S.A</t>
-  </si>
-  <si>
-    <t>29/03/2023  09:47:08</t>
-  </si>
-  <si>
-    <t>29/03/2023  12:30:46</t>
-  </si>
-  <si>
-    <t>29/03/2023  13:12:34</t>
-  </si>
-  <si>
-    <t>29/03/2023  13:31:59</t>
-  </si>
-  <si>
-    <t>29/03/2023  15:02:49</t>
-  </si>
-  <si>
-    <t>29/03/2023  16:41:58</t>
-  </si>
-  <si>
-    <t>29/03/2023  17:44:07</t>
-  </si>
-  <si>
-    <t>30/03/2023  10:18:35</t>
-  </si>
-  <si>
-    <t>30/03/2023  18:10:52</t>
-  </si>
-  <si>
-    <t>31/03/2023  15:44:32</t>
-  </si>
-  <si>
-    <t>31/03/2023  16:30:14</t>
-  </si>
-  <si>
-    <t>03/04/2023  13:44:27</t>
-  </si>
-  <si>
-    <t>03/04/2023  14:47:05</t>
-  </si>
-  <si>
-    <t>03/04/2023  15:25:17</t>
-  </si>
-  <si>
-    <t>03/04/2023  19:51:17</t>
-  </si>
-  <si>
-    <t>04/04/2023  09:49:35</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:25:14</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:37:21</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:44:53</t>
-  </si>
-  <si>
-    <t>04/04/2023  16:42:14</t>
-  </si>
-  <si>
-    <t>05/04/2023  14:26:09</t>
-  </si>
-  <si>
-    <t>06/04/2023  13:03:51</t>
-  </si>
-  <si>
-    <t>10/04/2023  09:19:30</t>
-  </si>
-  <si>
-    <t>10/04/2023  10:47:50</t>
-  </si>
-  <si>
-    <t>11/04/2023  08:39:19</t>
-  </si>
-  <si>
-    <t>11/04/2023  11:09:14</t>
-  </si>
-  <si>
-    <t>12/04/2023  08:58:03</t>
-  </si>
-  <si>
-    <t>12/04/2023  10:38:24</t>
-  </si>
-  <si>
-    <t>12/04/2023  14:44:59</t>
-  </si>
-  <si>
-    <t>12/04/2023  15:02:14</t>
-  </si>
-  <si>
-    <t>12/04/2023  17:36:17</t>
-  </si>
-  <si>
-    <t>13/04/2023  10:06:53</t>
-  </si>
-  <si>
-    <t>13/04/2023  15:44:44</t>
-  </si>
-  <si>
-    <t>13/04/2023  17:09:35</t>
-  </si>
-  <si>
-    <t>GAEL AUGUSTO FERREIRA SANTOS</t>
-  </si>
-  <si>
-    <t>MARIANA FERREIRA BORGES</t>
-  </si>
-  <si>
-    <t>GILMAR DE JESUS</t>
-  </si>
-  <si>
-    <t>CLAUDETE APARECIDA SILVA</t>
-  </si>
-  <si>
-    <t>LARA EMANUELLY BARBOSA ALVES DE MELO</t>
-  </si>
-  <si>
-    <t>VALDIRA FOGACA FLORES</t>
-  </si>
-  <si>
-    <t>DURVALINA SOUZA PEREIRA</t>
-  </si>
-  <si>
-    <t>MARIA LENICE DA SILVA BOA VENTURA</t>
-  </si>
-  <si>
-    <t>PRISCILA TIZONI GOMES RIBEIRO SILVA</t>
-  </si>
-  <si>
-    <t>ALEXSANDRA RAMOS MARGARIDA</t>
-  </si>
-  <si>
-    <t>CREUZA CASTELLARI MARCONSINI REIS</t>
-  </si>
-  <si>
-    <t>BÁRBARA DE OLIVEIRA PATRÍCIO</t>
-  </si>
-  <si>
-    <t>KEPA FREDRICK STOCKNER</t>
-  </si>
-  <si>
-    <t>DAVIDSON LUIZ PEREIRA LOPES</t>
-  </si>
-  <si>
-    <t>KENIA CLAUDIA FARIA CAMPOS</t>
-  </si>
-  <si>
-    <t>CRISTIANE BATISTA ROCHA</t>
-  </si>
-  <si>
-    <t>ROBSON FRANCISCO LANZA JUNIOR</t>
-  </si>
-  <si>
-    <t>ANDREIA MARIA OTTONI MORAES</t>
-  </si>
-  <si>
-    <t>ANTONIA EVA MAGALHAES DOS SANTOS</t>
-  </si>
-  <si>
-    <t>ISIS NOGUEIRA CHAVES</t>
-  </si>
-  <si>
-    <t>ANTONIO CARLOS SANTOS</t>
-  </si>
-  <si>
-    <t>DANIELA FARIAS VASCONCELOS</t>
-  </si>
-  <si>
-    <t>CAIO HENRIQUE RODRIGUES FERNANDES</t>
-  </si>
-  <si>
-    <t>DIEGO SANTOS DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>AYLA ALVES COELHO</t>
-  </si>
-  <si>
-    <t>PRISCILA APARECIDA SANTOS FRANCISCO</t>
-  </si>
-  <si>
-    <t>LUDIANE CONCEICAO DOS SANTOS OLIVEIRA MATOS</t>
-  </si>
-  <si>
-    <t>ELENICE DE SIQUEIRA</t>
-  </si>
-  <si>
-    <t>JENIFE BIANCA AMORIM PEREIRA</t>
-  </si>
-  <si>
-    <t>JUCIMAR AMORIM PEREIRA</t>
-  </si>
-  <si>
-    <t>VIRGILIO ISMAR SANTOS GARCIA</t>
-  </si>
-  <si>
-    <t>MELINDA GOULART CRUZ</t>
-  </si>
-  <si>
-    <t>JORGE EUSTACIO MEDEIROS</t>
-  </si>
-  <si>
-    <t>NATALIA SOLANO ROSSELIS PEREIRA DA SILVA</t>
+    <t>14-04-2023</t>
+  </si>
+  <si>
+    <t>422380 - YOU ASSISTÊNCIA MÉDICA LTDA</t>
+  </si>
+  <si>
+    <t>29/03/2023  15:40:36</t>
+  </si>
+  <si>
+    <t>29/03/2023  17:18:47</t>
+  </si>
+  <si>
+    <t>30/03/2023  10:44:52</t>
+  </si>
+  <si>
+    <t>30/03/2023  14:42:51</t>
+  </si>
+  <si>
+    <t>30/03/2023  22:05:13</t>
+  </si>
+  <si>
+    <t>31/03/2023  09:33:21</t>
+  </si>
+  <si>
+    <t>31/03/2023  09:49:39</t>
+  </si>
+  <si>
+    <t>31/03/2023  11:43:24</t>
+  </si>
+  <si>
+    <t>01/04/2023  16:35:36</t>
+  </si>
+  <si>
+    <t>01/04/2023  16:55:34</t>
+  </si>
+  <si>
+    <t>03/04/2023  09:41:48</t>
+  </si>
+  <si>
+    <t>03/04/2023  14:02:31</t>
+  </si>
+  <si>
+    <t>03/04/2023  18:58:23</t>
+  </si>
+  <si>
+    <t>04/04/2023  09:27:21</t>
+  </si>
+  <si>
+    <t>04/04/2023  11:32:18</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:57:51</t>
+  </si>
+  <si>
+    <t>04/04/2023  16:52:11</t>
+  </si>
+  <si>
+    <t>04/04/2023  17:48:58</t>
+  </si>
+  <si>
+    <t>05/04/2023  09:17:32</t>
+  </si>
+  <si>
+    <t>05/04/2023  09:38:27</t>
+  </si>
+  <si>
+    <t>05/04/2023  11:14:32</t>
+  </si>
+  <si>
+    <t>05/04/2023  14:58:01</t>
+  </si>
+  <si>
+    <t>05/04/2023  17:16:13</t>
+  </si>
+  <si>
+    <t>05/04/2023  18:37:46</t>
+  </si>
+  <si>
+    <t>06/04/2023  09:43:31</t>
+  </si>
+  <si>
+    <t>06/04/2023  17:07:51</t>
+  </si>
+  <si>
+    <t>10/04/2023  08:44:11</t>
+  </si>
+  <si>
+    <t>10/04/2023  11:56:29</t>
+  </si>
+  <si>
+    <t>10/04/2023  13:25:58</t>
+  </si>
+  <si>
+    <t>10/04/2023  14:54:09</t>
+  </si>
+  <si>
+    <t>10/04/2023  15:00:01</t>
+  </si>
+  <si>
+    <t>11/04/2023  08:23:00</t>
+  </si>
+  <si>
+    <t>11/04/2023  09:34:28</t>
+  </si>
+  <si>
+    <t>11/04/2023  13:50:53</t>
+  </si>
+  <si>
+    <t>11/04/2023  15:08:53</t>
+  </si>
+  <si>
+    <t>11/04/2023  16:57:02</t>
+  </si>
+  <si>
+    <t>12/04/2023  11:59:41</t>
+  </si>
+  <si>
+    <t>12/04/2023  12:03:08</t>
+  </si>
+  <si>
+    <t>12/04/2023  15:43:18</t>
+  </si>
+  <si>
+    <t>12/04/2023  16:14:52</t>
+  </si>
+  <si>
+    <t>13/04/2023  08:23:06</t>
+  </si>
+  <si>
+    <t>13/04/2023  11:42:27</t>
+  </si>
+  <si>
+    <t>13/04/2023  13:26:27</t>
+  </si>
+  <si>
+    <t>13/04/2023  15:12:39</t>
+  </si>
+  <si>
+    <t>13/04/2023  16:38:38</t>
+  </si>
+  <si>
+    <t>13/04/2023  16:46:57</t>
+  </si>
+  <si>
+    <t>13/04/2023  16:58:57</t>
+  </si>
+  <si>
+    <t>13/04/2023  18:17:42</t>
+  </si>
+  <si>
+    <t>MARILIA LUIZA OLIVEIRA DE MELO</t>
+  </si>
+  <si>
+    <t>LORRAYNE BALDI ANDRADE</t>
+  </si>
+  <si>
+    <t>MARIA CLAUDIA MENDES DA COSTA</t>
+  </si>
+  <si>
+    <t>ANDRESSA CASSANDRO STOFEL DE LIMA</t>
+  </si>
+  <si>
+    <t>FABIO DE VASCONCELOS MELO</t>
+  </si>
+  <si>
+    <t>ELIANE SANTOS XAVIER DAS NEVES</t>
+  </si>
+  <si>
+    <t>SUELI DOS SANTOS DA SILVA</t>
+  </si>
+  <si>
+    <t>MARCELINA CAMPELO DE SOUSA</t>
+  </si>
+  <si>
+    <t>SILMA MEDEIROS DO PATROCÃ­NIO</t>
+  </si>
+  <si>
+    <t>WERISLAYNI OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>RENATA ADRIANA DOS SANTOS NASCIMENTO</t>
+  </si>
+  <si>
+    <t>AUDILENE FERREIRA LOPES NASCIMENTO</t>
+  </si>
+  <si>
+    <t>ANDREZZA PEVAS DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>MARIA CRISTINA TAVARES DA SILVA</t>
+  </si>
+  <si>
+    <t>ANA DRIELI DA SILVA LAGES</t>
+  </si>
+  <si>
+    <t>PYETRO SOUZA DE JESUS</t>
+  </si>
+  <si>
+    <t>MAURICEA DA SILVA CORREIA TAVARES</t>
+  </si>
+  <si>
+    <t>MARIA APARECIDA DA SILVA RIBEIRO</t>
+  </si>
+  <si>
+    <t>ALEXANDRE DE MELO WAGNER JUNIOR</t>
+  </si>
+  <si>
+    <t>SUELLEN PINHEIRO VIANA</t>
+  </si>
+  <si>
+    <t>EDNA LOPES DA SILVA</t>
+  </si>
+  <si>
+    <t>RHILLARY CAMILLE SOARES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>SARAH DE OLIVEIRA PEREZ</t>
+  </si>
+  <si>
+    <t>CARLOS RODRIGO CHAGAS GITIRANA</t>
+  </si>
+  <si>
+    <t>CRISTIANO DE OLIVEIRA CARNEIRO</t>
+  </si>
+  <si>
+    <t>BRAYAN MIGUEL JAFFRA PEREIRA</t>
+  </si>
+  <si>
+    <t>JANAINA MARIA DA SILVA</t>
+  </si>
+  <si>
+    <t>CLEO DALSIOR VOM DOELINGER</t>
+  </si>
+  <si>
+    <t>WELLINGTON FERREIRA DE JESUS</t>
+  </si>
+  <si>
+    <t>BENICIO MARTINS FERNANDES</t>
+  </si>
+  <si>
+    <t>PAOLA MONIQUE DA SILVA TEIXEIRA</t>
+  </si>
+  <si>
+    <t>IDEILDO LUCENA MOURA DA SILVA JUNIOR</t>
+  </si>
+  <si>
+    <t>MARIA DA CONCEICAO DA SILVA</t>
+  </si>
+  <si>
+    <t>VALDIR FERNANDES DE ARAUJO</t>
+  </si>
+  <si>
+    <t>CALINE ESTEFANI DE SOUZA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>MARLENE NUNES HONDA TAVARES</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO DALPRA</t>
+  </si>
+  <si>
+    <t>RAVI SCHULZ XAVIER DA CRUZ</t>
+  </si>
+  <si>
+    <t>KAYKY BRUNNO SOUZA LOPES</t>
+  </si>
+  <si>
+    <t>MÔNICA ALVES GOMES</t>
+  </si>
+  <si>
+    <t>MARCIO CANDIDO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>BARBARA KELLY CARNEIRO LEÃO RODRIGUES</t>
+  </si>
+  <si>
+    <t>ANALIS SOARES SILVA</t>
+  </si>
+  <si>
+    <t>MAICKSON CAIQUE VENANCIO</t>
+  </si>
+  <si>
+    <t>EMILLE FERNANDES CORREA</t>
+  </si>
+  <si>
+    <t>MILENA FREIRE TRAVASSOS COUSSEIRO</t>
+  </si>
+  <si>
+    <t>ROGERIA DORALICE SOARES DA SILVA</t>
+  </si>
+  <si>
+    <t>0 dias úteis</t>
   </si>
   <si>
     <t>1 dias úteis</t>
@@ -656,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,25 +792,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>12145988</v>
+        <v>12147299</v>
       </c>
       <c r="F2">
-        <v>8579353</v>
+        <v>8580883</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -743,25 +827,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>12146576</v>
+        <v>12147571</v>
       </c>
       <c r="F3">
-        <v>8580030</v>
+        <v>8581252</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -778,25 +862,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>12146711</v>
+        <v>12148282</v>
       </c>
       <c r="F4">
-        <v>8580119</v>
+        <v>8582107</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -813,25 +897,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>12146787</v>
+        <v>12149112</v>
       </c>
       <c r="F5">
-        <v>8580243</v>
+        <v>8583135</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -848,25 +932,25 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>12147152</v>
+        <v>12149924</v>
       </c>
       <c r="F6">
-        <v>8580726</v>
+        <v>8584156</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -883,25 +967,25 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>12147478</v>
+        <v>12150089</v>
       </c>
       <c r="F7">
-        <v>8230607</v>
+        <v>8584343</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -918,25 +1002,25 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>12147631</v>
+        <v>12150135</v>
       </c>
       <c r="F8">
-        <v>8581299</v>
+        <v>8584374</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -953,25 +1037,25 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>12148200</v>
+        <v>12150483</v>
       </c>
       <c r="F9">
-        <v>8581975</v>
+        <v>8584813</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -988,25 +1072,25 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>12149727</v>
+        <v>12152006</v>
       </c>
       <c r="F10">
-        <v>8583861</v>
+        <v>8586692</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1023,25 +1107,25 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>12151325</v>
+        <v>12152010</v>
       </c>
       <c r="F11">
-        <v>8585862</v>
+        <v>8586697</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1058,25 +1142,25 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>12151461</v>
+        <v>12152365</v>
       </c>
       <c r="F12">
-        <v>8586030</v>
+        <v>8587082</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1093,25 +1177,25 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>12153205</v>
+        <v>12153268</v>
       </c>
       <c r="F13">
-        <v>8588077</v>
+        <v>8588178</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1128,25 +1212,25 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>12153463</v>
+        <v>12154201</v>
       </c>
       <c r="F14">
-        <v>8588431</v>
+        <v>8589287</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1163,25 +1247,25 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>12153630</v>
+        <v>12154563</v>
       </c>
       <c r="F15">
-        <v>8588645</v>
+        <v>8589717</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1198,25 +1282,25 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>12154294</v>
+        <v>12154995</v>
       </c>
       <c r="F16">
-        <v>8589407</v>
+        <v>8590264</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1233,25 +1317,25 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>12154631</v>
+        <v>12155773</v>
       </c>
       <c r="F17">
-        <v>8589813</v>
+        <v>8591144</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K17" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1268,25 +1352,25 @@
         <v>28</v>
       </c>
       <c r="E18">
-        <v>12155655</v>
+        <v>12156156</v>
       </c>
       <c r="F18">
-        <v>8591050</v>
+        <v>8591752</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K18" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1303,25 +1387,25 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>12155706</v>
+        <v>12156297</v>
       </c>
       <c r="F19">
-        <v>8591067</v>
+        <v>8591919</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K19" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1338,25 +1422,25 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>12155732</v>
+        <v>12156771</v>
       </c>
       <c r="F20">
-        <v>8591079</v>
+        <v>8592489</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1373,25 +1457,25 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>12156130</v>
+        <v>12156826</v>
       </c>
       <c r="F21">
-        <v>8591725</v>
+        <v>8592529</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1408,25 +1492,25 @@
         <v>32</v>
       </c>
       <c r="E22">
-        <v>12157899</v>
+        <v>12157160</v>
       </c>
       <c r="F22">
-        <v>8593801</v>
+        <v>8592956</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1443,25 +1527,25 @@
         <v>33</v>
       </c>
       <c r="E23">
-        <v>12159646</v>
+        <v>12158020</v>
       </c>
       <c r="F23">
-        <v>7797800</v>
+        <v>8593967</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1478,25 +1562,25 @@
         <v>34</v>
       </c>
       <c r="E24">
-        <v>12161100</v>
+        <v>12158435</v>
       </c>
       <c r="F24">
-        <v>8597675</v>
+        <v>8594522</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K24" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1513,25 +1597,25 @@
         <v>35</v>
       </c>
       <c r="E25">
-        <v>12161386</v>
+        <v>12158576</v>
       </c>
       <c r="F25">
-        <v>8598016</v>
+        <v>8594695</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K25" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1548,25 +1632,25 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>12163407</v>
+        <v>12159014</v>
       </c>
       <c r="F26">
-        <v>8600473</v>
+        <v>8595238</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="I26" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J26" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K26" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1583,25 +1667,25 @@
         <v>37</v>
       </c>
       <c r="E27">
-        <v>12163869</v>
+        <v>12160376</v>
       </c>
       <c r="F27">
-        <v>8601052</v>
+        <v>8596884</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J27" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1618,25 +1702,25 @@
         <v>38</v>
       </c>
       <c r="E28">
-        <v>12165805</v>
+        <v>12161017</v>
       </c>
       <c r="F28">
-        <v>8603359</v>
+        <v>8597595</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J28" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="K28" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1653,25 +1737,25 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>12166069</v>
+        <v>12161650</v>
       </c>
       <c r="F29">
-        <v>8603674</v>
+        <v>8598342</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="I29" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J29" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K29" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1688,25 +1772,25 @@
         <v>40</v>
       </c>
       <c r="E30">
-        <v>12167081</v>
+        <v>12162010</v>
       </c>
       <c r="F30">
-        <v>8604741</v>
+        <v>8598761</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J30" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K30" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1723,25 +1807,25 @@
         <v>41</v>
       </c>
       <c r="E31">
-        <v>12167165</v>
+        <v>12162415</v>
       </c>
       <c r="F31">
-        <v>8604741</v>
+        <v>8599264</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J31" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1758,25 +1842,25 @@
         <v>42</v>
       </c>
       <c r="E32">
-        <v>12167700</v>
+        <v>12162439</v>
       </c>
       <c r="F32">
-        <v>8605615</v>
+        <v>8599230</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="I32" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J32" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1793,25 +1877,25 @@
         <v>43</v>
       </c>
       <c r="E33">
-        <v>12168346</v>
+        <v>12163370</v>
       </c>
       <c r="F33">
-        <v>8606403</v>
+        <v>8600412</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="I33" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J33" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K33" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1828,25 +1912,25 @@
         <v>44</v>
       </c>
       <c r="E34">
-        <v>12169638</v>
+        <v>12163535</v>
       </c>
       <c r="F34">
-        <v>8608000</v>
+        <v>8600621</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="I34" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J34" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K34" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1863,25 +1947,515 @@
         <v>45</v>
       </c>
       <c r="E35">
-        <v>12169885</v>
+        <v>12164502</v>
       </c>
       <c r="F35">
-        <v>8608362</v>
+        <v>8601769</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="I35" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J35" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36">
+        <v>12164852</v>
+      </c>
+      <c r="F36">
+        <v>8602234</v>
+      </c>
+      <c r="G36" t="s">
         <v>93</v>
       </c>
-      <c r="K35" t="s">
+      <c r="H36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37">
+        <v>12165245</v>
+      </c>
+      <c r="F37">
+        <v>8602670</v>
+      </c>
+      <c r="G37" t="s">
         <v>94</v>
+      </c>
+      <c r="H37" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38">
+        <v>12166383</v>
+      </c>
+      <c r="F38">
+        <v>8604036</v>
+      </c>
+      <c r="G38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" t="s">
+        <v>119</v>
+      </c>
+      <c r="J38" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39">
+        <v>12166396</v>
+      </c>
+      <c r="F39">
+        <v>8604069</v>
+      </c>
+      <c r="G39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>12167333</v>
+      </c>
+      <c r="F40">
+        <v>8605179</v>
+      </c>
+      <c r="G40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" t="s">
+        <v>120</v>
+      </c>
+      <c r="K40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41">
+        <v>12167445</v>
+      </c>
+      <c r="F41">
+        <v>8605345</v>
+      </c>
+      <c r="G41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" t="s">
+        <v>119</v>
+      </c>
+      <c r="J41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42">
+        <v>12168095</v>
+      </c>
+      <c r="F42">
+        <v>8606114</v>
+      </c>
+      <c r="G42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" t="s">
+        <v>120</v>
+      </c>
+      <c r="K42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43">
+        <v>12168687</v>
+      </c>
+      <c r="F43">
+        <v>8606848</v>
+      </c>
+      <c r="G43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" t="s">
+        <v>119</v>
+      </c>
+      <c r="J43" t="s">
+        <v>120</v>
+      </c>
+      <c r="K43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44">
+        <v>12169086</v>
+      </c>
+      <c r="F44">
+        <v>8607367</v>
+      </c>
+      <c r="G44" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" t="s">
+        <v>119</v>
+      </c>
+      <c r="J44" t="s">
+        <v>120</v>
+      </c>
+      <c r="K44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45">
+        <v>12169516</v>
+      </c>
+      <c r="F45">
+        <v>8607900</v>
+      </c>
+      <c r="G45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" t="s">
+        <v>119</v>
+      </c>
+      <c r="J45" t="s">
+        <v>120</v>
+      </c>
+      <c r="K45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46">
+        <v>12169806</v>
+      </c>
+      <c r="F46">
+        <v>8608265</v>
+      </c>
+      <c r="G46" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" t="s">
+        <v>119</v>
+      </c>
+      <c r="J46" t="s">
+        <v>120</v>
+      </c>
+      <c r="K46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47">
+        <v>12169830</v>
+      </c>
+      <c r="F47">
+        <v>8608288</v>
+      </c>
+      <c r="G47" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" t="s">
+        <v>119</v>
+      </c>
+      <c r="J47" t="s">
+        <v>120</v>
+      </c>
+      <c r="K47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48">
+        <v>12169862</v>
+      </c>
+      <c r="F48">
+        <v>8608371</v>
+      </c>
+      <c r="G48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" t="s">
+        <v>119</v>
+      </c>
+      <c r="J48" t="s">
+        <v>120</v>
+      </c>
+      <c r="K48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49">
+        <v>12170051</v>
+      </c>
+      <c r="F49">
+        <v>8608573</v>
+      </c>
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" t="s">
+        <v>119</v>
+      </c>
+      <c r="J49" t="s">
+        <v>120</v>
+      </c>
+      <c r="K49" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="87">
   <si>
     <t>Hoje</t>
   </si>
@@ -49,295 +49,187 @@
     <t>14-04-2023</t>
   </si>
   <si>
-    <t>422380 - YOU ASSISTÊNCIA MÉDICA LTDA</t>
-  </si>
-  <si>
-    <t>29/03/2023  15:40:36</t>
-  </si>
-  <si>
-    <t>29/03/2023  17:18:47</t>
-  </si>
-  <si>
-    <t>30/03/2023  10:44:52</t>
-  </si>
-  <si>
-    <t>30/03/2023  14:42:51</t>
-  </si>
-  <si>
-    <t>30/03/2023  22:05:13</t>
-  </si>
-  <si>
-    <t>31/03/2023  09:33:21</t>
-  </si>
-  <si>
-    <t>31/03/2023  09:49:39</t>
-  </si>
-  <si>
-    <t>31/03/2023  11:43:24</t>
-  </si>
-  <si>
-    <t>01/04/2023  16:35:36</t>
-  </si>
-  <si>
-    <t>01/04/2023  16:55:34</t>
-  </si>
-  <si>
-    <t>03/04/2023  09:41:48</t>
-  </si>
-  <si>
-    <t>03/04/2023  14:02:31</t>
-  </si>
-  <si>
-    <t>03/04/2023  18:58:23</t>
-  </si>
-  <si>
-    <t>04/04/2023  09:27:21</t>
-  </si>
-  <si>
-    <t>04/04/2023  11:32:18</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:57:51</t>
-  </si>
-  <si>
-    <t>04/04/2023  16:52:11</t>
-  </si>
-  <si>
-    <t>04/04/2023  17:48:58</t>
-  </si>
-  <si>
-    <t>05/04/2023  09:17:32</t>
-  </si>
-  <si>
-    <t>05/04/2023  09:38:27</t>
-  </si>
-  <si>
-    <t>05/04/2023  11:14:32</t>
-  </si>
-  <si>
-    <t>05/04/2023  14:58:01</t>
-  </si>
-  <si>
-    <t>05/04/2023  17:16:13</t>
-  </si>
-  <si>
-    <t>05/04/2023  18:37:46</t>
-  </si>
-  <si>
-    <t>06/04/2023  09:43:31</t>
-  </si>
-  <si>
-    <t>06/04/2023  17:07:51</t>
-  </si>
-  <si>
-    <t>10/04/2023  08:44:11</t>
-  </si>
-  <si>
-    <t>10/04/2023  11:56:29</t>
-  </si>
-  <si>
-    <t>10/04/2023  13:25:58</t>
-  </si>
-  <si>
-    <t>10/04/2023  14:54:09</t>
-  </si>
-  <si>
-    <t>10/04/2023  15:00:01</t>
-  </si>
-  <si>
-    <t>11/04/2023  08:23:00</t>
-  </si>
-  <si>
-    <t>11/04/2023  09:34:28</t>
-  </si>
-  <si>
-    <t>11/04/2023  13:50:53</t>
-  </si>
-  <si>
-    <t>11/04/2023  15:08:53</t>
-  </si>
-  <si>
-    <t>11/04/2023  16:57:02</t>
-  </si>
-  <si>
-    <t>12/04/2023  11:59:41</t>
-  </si>
-  <si>
-    <t>12/04/2023  12:03:08</t>
-  </si>
-  <si>
-    <t>12/04/2023  15:43:18</t>
-  </si>
-  <si>
-    <t>12/04/2023  16:14:52</t>
-  </si>
-  <si>
-    <t>13/04/2023  08:23:06</t>
-  </si>
-  <si>
-    <t>13/04/2023  11:42:27</t>
-  </si>
-  <si>
-    <t>13/04/2023  13:26:27</t>
-  </si>
-  <si>
-    <t>13/04/2023  15:12:39</t>
-  </si>
-  <si>
-    <t>13/04/2023  16:38:38</t>
-  </si>
-  <si>
-    <t>13/04/2023  16:46:57</t>
-  </si>
-  <si>
-    <t>13/04/2023  16:58:57</t>
-  </si>
-  <si>
-    <t>13/04/2023  18:17:42</t>
-  </si>
-  <si>
-    <t>MARILIA LUIZA OLIVEIRA DE MELO</t>
-  </si>
-  <si>
-    <t>LORRAYNE BALDI ANDRADE</t>
-  </si>
-  <si>
-    <t>MARIA CLAUDIA MENDES DA COSTA</t>
-  </si>
-  <si>
-    <t>ANDRESSA CASSANDRO STOFEL DE LIMA</t>
-  </si>
-  <si>
-    <t>FABIO DE VASCONCELOS MELO</t>
-  </si>
-  <si>
-    <t>ELIANE SANTOS XAVIER DAS NEVES</t>
-  </si>
-  <si>
-    <t>SUELI DOS SANTOS DA SILVA</t>
-  </si>
-  <si>
-    <t>MARCELINA CAMPELO DE SOUSA</t>
-  </si>
-  <si>
-    <t>SILMA MEDEIROS DO PATROCÃ­NIO</t>
-  </si>
-  <si>
-    <t>WERISLAYNI OLIVEIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>RENATA ADRIANA DOS SANTOS NASCIMENTO</t>
-  </si>
-  <si>
-    <t>AUDILENE FERREIRA LOPES NASCIMENTO</t>
-  </si>
-  <si>
-    <t>ANDREZZA PEVAS DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>MARIA CRISTINA TAVARES DA SILVA</t>
-  </si>
-  <si>
-    <t>ANA DRIELI DA SILVA LAGES</t>
-  </si>
-  <si>
-    <t>PYETRO SOUZA DE JESUS</t>
-  </si>
-  <si>
-    <t>MAURICEA DA SILVA CORREIA TAVARES</t>
-  </si>
-  <si>
-    <t>MARIA APARECIDA DA SILVA RIBEIRO</t>
-  </si>
-  <si>
-    <t>ALEXANDRE DE MELO WAGNER JUNIOR</t>
-  </si>
-  <si>
-    <t>SUELLEN PINHEIRO VIANA</t>
-  </si>
-  <si>
-    <t>EDNA LOPES DA SILVA</t>
-  </si>
-  <si>
-    <t>RHILLARY CAMILLE SOARES DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>SARAH DE OLIVEIRA PEREZ</t>
-  </si>
-  <si>
-    <t>CARLOS RODRIGO CHAGAS GITIRANA</t>
-  </si>
-  <si>
-    <t>CRISTIANO DE OLIVEIRA CARNEIRO</t>
-  </si>
-  <si>
-    <t>BRAYAN MIGUEL JAFFRA PEREIRA</t>
-  </si>
-  <si>
-    <t>JANAINA MARIA DA SILVA</t>
-  </si>
-  <si>
-    <t>CLEO DALSIOR VOM DOELINGER</t>
-  </si>
-  <si>
-    <t>WELLINGTON FERREIRA DE JESUS</t>
-  </si>
-  <si>
-    <t>BENICIO MARTINS FERNANDES</t>
-  </si>
-  <si>
-    <t>PAOLA MONIQUE DA SILVA TEIXEIRA</t>
-  </si>
-  <si>
-    <t>IDEILDO LUCENA MOURA DA SILVA JUNIOR</t>
-  </si>
-  <si>
-    <t>MARIA DA CONCEICAO DA SILVA</t>
-  </si>
-  <si>
-    <t>VALDIR FERNANDES DE ARAUJO</t>
-  </si>
-  <si>
-    <t>CALINE ESTEFANI DE SOUZA OLIVEIRA</t>
-  </si>
-  <si>
-    <t>MARLENE NUNES HONDA TAVARES</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO DALPRA</t>
-  </si>
-  <si>
-    <t>RAVI SCHULZ XAVIER DA CRUZ</t>
-  </si>
-  <si>
-    <t>KAYKY BRUNNO SOUZA LOPES</t>
-  </si>
-  <si>
-    <t>MÔNICA ALVES GOMES</t>
-  </si>
-  <si>
-    <t>MARCIO CANDIDO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>BARBARA KELLY CARNEIRO LEÃO RODRIGUES</t>
-  </si>
-  <si>
-    <t>ANALIS SOARES SILVA</t>
-  </si>
-  <si>
-    <t>MAICKSON CAIQUE VENANCIO</t>
-  </si>
-  <si>
-    <t>EMILLE FERNANDES CORREA</t>
-  </si>
-  <si>
-    <t>MILENA FREIRE TRAVASSOS COUSSEIRO</t>
-  </si>
-  <si>
-    <t>ROGERIA DORALICE SOARES DA SILVA</t>
-  </si>
-  <si>
-    <t>0 dias úteis</t>
+    <t>417823 - PREMIUM SAÚDE S.A</t>
+  </si>
+  <si>
+    <t>30/03/2023  10:18:35</t>
+  </si>
+  <si>
+    <t>30/03/2023  18:10:52</t>
+  </si>
+  <si>
+    <t>31/03/2023  15:44:32</t>
+  </si>
+  <si>
+    <t>31/03/2023  16:30:14</t>
+  </si>
+  <si>
+    <t>03/04/2023  13:44:27</t>
+  </si>
+  <si>
+    <t>03/04/2023  14:47:05</t>
+  </si>
+  <si>
+    <t>03/04/2023  15:25:17</t>
+  </si>
+  <si>
+    <t>03/04/2023  19:51:17</t>
+  </si>
+  <si>
+    <t>04/04/2023  09:49:35</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:25:14</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:37:21</t>
+  </si>
+  <si>
+    <t>04/04/2023  14:44:53</t>
+  </si>
+  <si>
+    <t>04/04/2023  16:42:14</t>
+  </si>
+  <si>
+    <t>05/04/2023  14:26:09</t>
+  </si>
+  <si>
+    <t>06/04/2023  13:03:51</t>
+  </si>
+  <si>
+    <t>10/04/2023  09:19:30</t>
+  </si>
+  <si>
+    <t>10/04/2023  10:47:50</t>
+  </si>
+  <si>
+    <t>11/04/2023  08:39:19</t>
+  </si>
+  <si>
+    <t>11/04/2023  11:09:14</t>
+  </si>
+  <si>
+    <t>12/04/2023  08:58:03</t>
+  </si>
+  <si>
+    <t>12/04/2023  10:38:24</t>
+  </si>
+  <si>
+    <t>12/04/2023  14:44:59</t>
+  </si>
+  <si>
+    <t>12/04/2023  15:02:14</t>
+  </si>
+  <si>
+    <t>12/04/2023  17:36:17</t>
+  </si>
+  <si>
+    <t>13/04/2023  10:06:53</t>
+  </si>
+  <si>
+    <t>13/04/2023  15:44:44</t>
+  </si>
+  <si>
+    <t>13/04/2023  17:09:35</t>
+  </si>
+  <si>
+    <t>14/04/2023  10:46:04</t>
+  </si>
+  <si>
+    <t>14/04/2023  11:24:10</t>
+  </si>
+  <si>
+    <t>14/04/2023  15:09:48</t>
+  </si>
+  <si>
+    <t>MARIA LENICE DA SILVA BOA VENTURA</t>
+  </si>
+  <si>
+    <t>PRISCILA TIZONI GOMES RIBEIRO SILVA</t>
+  </si>
+  <si>
+    <t>ALEXSANDRA RAMOS MARGARIDA</t>
+  </si>
+  <si>
+    <t>CREUZA CASTELLARI MARCONSINI REIS</t>
+  </si>
+  <si>
+    <t>BÁRBARA DE OLIVEIRA PATRÍCIO</t>
+  </si>
+  <si>
+    <t>KEPA FREDRICK STOCKNER</t>
+  </si>
+  <si>
+    <t>DAVIDSON LUIZ PEREIRA LOPES</t>
+  </si>
+  <si>
+    <t>KENIA CLAUDIA FARIA CAMPOS</t>
+  </si>
+  <si>
+    <t>CRISTIANE BATISTA ROCHA</t>
+  </si>
+  <si>
+    <t>ROBSON FRANCISCO LANZA JUNIOR</t>
+  </si>
+  <si>
+    <t>ANDREIA MARIA OTTONI MORAES</t>
+  </si>
+  <si>
+    <t>ANTONIA EVA MAGALHAES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ISIS NOGUEIRA CHAVES</t>
+  </si>
+  <si>
+    <t>ANTONIO CARLOS SANTOS</t>
+  </si>
+  <si>
+    <t>DANIELA FARIAS VASCONCELOS</t>
+  </si>
+  <si>
+    <t>CAIO HENRIQUE RODRIGUES FERNANDES</t>
+  </si>
+  <si>
+    <t>DIEGO SANTOS DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>AYLA ALVES COELHO</t>
+  </si>
+  <si>
+    <t>PRISCILA APARECIDA SANTOS FRANCISCO</t>
+  </si>
+  <si>
+    <t>LUDIANE CONCEICAO DOS SANTOS OLIVEIRA MATOS</t>
+  </si>
+  <si>
+    <t>ELENICE DE SIQUEIRA</t>
+  </si>
+  <si>
+    <t>JENIFE BIANCA AMORIM PEREIRA</t>
+  </si>
+  <si>
+    <t>JUCIMAR AMORIM PEREIRA</t>
+  </si>
+  <si>
+    <t>VIRGILIO ISMAR SANTOS GARCIA</t>
+  </si>
+  <si>
+    <t>MELINDA GOULART CRUZ</t>
+  </si>
+  <si>
+    <t>JORGE EUSTACIO MEDEIROS</t>
+  </si>
+  <si>
+    <t>NATALIA SOLANO ROSSELIS PEREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>RAFAELLE FONSECA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>VANESSA WINTER NUNES FORTES</t>
+  </si>
+  <si>
+    <t>OLIVER MIRANDA PORTO</t>
   </si>
   <si>
     <t>1 dias úteis</t>
@@ -740,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -792,25 +684,25 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>12147299</v>
+        <v>12148200</v>
       </c>
       <c r="F2">
-        <v>8580883</v>
+        <v>8581975</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -827,25 +719,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>12147571</v>
+        <v>12149727</v>
       </c>
       <c r="F3">
-        <v>8581252</v>
+        <v>8583861</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -862,25 +754,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>12148282</v>
+        <v>12151325</v>
       </c>
       <c r="F4">
-        <v>8582107</v>
+        <v>8585862</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -897,25 +789,25 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>12149112</v>
+        <v>12151461</v>
       </c>
       <c r="F5">
-        <v>8583135</v>
+        <v>8586030</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -932,25 +824,25 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>12149924</v>
+        <v>12153205</v>
       </c>
       <c r="F6">
-        <v>8584156</v>
+        <v>8588077</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -967,25 +859,25 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>12150089</v>
+        <v>12153463</v>
       </c>
       <c r="F7">
-        <v>8584343</v>
+        <v>8588431</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1002,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>12150135</v>
+        <v>12153630</v>
       </c>
       <c r="F8">
-        <v>8584374</v>
+        <v>8588645</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1037,25 +929,25 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>12150483</v>
+        <v>12154294</v>
       </c>
       <c r="F9">
-        <v>8584813</v>
+        <v>8589407</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1072,25 +964,25 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>12152006</v>
+        <v>12154631</v>
       </c>
       <c r="F10">
-        <v>8586692</v>
+        <v>8589813</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1107,25 +999,25 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>12152010</v>
+        <v>12155655</v>
       </c>
       <c r="F11">
-        <v>8586697</v>
+        <v>8591050</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1142,25 +1034,25 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>12152365</v>
+        <v>12155706</v>
       </c>
       <c r="F12">
-        <v>8587082</v>
+        <v>8591067</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1177,25 +1069,25 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>12153268</v>
+        <v>12155732</v>
       </c>
       <c r="F13">
-        <v>8588178</v>
+        <v>8591079</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1212,25 +1104,25 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>12154201</v>
+        <v>12156130</v>
       </c>
       <c r="F14">
-        <v>8589287</v>
+        <v>8591725</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1247,25 +1139,25 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>12154563</v>
+        <v>12157899</v>
       </c>
       <c r="F15">
-        <v>8589717</v>
+        <v>8593801</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1282,25 +1174,25 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>12154995</v>
+        <v>12159646</v>
       </c>
       <c r="F16">
-        <v>8590264</v>
+        <v>7797800</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1317,25 +1209,25 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>12155773</v>
+        <v>12161100</v>
       </c>
       <c r="F17">
-        <v>8591144</v>
+        <v>8597675</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1352,25 +1244,25 @@
         <v>28</v>
       </c>
       <c r="E18">
-        <v>12156156</v>
+        <v>12161386</v>
       </c>
       <c r="F18">
-        <v>8591752</v>
+        <v>8598016</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1387,25 +1279,25 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>12156297</v>
+        <v>12163407</v>
       </c>
       <c r="F19">
-        <v>8591919</v>
+        <v>8600473</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1422,25 +1314,25 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>12156771</v>
+        <v>12163869</v>
       </c>
       <c r="F20">
-        <v>8592489</v>
+        <v>8601052</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1457,25 +1349,25 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>12156826</v>
+        <v>12165805</v>
       </c>
       <c r="F21">
-        <v>8592529</v>
+        <v>8603359</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1492,25 +1384,25 @@
         <v>32</v>
       </c>
       <c r="E22">
-        <v>12157160</v>
+        <v>12166069</v>
       </c>
       <c r="F22">
-        <v>8592956</v>
+        <v>8603674</v>
       </c>
       <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
         <v>80</v>
       </c>
-      <c r="H22" t="s">
-        <v>112</v>
-      </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1527,25 +1419,25 @@
         <v>33</v>
       </c>
       <c r="E23">
-        <v>12158020</v>
+        <v>12167081</v>
       </c>
       <c r="F23">
-        <v>8593967</v>
+        <v>8604741</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1562,25 +1454,25 @@
         <v>34</v>
       </c>
       <c r="E24">
-        <v>12158435</v>
+        <v>12167165</v>
       </c>
       <c r="F24">
-        <v>8594522</v>
+        <v>8604741</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1597,25 +1489,25 @@
         <v>35</v>
       </c>
       <c r="E25">
-        <v>12158576</v>
+        <v>12167700</v>
       </c>
       <c r="F25">
-        <v>8594695</v>
+        <v>8605615</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1632,25 +1524,25 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>12159014</v>
+        <v>12168346</v>
       </c>
       <c r="F26">
-        <v>8595238</v>
+        <v>8606403</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1667,25 +1559,25 @@
         <v>37</v>
       </c>
       <c r="E27">
-        <v>12160376</v>
+        <v>12169638</v>
       </c>
       <c r="F27">
-        <v>8596884</v>
+        <v>8608000</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1702,25 +1594,25 @@
         <v>38</v>
       </c>
       <c r="E28">
-        <v>12161017</v>
+        <v>12169885</v>
       </c>
       <c r="F28">
-        <v>8597595</v>
+        <v>8608362</v>
       </c>
       <c r="G28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" t="s">
         <v>85</v>
       </c>
-      <c r="H28" t="s">
-        <v>114</v>
-      </c>
-      <c r="I28" t="s">
-        <v>119</v>
-      </c>
-      <c r="J28" t="s">
-        <v>121</v>
-      </c>
       <c r="K28" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1737,25 +1629,25 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>12161650</v>
+        <v>12170717</v>
       </c>
       <c r="F29">
-        <v>8598342</v>
+        <v>8609371</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1772,25 +1664,25 @@
         <v>40</v>
       </c>
       <c r="E30">
-        <v>12162010</v>
+        <v>12170838</v>
       </c>
       <c r="F30">
-        <v>8598761</v>
+        <v>8609527</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1807,655 +1699,25 @@
         <v>41</v>
       </c>
       <c r="E31">
-        <v>12162415</v>
+        <v>12171665</v>
       </c>
       <c r="F31">
-        <v>8599264</v>
+        <v>8610551</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32">
-        <v>12162439</v>
-      </c>
-      <c r="F32">
-        <v>8599230</v>
-      </c>
-      <c r="G32" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" t="s">
-        <v>114</v>
-      </c>
-      <c r="I32" t="s">
-        <v>119</v>
-      </c>
-      <c r="J32" t="s">
-        <v>120</v>
-      </c>
-      <c r="K32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33">
-        <v>12163370</v>
-      </c>
-      <c r="F33">
-        <v>8600412</v>
-      </c>
-      <c r="G33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" t="s">
-        <v>115</v>
-      </c>
-      <c r="I33" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" t="s">
-        <v>120</v>
-      </c>
-      <c r="K33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34">
-        <v>12163535</v>
-      </c>
-      <c r="F34">
-        <v>8600621</v>
-      </c>
-      <c r="G34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" t="s">
-        <v>119</v>
-      </c>
-      <c r="J34" t="s">
-        <v>120</v>
-      </c>
-      <c r="K34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35">
-        <v>12164502</v>
-      </c>
-      <c r="F35">
-        <v>8601769</v>
-      </c>
-      <c r="G35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" t="s">
-        <v>115</v>
-      </c>
-      <c r="I35" t="s">
-        <v>119</v>
-      </c>
-      <c r="J35" t="s">
-        <v>120</v>
-      </c>
-      <c r="K35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36">
-        <v>12164852</v>
-      </c>
-      <c r="F36">
-        <v>8602234</v>
-      </c>
-      <c r="G36" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" t="s">
-        <v>115</v>
-      </c>
-      <c r="I36" t="s">
-        <v>119</v>
-      </c>
-      <c r="J36" t="s">
-        <v>120</v>
-      </c>
-      <c r="K36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37">
-        <v>12165245</v>
-      </c>
-      <c r="F37">
-        <v>8602670</v>
-      </c>
-      <c r="G37" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" t="s">
-        <v>119</v>
-      </c>
-      <c r="J37" t="s">
-        <v>120</v>
-      </c>
-      <c r="K37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38">
-        <v>12166383</v>
-      </c>
-      <c r="F38">
-        <v>8604036</v>
-      </c>
-      <c r="G38" t="s">
-        <v>95</v>
-      </c>
-      <c r="H38" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" t="s">
-        <v>119</v>
-      </c>
-      <c r="J38" t="s">
-        <v>120</v>
-      </c>
-      <c r="K38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39">
-        <v>12166396</v>
-      </c>
-      <c r="F39">
-        <v>8604069</v>
-      </c>
-      <c r="G39" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" t="s">
-        <v>119</v>
-      </c>
-      <c r="J39" t="s">
-        <v>120</v>
-      </c>
-      <c r="K39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40">
-        <v>12167333</v>
-      </c>
-      <c r="F40">
-        <v>8605179</v>
-      </c>
-      <c r="G40" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" t="s">
-        <v>119</v>
-      </c>
-      <c r="J40" t="s">
-        <v>120</v>
-      </c>
-      <c r="K40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41">
-        <v>12167445</v>
-      </c>
-      <c r="F41">
-        <v>8605345</v>
-      </c>
-      <c r="G41" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" t="s">
-        <v>119</v>
-      </c>
-      <c r="J41" t="s">
-        <v>120</v>
-      </c>
-      <c r="K41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42">
-        <v>12168095</v>
-      </c>
-      <c r="F42">
-        <v>8606114</v>
-      </c>
-      <c r="G42" t="s">
-        <v>99</v>
-      </c>
-      <c r="H42" t="s">
-        <v>117</v>
-      </c>
-      <c r="I42" t="s">
-        <v>119</v>
-      </c>
-      <c r="J42" t="s">
-        <v>120</v>
-      </c>
-      <c r="K42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43">
-        <v>12168687</v>
-      </c>
-      <c r="F43">
-        <v>8606848</v>
-      </c>
-      <c r="G43" t="s">
-        <v>100</v>
-      </c>
-      <c r="H43" t="s">
-        <v>117</v>
-      </c>
-      <c r="I43" t="s">
-        <v>119</v>
-      </c>
-      <c r="J43" t="s">
-        <v>120</v>
-      </c>
-      <c r="K43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44">
-        <v>12169086</v>
-      </c>
-      <c r="F44">
-        <v>8607367</v>
-      </c>
-      <c r="G44" t="s">
-        <v>101</v>
-      </c>
-      <c r="H44" t="s">
-        <v>117</v>
-      </c>
-      <c r="I44" t="s">
-        <v>119</v>
-      </c>
-      <c r="J44" t="s">
-        <v>120</v>
-      </c>
-      <c r="K44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45">
-        <v>12169516</v>
-      </c>
-      <c r="F45">
-        <v>8607900</v>
-      </c>
-      <c r="G45" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" t="s">
-        <v>117</v>
-      </c>
-      <c r="I45" t="s">
-        <v>119</v>
-      </c>
-      <c r="J45" t="s">
-        <v>120</v>
-      </c>
-      <c r="K45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46">
-        <v>12169806</v>
-      </c>
-      <c r="F46">
-        <v>8608265</v>
-      </c>
-      <c r="G46" t="s">
-        <v>103</v>
-      </c>
-      <c r="H46" t="s">
-        <v>117</v>
-      </c>
-      <c r="I46" t="s">
-        <v>119</v>
-      </c>
-      <c r="J46" t="s">
-        <v>120</v>
-      </c>
-      <c r="K46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47">
-        <v>12169830</v>
-      </c>
-      <c r="F47">
-        <v>8608288</v>
-      </c>
-      <c r="G47" t="s">
-        <v>104</v>
-      </c>
-      <c r="H47" t="s">
-        <v>117</v>
-      </c>
-      <c r="I47" t="s">
-        <v>119</v>
-      </c>
-      <c r="J47" t="s">
-        <v>120</v>
-      </c>
-      <c r="K47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48">
-        <v>12169862</v>
-      </c>
-      <c r="F48">
-        <v>8608371</v>
-      </c>
-      <c r="G48" t="s">
-        <v>105</v>
-      </c>
-      <c r="H48" t="s">
-        <v>117</v>
-      </c>
-      <c r="I48" t="s">
-        <v>119</v>
-      </c>
-      <c r="J48" t="s">
-        <v>120</v>
-      </c>
-      <c r="K48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49">
-        <v>12170051</v>
-      </c>
-      <c r="F49">
-        <v>8608573</v>
-      </c>
-      <c r="G49" t="s">
-        <v>106</v>
-      </c>
-      <c r="H49" t="s">
-        <v>117</v>
-      </c>
-      <c r="I49" t="s">
-        <v>119</v>
-      </c>
-      <c r="J49" t="s">
-        <v>120</v>
-      </c>
-      <c r="K49" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="149">
+  <si>
+    <t>Operadora</t>
+  </si>
   <si>
     <t>Hoje</t>
   </si>
   <si>
-    <t>Operadora</t>
-  </si>
-  <si>
-    <t>Data da Notificação</t>
+    <t>Notificação</t>
   </si>
   <si>
     <t>Demanda</t>
@@ -34,6 +34,12 @@
     <t>Beneficiário</t>
   </si>
   <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
     <t>Prazo</t>
   </si>
   <si>
@@ -43,109 +49,118 @@
     <t>Natureza</t>
   </si>
   <si>
-    <t>Opções</t>
-  </si>
-  <si>
-    <t>14-04-2023</t>
-  </si>
-  <si>
     <t>417823 - PREMIUM SAÚDE S.A</t>
   </si>
   <si>
-    <t>30/03/2023  10:18:35</t>
-  </si>
-  <si>
-    <t>30/03/2023  18:10:52</t>
-  </si>
-  <si>
-    <t>31/03/2023  15:44:32</t>
-  </si>
-  <si>
-    <t>31/03/2023  16:30:14</t>
-  </si>
-  <si>
-    <t>03/04/2023  13:44:27</t>
-  </si>
-  <si>
-    <t>03/04/2023  14:47:05</t>
-  </si>
-  <si>
-    <t>03/04/2023  15:25:17</t>
-  </si>
-  <si>
-    <t>03/04/2023  19:51:17</t>
-  </si>
-  <si>
-    <t>04/04/2023  09:49:35</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:25:14</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:37:21</t>
-  </si>
-  <si>
-    <t>04/04/2023  14:44:53</t>
-  </si>
-  <si>
-    <t>04/04/2023  16:42:14</t>
-  </si>
-  <si>
-    <t>05/04/2023  14:26:09</t>
-  </si>
-  <si>
-    <t>06/04/2023  13:03:51</t>
-  </si>
-  <si>
-    <t>10/04/2023  09:19:30</t>
-  </si>
-  <si>
-    <t>10/04/2023  10:47:50</t>
-  </si>
-  <si>
-    <t>11/04/2023  08:39:19</t>
-  </si>
-  <si>
-    <t>11/04/2023  11:09:14</t>
-  </si>
-  <si>
-    <t>12/04/2023  08:58:03</t>
-  </si>
-  <si>
-    <t>12/04/2023  10:38:24</t>
-  </si>
-  <si>
-    <t>12/04/2023  14:44:59</t>
-  </si>
-  <si>
-    <t>12/04/2023  15:02:14</t>
-  </si>
-  <si>
-    <t>12/04/2023  17:36:17</t>
-  </si>
-  <si>
-    <t>13/04/2023  10:06:53</t>
-  </si>
-  <si>
-    <t>13/04/2023  15:44:44</t>
-  </si>
-  <si>
-    <t>13/04/2023  17:09:35</t>
-  </si>
-  <si>
-    <t>14/04/2023  10:46:04</t>
-  </si>
-  <si>
-    <t>14/04/2023  11:24:10</t>
-  </si>
-  <si>
-    <t>14/04/2023  15:09:48</t>
-  </si>
-  <si>
-    <t>MARIA LENICE DA SILVA BOA VENTURA</t>
-  </si>
-  <si>
-    <t>PRISCILA TIZONI GOMES RIBEIRO SILVA</t>
+    <t>17-04-2023</t>
+  </si>
+  <si>
+    <t>Extraï¿½do em 17/04/2023 19:49</t>
+  </si>
+  <si>
+    <t>Sistema Integrado de Fiscalizaï¿½ï¿½o - NIP</t>
+  </si>
+  <si>
+    <t>417823 - PREMIUM SAÚDE S.A.</t>
+  </si>
+  <si>
+    <t>Data de Notificaï¿½ï¿½o</t>
+  </si>
+  <si>
+    <t>8585862</t>
+  </si>
+  <si>
+    <t>8586030</t>
+  </si>
+  <si>
+    <t>8588077</t>
+  </si>
+  <si>
+    <t>8588431</t>
+  </si>
+  <si>
+    <t>8588645</t>
+  </si>
+  <si>
+    <t>8589407</t>
+  </si>
+  <si>
+    <t>8589813</t>
+  </si>
+  <si>
+    <t>8591050</t>
+  </si>
+  <si>
+    <t>8591067</t>
+  </si>
+  <si>
+    <t>8591079</t>
+  </si>
+  <si>
+    <t>8591725</t>
+  </si>
+  <si>
+    <t>8593801</t>
+  </si>
+  <si>
+    <t>7797800</t>
+  </si>
+  <si>
+    <t>8597675</t>
+  </si>
+  <si>
+    <t>8598016</t>
+  </si>
+  <si>
+    <t>8600473</t>
+  </si>
+  <si>
+    <t>8601052</t>
+  </si>
+  <si>
+    <t>8603359</t>
+  </si>
+  <si>
+    <t>8603674</t>
+  </si>
+  <si>
+    <t>8604741</t>
+  </si>
+  <si>
+    <t>8605615</t>
+  </si>
+  <si>
+    <t>8606403</t>
+  </si>
+  <si>
+    <t>8608000</t>
+  </si>
+  <si>
+    <t>8608362</t>
+  </si>
+  <si>
+    <t>8609371</t>
+  </si>
+  <si>
+    <t>8609527</t>
+  </si>
+  <si>
+    <t>8610551</t>
+  </si>
+  <si>
+    <t>8613108</t>
+  </si>
+  <si>
+    <t>8613965</t>
+  </si>
+  <si>
+    <t>8614239</t>
+  </si>
+  <si>
+    <t>8614426</t>
+  </si>
+  <si>
+    <t>Beneficiï¿½rio</t>
   </si>
   <si>
     <t>ALEXSANDRA RAMOS MARGARIDA</t>
@@ -232,34 +247,216 @@
     <t>OLIVER MIRANDA PORTO</t>
   </si>
   <si>
-    <t>1 dias úteis</t>
-  </si>
-  <si>
-    <t>2 dias úteis</t>
-  </si>
-  <si>
-    <t>3 dias úteis</t>
-  </si>
-  <si>
-    <t>4 dias úteis</t>
-  </si>
-  <si>
-    <t>5 dias úteis</t>
-  </si>
-  <si>
-    <t>6 dias úteis</t>
-  </si>
-  <si>
-    <t>7 dias úteis</t>
-  </si>
-  <si>
-    <t>8 dias úteis</t>
-  </si>
-  <si>
-    <t>9 dias úteis</t>
-  </si>
-  <si>
-    <t>10 dias úteis</t>
+    <t>FÁTIMA BASÍLIO DE MENEZES</t>
+  </si>
+  <si>
+    <t>RENY DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>CRISTIANA PAZELI RODRIGUES</t>
+  </si>
+  <si>
+    <t>MAXSSUEL VIEIRA SILVA</t>
+  </si>
+  <si>
+    <t>04030008666</t>
+  </si>
+  <si>
+    <t>03490922735</t>
+  </si>
+  <si>
+    <t>09923132609</t>
+  </si>
+  <si>
+    <t>82492158691</t>
+  </si>
+  <si>
+    <t>01552667642</t>
+  </si>
+  <si>
+    <t>03502184631</t>
+  </si>
+  <si>
+    <t>05249911625</t>
+  </si>
+  <si>
+    <t>05769294680</t>
+  </si>
+  <si>
+    <t>09941183686</t>
+  </si>
+  <si>
+    <t>06648981652</t>
+  </si>
+  <si>
+    <t>17851903696</t>
+  </si>
+  <si>
+    <t>36919748649</t>
+  </si>
+  <si>
+    <t>00925200905</t>
+  </si>
+  <si>
+    <t>17042707664</t>
+  </si>
+  <si>
+    <t>01990602665</t>
+  </si>
+  <si>
+    <t>19014458606</t>
+  </si>
+  <si>
+    <t>10136083641</t>
+  </si>
+  <si>
+    <t>05322831630</t>
+  </si>
+  <si>
+    <t>99433397649</t>
+  </si>
+  <si>
+    <t>10161613608</t>
+  </si>
+  <si>
+    <t>50995707634</t>
+  </si>
+  <si>
+    <t>67349692668</t>
+  </si>
+  <si>
+    <t>18255624660</t>
+  </si>
+  <si>
+    <t>37932152615</t>
+  </si>
+  <si>
+    <t>06150583619</t>
+  </si>
+  <si>
+    <t>17713802681</t>
+  </si>
+  <si>
+    <t>08754611660</t>
+  </si>
+  <si>
+    <t>07878012679</t>
+  </si>
+  <si>
+    <t>22823280600</t>
+  </si>
+  <si>
+    <t>03968114698</t>
+  </si>
+  <si>
+    <t>00946479682</t>
+  </si>
+  <si>
+    <t>Descriï¿½ï¿½o da Demanda</t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona o não recebimento de boleto para pagamento de mensalidade, referente ao mês 03/2023. Interlocutor relata que tentou entrar em contato com a operadora por meio de contato com os telefones: 40201908,40201899,40209091 e 03007893650, todos os dias desde o dia 14/03/2023  em diversos horários, sem sucesso.</t>
+  </si>
+  <si>
+    <t>Beneficiaria  questiona a não cobertura para CONSULTAS PRESENCIAL COM  CARDIOLOGIA, PSIQUIATRA  E GINECOLOGIA . O procedimento foi solicitado à operadora no dia 30/03/2023 para realização no município de Vila Velha/ES. A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. Relata que ofereceu para 17/04/2023 Tele Atendimento e não concorda.Protocolo 36825320230331256489 data 31/03/2023</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a não cobertura para OFTAMOLOGISTA, GINECOLOGISTA, PRONTO ATENDIMENTO. O procedimento foi solicitado à operadora no dia 28/02/2023, para realização no município TIMOTEO-MG. A operadora alega que não possui prestador no município para realização/atendimento do serviço de saúde. Protocolo 36825320230403520933 data 03/04/2023 contato por telefone. Beneficiária informa que não existe atendimento no município pela Operadora.</t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona o não atendimento para PSIQUIATRIA e CIRURGIA PLASTICA. Relata que tentou entrar em contato com a Operadora por meio dos telefones 03003133633 ,08002809130 , 40023633 e aplicativo - na data 03/04/2023, em torno das 14:15hs,sem sucesso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No dia 28/03/2023, estive em Belo Horizonte, na clinica Vida Nova, onde eles agendaram a consulta e me informaram via WhatsApp, ao protocolar meu atendimento mais uma vez fui negado, segundo a recepcionista da clinica, meu plano alegou que eu não tinha cobertura de abrangência, para ser atendimento ali. Acionei a polícia militar via 190, para que um Boletim de Ocorrência Policial fosse redigido, e ficasse registrado o transtorno que essa empresa estava me causando. Após varias ligações e por aproximadamente 40 minutos discutindo e brigando com o pessoal da HAP VIDA por telefone, eles autorizaram minha consulta. Por fim o fato mais grave, é que minha esposa, que é minha dependente nesse plano de saúde, está gestante de 5 meses, e todos os exames de ultrassonografia do meu filho que está sendo gerado, estão sendo feitos no Laboratório Hermes Pardini do Bairro Santo Agostinho em Belo Horizonte, pois foi o único lugar que a HAP via autorzou, 50km de distancia da minha casa. </t>
+  </si>
+  <si>
+    <t>Beneficiária questiona a não cobertura para 41301340  URODINÂMICA COMPLETA. O procedimento foi solicitado à operadora no dia 11/02/2023, para realização no município de Belo Horizonte e a operadora indicou prestadores que não realizam o procedimento. Protocolo 36825320230324904457 – data 24/03/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a falta de atendimento para medicamento ruxolitinibe tratamento oncológico continuo mensal  . A solicitação foi feita à Operadora no dia 23/03/2023, para realização no município Betim. A operadora alega que o pedido está em análise e não apresenta resposta ao pedido. Protocolo: 36825320230323941624 – data  : 23/03/2023</t>
+  </si>
+  <si>
+    <t>Boa tarde!_x000D_
+_x000D_
+Cancelei o plano de saúde da operadora PREMIUM (HAPVIDA) em 10/2022 e agora no mês de 03/2023 tentei entrar em contato pelo Site, Whatsapp, Aplicativo, chat disponibilizado pela operadora  e recebi o retorno que a solicitação deveria ser realizada através dos telefones 4020 1685 ou 0800 290 9130 ou ainda pelo 4020-7813, porém ao tentar contato nestes números a ligação não completa e não estou conseguindo ter acesso ao documento.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a não cobertura para Ultrassonografia morfológica do segundo trimestre para ser realizada com 22 semanas. O procedimento foi solicitado à operadora no dia 01/03/2023, para realização no município Belo Horizonte/MG. A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. Relata que tinha o atendimento agendado para o prestador Clinica CEDUS, porém foi informada em 04/04/2023 que o local estava descredenciado. protocolo 2023040428215835 Data 04/04/2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interlocutora, que se identifica como filha  do beneficiário, questiona a falta de atendimento para HISTEROSCOPIA DIANOSTICA solicitado em 05/2022 para ser realizado em prestador Otaviano Neves  em Belo Horizonte solicitado pelo  Dr .Vinicius CRM  66852  . A operadora apresenta resposta ao pedido. Protocolo: Não fornecido pelo operadora em 03/04/2023</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe da beneficiária, questiona a falta de atendimento para ADENO-AMIGDALECTOMIA 1x e TURBINECTOMIA OU TURBINOPLASTIA 2x, solicitadas pelo Dra Rubiana F. S. A. Lima . A solicitação foi feita à Operadora no dia 01/03/2023, para realização no município Belo Horizonte-MG. A operadora alega que o pedido está em análise. Protocolo 36825320230301345717 Data: 02/03/2023</t>
+  </si>
+  <si>
+    <t>Interlocutor(a), que se identifica como esposa do beneficiário, questiona a falta de atendimento para papilotomo, CPRE (conforme guia medica), e Wander Campos . A solicitação foi feita à Operadora no dia 20/01/2023, para realização no município Contagem. A operadora alega que o pedido está em análise e não apresenta resposta ao pedido. Protocolo - 368253202302069969703- data 06/02/2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficiária questiona a falta de atendimento para consulta com a obstetrícia e local para o parto.  Relata que tentou entrar em contato com a  Operadora por meio do telefone 0800 545 3001 na data 17/12/2021, em torno das 16h, sem sucesso. O prestador solicitado como de preferência do beneficiário Clinica Santa Helena, foi descredenciado e não foi disponibilizada outra alternativa de atendimento no mesmo município Florianópolis. A demanda 5478797 foi aberta para apuração do descredenciamento pela DIPRO. Protocolo 41782320211130123662-data: 30/11/2021 .RN 365_x000D_
+</t>
+  </si>
+  <si>
+    <t>Interlocutora que se identifica como mãe do beneficiário, questiona a falta de atendimento para Consulta com Otorrinolaringologista, Audiometria Tonal e Vocal, Impedanciometria, Videoendoscopia nasossinusal. A solicitação foi feita à Operadora no dia 23/03/2023, para realização no município BETIM. A operadora não apresenta resposta ao pedido, informou apenas que buscaria profissional. Protocolo: 3682532023041042947 - Data: 10/04/2023.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como esposa  do beneficiário, questiona a falta de atendimento para cartão com orçamento e valores dos matérias para cirurgia  reconstrução do ligamento cruzado anterior  . A solicitação foi feita à Operadora em julho/2022, para realização no município patos de minas . A operadora  não apresenta resposta ao pedido, operadora já lhe encaminhou uma carta mas não esta\ com os valores dos matérias com o hospital deseja    Protocolo:36825320230410426644 data:1/04/2023.</t>
+  </si>
+  <si>
+    <t>minha filha usa NEOCATE desde os 4 meses de idade, foi solicitado o pedido de intolerancia a lactose no dia 22/3/2023 porem nao tenho retorno quando ligo dizem, que pode levar ate 21 dias uteis mas em consulta ao site da ANS esse prazo seria pra procedimentos PAC, que nao e o caso de um exame de sangue para detectar intolerância a lactose, preciso de um retorno visto que o prazo de 10 dias uteis finalizou em 06/04/2023.</t>
+  </si>
+  <si>
+    <t>Solicitei com 10 dias de antecedência a marcação do exame de ultrassonografia endovaginal,na clínica Santa Helena ltda através do plano,ao chegar no estabelecimento no dia do exame a operadora do plano negou meu procedimento alegando que a clinica não estava mais cadastrada,porém não recebi nenhum contanto prévio mesmo estando com o agendamento feito a dias.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a falta de atendimento para exérese ou sutura de linfoma intramuscular (conforme guia médica), e nome do médico solicitante Emerson Melgaço de Castro. A solicitação foi feita à Operadora no dia 13/02/2023, para realização no município Belo Horizonte. A operadora alega que não apresenta resposta ao pedido. Protocolo:36825320230406591901 – data:04/04/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiária, informa que solicitou o cancelamento do plano  por telefone, em 12/4/23, e até a presente data não houve o cancelamento pois é orientada que haverá pré cancelamento de 60 dias para junho ou maio e ela deseja que seja cancelado de imediato. Protocolo não foi informado data 12/4/23.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como  mãe beneficiária, questiona o prazo de atendimento para COLONOSCOPIA e ENDOSCOPIA DIGESTIVA ALTA COM BIÓPSIA E/OU CITOLOGIA. A operadora não autorizou o serviço que foi solicitado no dia 22/03/2023 , porem uma clínica credenciada que a beneficiaria procurou e ela  agendou para o dia 17/04/2023 o procedimento, após o prazo máximo previsto na RN nº 566/2022. Protocolo:36825320230412098231 data:12/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  beneficiário, questiona a não cobertura para AUDIOMETRIA TONAL E VOCAL, IMPEDANCIOMETRIA (MEDIDAS DE IMITÂNCIA ACÚSTICA, AUDIOMETRIA VOCAL - PESQUISA DE LIMIAR DE DISCRIMINAÇÃO/INTELIGIBILIDADE (LOGOAUDIOMETRIA). O procedimento foi solicitado à operadora no dia 27/03/2023, para realização no município BELO HORIZONTE./ A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. PROTOCOLO:36825320230328334267  DATA:28/03/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interlocutora , que se identifica como esposa do beneficiário, questiona a não cobertura para  ELETRONEUROMIOGRAFIA MMSS. O procedimento foi solicitado à operadora no dia 03/04/2023 , para realização no município Belo Horizonte  a operadora indicou prestadores que não realizam o procedimento. Esta aguardando resposta da operadora. Protocolo: 3682532023046684449 data: 06/04/2023_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe da beneficiária, questiona a não cobertura para consulta com endocrinologista  . O procedimento foi solicitado à operadora no mês 03/2023 , para realização no município Belo Horizonte . A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. Protocolo : 36825320230330977433  Data : 30/03/2023</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como filha do beneficiário, questiona a falta de atendimento para RM - Multiparamétrica transretal da próstata. A solicitação foi feita à Operadora no dia 14/03/2023, para realização no município Belo Horizonte. A operadora não apresenta resposta ao pedido. Protocolo 36825320230412185311 DATA:12/04/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiária, informa que solicitou à operadora, em 01/03/2023, a exclusão em plano coletivo empresarial Compacta Benefícios, 30/03/202. Até a presente data não houve a exclusão. Relata que recebeu boleto de mensalidade de Abril/2023 para pagamento. Relata que o contato com a operadora foi através de carta (a mão conforme solicitação da operadora), por e-mail, não foi fornecido protocolo.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe da beneficiária, questiona a não cobertura para nefrologia que atenda criança e nome do médico solicitante Gilmar Ferraz. O procedimento foi solicitado à operadora no dia 03/2023, para realização no município Belo Horizonte e a operadora indicou prestadores que não realizam o procedimento, operadora indicou prestador que não atende operadora da beneficiária. Protocolo 36825320230414258578 – data 14/04/2023.</t>
+  </si>
+  <si>
+    <t>Interlocutor, que se identifica como marido da beneficiária, questiona a falta de atendimento para 3 X ULTRASSON COM DOPPLER (como escrito em guia pelo medico), e nome do médico solicitante Dr. Luiza. A solicitação foi feita à Operadora no dia 10/03/2023, para realização no município Belo horizonte. A operadora só autorizou um procedimento , mas interlocutor relata que são três por se tratar de uma gestação trigemelar Protocolo nº: não foi fornecido pela operadora pela atendente Lorena em contato telefônico - Data: 14/04/2023.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe  do beneficiário, questiona o não atendimento para CONSULTA COM PEDIATRA E EXAMES LABORATORIOS HEMOGRAMA PCR VHF , FERRO , DOSAGEM DE VITAMINA Z , ZINCO , SELENIO , FERRENTINA , GLICEMIA PSH , IGE TOTAL , IGE ESPECIFICA . A solicitação foi feita à Operadora no dia 29/03/2023 , no município Montes Claros  e o agendamento foi realizado para o município Uberaba e Uberlândia . Protocolo 36825320230404294472 DATA 04/04/2023 .</t>
+  </si>
+  <si>
+    <t>Tinha plano pessoa física da promed e transferi para pessoa jurídica, porém no ato da contratação eu entrei na carência de congêneres. Só o parto e terapias que entrei com 180 dias de carência. _x000D_
+Porém o plano de saúde me retornou falando que por motivo de carência não posso realizar o exame, só posso solicitar Apartir do dia 29/05/2023. _x000D_
+Protocolo: 36825320230327813804._x000D_
+Gostaria que resolver a minha situação estou com urgência.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como filha do beneficiário, questiona a falta de atendimento para ANGIOPLASTIA TRANSLUMINAL PERCUTÂNEA. A solicitação foi feita à Operadora no dia 16/03/2023, para realização no município Belo Horizonte. A operadora alega que o pedido está em análise e não apresenta resposta ao pedido. Protocolo 36825320230313237068 – data 16/03/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a falta de atendimento para 31303129 HISTERECTOMIA TOTAL COM ANEXECTOMIA (VIA ALTA OU BAIXA). A solicitação foi feita à Operadora no dia 09/02/2023, para realização no município Contagem. A operadora não apresenta resposta ao pedido. Protocolo 36825320230114075499 – data 14/03/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiário questiona a cobrança de mensalidade em duplicidade. Relata que contratou o plano na modalidade "pré-pago" e, ao solicitar cancelamento do plano, foi cobrado a mensalidade referente ao mês 04/2023, que já foi paga em 20/03/2023. Beneficiário informa que entrou em contato com OPS, através do telefone 4020-1685, na data 05/04/2023, mas foi informado de que seria um atendimento informativo e não teria gerado protocolo.</t>
   </si>
   <si>
     <t>SIM</t>
@@ -268,19 +465,19 @@
     <t>NO</t>
   </si>
   <si>
+    <t>No Assistencial</t>
+  </si>
+  <si>
     <t>Assistencial</t>
-  </si>
-  <si>
-    <t>No Assistencial</t>
-  </si>
-  <si>
-    <t>Responder  Detalhes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -333,11 +530,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,13 +830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,1055 +867,1334 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>12148200</v>
-      </c>
-      <c r="F2">
-        <v>8581975</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>12149727</v>
-      </c>
-      <c r="F3">
-        <v>8583861</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>12151325</v>
-      </c>
-      <c r="F4">
-        <v>8585862</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>12151461</v>
-      </c>
-      <c r="F5">
-        <v>8586030</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>12153205</v>
-      </c>
-      <c r="F6">
-        <v>8588077</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>12153463</v>
-      </c>
-      <c r="F7">
-        <v>8588431</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>12153630</v>
-      </c>
-      <c r="F8">
-        <v>8588645</v>
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45016.65592592592</v>
       </c>
       <c r="E9">
-        <v>12154294</v>
-      </c>
-      <c r="F9">
-        <v>8589407</v>
+        <v>12151325</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" t="s">
-        <v>84</v>
+        <v>113</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>145</v>
+      </c>
+      <c r="L9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45016.68766203704</v>
       </c>
       <c r="E10">
-        <v>12154631</v>
-      </c>
-      <c r="F10">
-        <v>8589813</v>
+        <v>12151461</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" t="s">
-        <v>84</v>
+        <v>114</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>145</v>
+      </c>
+      <c r="L10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45019.57253472223</v>
       </c>
       <c r="E11">
-        <v>12155655</v>
-      </c>
-      <c r="F11">
-        <v>8591050</v>
+        <v>12153205</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
+        <v>115</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45019.61603009259</v>
       </c>
       <c r="E12">
-        <v>12155706</v>
-      </c>
-      <c r="F12">
-        <v>8591067</v>
+        <v>12153463</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" t="s">
-        <v>84</v>
+        <v>116</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45019.64255787037</v>
       </c>
       <c r="E13">
-        <v>12155732</v>
-      </c>
-      <c r="F13">
-        <v>8591079</v>
+        <v>12153630</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" t="s">
-        <v>84</v>
+        <v>117</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45019.82728009259</v>
       </c>
       <c r="E14">
-        <v>12156130</v>
-      </c>
-      <c r="F14">
-        <v>8591725</v>
+        <v>12154294</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
       </c>
       <c r="G14" t="s">
         <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" t="s">
-        <v>84</v>
+        <v>118</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45020.40943287037</v>
       </c>
       <c r="E15">
-        <v>12157899</v>
-      </c>
-      <c r="F15">
-        <v>8593801</v>
+        <v>12154631</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" t="s">
-        <v>84</v>
+        <v>119</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45020.60085648148</v>
       </c>
       <c r="E16">
-        <v>12159646</v>
-      </c>
-      <c r="F16">
-        <v>7797800</v>
+        <v>12155655</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" t="s">
-        <v>84</v>
+        <v>120</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45020.60927083333</v>
       </c>
       <c r="E17">
-        <v>12161100</v>
-      </c>
-      <c r="F17">
-        <v>8597675</v>
+        <v>12155706</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" t="s">
-        <v>84</v>
+        <v>121</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45020.61450231481</v>
       </c>
       <c r="E18">
-        <v>12161386</v>
-      </c>
-      <c r="F18">
-        <v>8598016</v>
+        <v>12155732</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
       </c>
       <c r="G18" t="s">
         <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" t="s">
-        <v>84</v>
+        <v>122</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45020.69599537037</v>
       </c>
       <c r="E19">
-        <v>12163407</v>
-      </c>
-      <c r="F19">
-        <v>8600473</v>
+        <v>12156130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
       </c>
       <c r="G19" t="s">
         <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" t="s">
-        <v>84</v>
+        <v>123</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45021.60149305555</v>
       </c>
       <c r="E20">
-        <v>12163869</v>
-      </c>
-      <c r="F20">
-        <v>8601052</v>
+        <v>12157899</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
       </c>
       <c r="G20" t="s">
         <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" t="s">
-        <v>84</v>
+        <v>124</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45022.54434027777</v>
       </c>
       <c r="E21">
-        <v>12165805</v>
-      </c>
-      <c r="F21">
-        <v>8603359</v>
+        <v>12159646</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21" t="s">
-        <v>84</v>
+        <v>125</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45026.38854166667</v>
       </c>
       <c r="E22">
-        <v>12166069</v>
-      </c>
-      <c r="F22">
-        <v>8603674</v>
+        <v>12161100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" t="s">
-        <v>85</v>
+        <v>126</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45026.44988425926</v>
       </c>
       <c r="E23">
-        <v>12167081</v>
-      </c>
-      <c r="F23">
-        <v>8604741</v>
+        <v>12161386</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" t="s">
-        <v>84</v>
+        <v>127</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45027.36063657407</v>
       </c>
       <c r="E24">
-        <v>12167165</v>
-      </c>
-      <c r="F24">
-        <v>8604741</v>
+        <v>12163407</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" t="s">
-        <v>84</v>
+        <v>128</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
       </c>
       <c r="K24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45027.46474537037</v>
       </c>
       <c r="E25">
-        <v>12167700</v>
-      </c>
-      <c r="F25">
-        <v>8605615</v>
+        <v>12163869</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J25" t="s">
-        <v>84</v>
+        <v>129</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45028.37364583334</v>
       </c>
       <c r="E26">
-        <v>12168346</v>
-      </c>
-      <c r="F26">
-        <v>8606403</v>
+        <v>12165805</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
       </c>
       <c r="G26" t="s">
         <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
-      </c>
-      <c r="J26" t="s">
-        <v>84</v>
+        <v>130</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45028.44333333334</v>
       </c>
       <c r="E27">
-        <v>12169638</v>
-      </c>
-      <c r="F27">
-        <v>8608000</v>
+        <v>12166069</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>67</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" t="s">
-        <v>84</v>
+        <v>131</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
       </c>
       <c r="K27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45028.61457175926</v>
       </c>
       <c r="E28">
-        <v>12169885</v>
-      </c>
-      <c r="F28">
-        <v>8608362</v>
+        <v>12167081</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>68</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" t="s">
-        <v>85</v>
+        <v>132</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
       </c>
       <c r="K28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45028.62655092592</v>
       </c>
       <c r="E29">
-        <v>12170717</v>
-      </c>
-      <c r="F29">
-        <v>8609371</v>
+        <v>12167165</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
       </c>
       <c r="G29" t="s">
         <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
-      </c>
-      <c r="J29" t="s">
-        <v>84</v>
+        <v>133</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
       </c>
       <c r="K29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45028.73353009259</v>
       </c>
       <c r="E30">
-        <v>12170838</v>
-      </c>
-      <c r="F30">
-        <v>8609527</v>
+        <v>12167700</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
       </c>
       <c r="G30" t="s">
         <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J30" t="s">
-        <v>84</v>
+        <v>134</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
       </c>
       <c r="K30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45029.42144675926</v>
       </c>
       <c r="E31">
-        <v>12171665</v>
-      </c>
-      <c r="F31">
-        <v>8610551</v>
+        <v>12168346</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
       </c>
       <c r="G31" t="s">
         <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="I31" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" t="s">
-        <v>84</v>
+        <v>135</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
       </c>
       <c r="K31" t="s">
-        <v>86</v>
+        <v>146</v>
+      </c>
+      <c r="L31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45029.65606481482</v>
+      </c>
+      <c r="E32">
+        <v>12169638</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45029.71498842593</v>
+      </c>
+      <c r="E33">
+        <v>12169885</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" t="s">
+        <v>137</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33" t="s">
+        <v>146</v>
+      </c>
+      <c r="L33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45030.44865740741</v>
+      </c>
+      <c r="E34">
+        <v>12170717</v>
+      </c>
+      <c r="F34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34" t="s">
+        <v>146</v>
+      </c>
+      <c r="L34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45030.47511574074</v>
+      </c>
+      <c r="E35">
+        <v>12170838</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35" t="s">
+        <v>146</v>
+      </c>
+      <c r="L35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45030.63180555555</v>
+      </c>
+      <c r="E36">
+        <v>12171665</v>
+      </c>
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36" t="s">
+        <v>146</v>
+      </c>
+      <c r="L36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45033.56813657407</v>
+      </c>
+      <c r="E37">
+        <v>12173695</v>
+      </c>
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" t="s">
+        <v>141</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45033.67921296296</v>
+      </c>
+      <c r="E38">
+        <v>12174445</v>
+      </c>
+      <c r="F38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38" t="s">
+        <v>146</v>
+      </c>
+      <c r="L38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45033.73219907407</v>
+      </c>
+      <c r="E39">
+        <v>12174676</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39" t="s">
+        <v>146</v>
+      </c>
+      <c r="L39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45033.76369212963</v>
+      </c>
+      <c r="E40">
+        <v>12174795</v>
+      </c>
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40" t="s">
+        <v>146</v>
+      </c>
+      <c r="L40" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="250">
   <si>
     <t>Operadora</t>
   </si>
@@ -49,426 +49,745 @@
     <t>Natureza</t>
   </si>
   <si>
-    <t>417823 - PREMIUM SAÚDE S.A</t>
-  </si>
-  <si>
-    <t>17-04-2023</t>
-  </si>
-  <si>
-    <t>Extraï¿½do em 17/04/2023 19:49</t>
+    <t>Contrato</t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Modalidade</t>
+  </si>
+  <si>
+    <t>422380 - YOU ASSISTÊNCIA MÉDICA LTDA</t>
+  </si>
+  <si>
+    <t>18-04-2023</t>
+  </si>
+  <si>
+    <t>Extraï¿½do em 18/04/2023 14:51</t>
   </si>
   <si>
     <t>Sistema Integrado de Fiscalizaï¿½ï¿½o - NIP</t>
   </si>
   <si>
-    <t>417823 - PREMIUM SAÚDE S.A.</t>
+    <t>422380 - YOU ASSISTÊNCIA MÉDICA LTDA.</t>
   </si>
   <si>
     <t>Data de Notificaï¿½ï¿½o</t>
   </si>
   <si>
-    <t>8585862</t>
-  </si>
-  <si>
-    <t>8586030</t>
-  </si>
-  <si>
-    <t>8588077</t>
-  </si>
-  <si>
-    <t>8588431</t>
-  </si>
-  <si>
-    <t>8588645</t>
-  </si>
-  <si>
-    <t>8589407</t>
-  </si>
-  <si>
-    <t>8589813</t>
-  </si>
-  <si>
-    <t>8591050</t>
-  </si>
-  <si>
-    <t>8591067</t>
-  </si>
-  <si>
-    <t>8591079</t>
-  </si>
-  <si>
-    <t>8591725</t>
-  </si>
-  <si>
-    <t>8593801</t>
-  </si>
-  <si>
-    <t>7797800</t>
-  </si>
-  <si>
-    <t>8597675</t>
-  </si>
-  <si>
-    <t>8598016</t>
-  </si>
-  <si>
-    <t>8600473</t>
-  </si>
-  <si>
-    <t>8601052</t>
-  </si>
-  <si>
-    <t>8603359</t>
-  </si>
-  <si>
-    <t>8603674</t>
-  </si>
-  <si>
-    <t>8604741</t>
-  </si>
-  <si>
-    <t>8605615</t>
-  </si>
-  <si>
-    <t>8606403</t>
-  </si>
-  <si>
-    <t>8608000</t>
-  </si>
-  <si>
-    <t>8608362</t>
-  </si>
-  <si>
-    <t>8609371</t>
-  </si>
-  <si>
-    <t>8609527</t>
-  </si>
-  <si>
-    <t>8610551</t>
-  </si>
-  <si>
-    <t>8613108</t>
-  </si>
-  <si>
-    <t>8613965</t>
-  </si>
-  <si>
-    <t>8614239</t>
-  </si>
-  <si>
-    <t>8614426</t>
+    <t>8587082</t>
+  </si>
+  <si>
+    <t>8588178</t>
+  </si>
+  <si>
+    <t>8589287</t>
+  </si>
+  <si>
+    <t>8589717</t>
+  </si>
+  <si>
+    <t>8590264</t>
+  </si>
+  <si>
+    <t>8591144</t>
+  </si>
+  <si>
+    <t>8591752</t>
+  </si>
+  <si>
+    <t>8591919</t>
+  </si>
+  <si>
+    <t>8592489</t>
+  </si>
+  <si>
+    <t>8592529</t>
+  </si>
+  <si>
+    <t>8592956</t>
+  </si>
+  <si>
+    <t>8593967</t>
+  </si>
+  <si>
+    <t>8594522</t>
+  </si>
+  <si>
+    <t>8594695</t>
+  </si>
+  <si>
+    <t>8595238</t>
+  </si>
+  <si>
+    <t>8596884</t>
+  </si>
+  <si>
+    <t>8597595</t>
+  </si>
+  <si>
+    <t>8598342</t>
+  </si>
+  <si>
+    <t>8598761</t>
+  </si>
+  <si>
+    <t>8599264</t>
+  </si>
+  <si>
+    <t>8599230</t>
+  </si>
+  <si>
+    <t>8600412</t>
+  </si>
+  <si>
+    <t>8600621</t>
+  </si>
+  <si>
+    <t>8601769</t>
+  </si>
+  <si>
+    <t>8602234</t>
+  </si>
+  <si>
+    <t>8602670</t>
+  </si>
+  <si>
+    <t>8604036</t>
+  </si>
+  <si>
+    <t>8604069</t>
+  </si>
+  <si>
+    <t>8605179</t>
+  </si>
+  <si>
+    <t>8605345</t>
+  </si>
+  <si>
+    <t>8606114</t>
+  </si>
+  <si>
+    <t>8606848</t>
+  </si>
+  <si>
+    <t>8607367</t>
+  </si>
+  <si>
+    <t>8607900</t>
+  </si>
+  <si>
+    <t>8608265</t>
+  </si>
+  <si>
+    <t>8608288</t>
+  </si>
+  <si>
+    <t>8608371</t>
+  </si>
+  <si>
+    <t>8608573</t>
+  </si>
+  <si>
+    <t>8609005</t>
+  </si>
+  <si>
+    <t>8610871</t>
+  </si>
+  <si>
+    <t>8610984</t>
+  </si>
+  <si>
+    <t>8611319</t>
+  </si>
+  <si>
+    <t>8611994</t>
+  </si>
+  <si>
+    <t>8612020</t>
+  </si>
+  <si>
+    <t>8612275</t>
+  </si>
+  <si>
+    <t>8612772</t>
+  </si>
+  <si>
+    <t>8612993</t>
+  </si>
+  <si>
+    <t>8613126</t>
+  </si>
+  <si>
+    <t>8613168</t>
+  </si>
+  <si>
+    <t>8613869</t>
+  </si>
+  <si>
+    <t>8614152</t>
+  </si>
+  <si>
+    <t>8614707</t>
+  </si>
+  <si>
+    <t>8614896</t>
+  </si>
+  <si>
+    <t>8615113</t>
+  </si>
+  <si>
+    <t>8615297</t>
+  </si>
+  <si>
+    <t>8615295</t>
+  </si>
+  <si>
+    <t>8615761</t>
   </si>
   <si>
     <t>Beneficiï¿½rio</t>
   </si>
   <si>
-    <t>ALEXSANDRA RAMOS MARGARIDA</t>
-  </si>
-  <si>
-    <t>CREUZA CASTELLARI MARCONSINI REIS</t>
-  </si>
-  <si>
-    <t>BÁRBARA DE OLIVEIRA PATRÍCIO</t>
-  </si>
-  <si>
-    <t>KEPA FREDRICK STOCKNER</t>
-  </si>
-  <si>
-    <t>DAVIDSON LUIZ PEREIRA LOPES</t>
-  </si>
-  <si>
-    <t>KENIA CLAUDIA FARIA CAMPOS</t>
-  </si>
-  <si>
-    <t>CRISTIANE BATISTA ROCHA</t>
-  </si>
-  <si>
-    <t>ROBSON FRANCISCO LANZA JUNIOR</t>
-  </si>
-  <si>
-    <t>ANDREIA MARIA OTTONI MORAES</t>
-  </si>
-  <si>
-    <t>ANTONIA EVA MAGALHAES DOS SANTOS</t>
-  </si>
-  <si>
-    <t>ISIS NOGUEIRA CHAVES</t>
-  </si>
-  <si>
-    <t>ANTONIO CARLOS SANTOS</t>
-  </si>
-  <si>
-    <t>DANIELA FARIAS VASCONCELOS</t>
-  </si>
-  <si>
-    <t>CAIO HENRIQUE RODRIGUES FERNANDES</t>
-  </si>
-  <si>
-    <t>DIEGO SANTOS DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>AYLA ALVES COELHO</t>
-  </si>
-  <si>
-    <t>PRISCILA APARECIDA SANTOS FRANCISCO</t>
-  </si>
-  <si>
-    <t>LUDIANE CONCEICAO DOS SANTOS OLIVEIRA MATOS</t>
-  </si>
-  <si>
-    <t>ELENICE DE SIQUEIRA</t>
-  </si>
-  <si>
-    <t>JENIFE BIANCA AMORIM PEREIRA</t>
-  </si>
-  <si>
-    <t>JUCIMAR AMORIM PEREIRA</t>
-  </si>
-  <si>
-    <t>VIRGILIO ISMAR SANTOS GARCIA</t>
-  </si>
-  <si>
-    <t>MELINDA GOULART CRUZ</t>
-  </si>
-  <si>
-    <t>JORGE EUSTACIO MEDEIROS</t>
-  </si>
-  <si>
-    <t>NATALIA SOLANO ROSSELIS PEREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>RAFAELLE FONSECA DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>VANESSA WINTER NUNES FORTES</t>
-  </si>
-  <si>
-    <t>OLIVER MIRANDA PORTO</t>
-  </si>
-  <si>
-    <t>FÁTIMA BASÍLIO DE MENEZES</t>
-  </si>
-  <si>
-    <t>RENY DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>CRISTIANA PAZELI RODRIGUES</t>
-  </si>
-  <si>
-    <t>MAXSSUEL VIEIRA SILVA</t>
-  </si>
-  <si>
-    <t>04030008666</t>
-  </si>
-  <si>
-    <t>03490922735</t>
-  </si>
-  <si>
-    <t>09923132609</t>
-  </si>
-  <si>
-    <t>82492158691</t>
-  </si>
-  <si>
-    <t>01552667642</t>
-  </si>
-  <si>
-    <t>03502184631</t>
-  </si>
-  <si>
-    <t>05249911625</t>
-  </si>
-  <si>
-    <t>05769294680</t>
-  </si>
-  <si>
-    <t>09941183686</t>
-  </si>
-  <si>
-    <t>06648981652</t>
-  </si>
-  <si>
-    <t>17851903696</t>
-  </si>
-  <si>
-    <t>36919748649</t>
-  </si>
-  <si>
-    <t>00925200905</t>
-  </si>
-  <si>
-    <t>17042707664</t>
-  </si>
-  <si>
-    <t>01990602665</t>
-  </si>
-  <si>
-    <t>19014458606</t>
-  </si>
-  <si>
-    <t>10136083641</t>
-  </si>
-  <si>
-    <t>05322831630</t>
-  </si>
-  <si>
-    <t>99433397649</t>
-  </si>
-  <si>
-    <t>10161613608</t>
-  </si>
-  <si>
-    <t>50995707634</t>
-  </si>
-  <si>
-    <t>67349692668</t>
-  </si>
-  <si>
-    <t>18255624660</t>
-  </si>
-  <si>
-    <t>37932152615</t>
-  </si>
-  <si>
-    <t>06150583619</t>
-  </si>
-  <si>
-    <t>17713802681</t>
-  </si>
-  <si>
-    <t>08754611660</t>
-  </si>
-  <si>
-    <t>07878012679</t>
-  </si>
-  <si>
-    <t>22823280600</t>
-  </si>
-  <si>
-    <t>03968114698</t>
-  </si>
-  <si>
-    <t>00946479682</t>
+    <t>RENATA ADRIANA DOS SANTOS NASCIMENTO</t>
+  </si>
+  <si>
+    <t>AUDILENE FERREIRA LOPES NASCIMENTO</t>
+  </si>
+  <si>
+    <t>ANDREZZA PEVAS DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>MARIA CRISTINA TAVARES DA SILVA</t>
+  </si>
+  <si>
+    <t>ANA DRIELI DA SILVA LAGES</t>
+  </si>
+  <si>
+    <t>PYETRO SOUZA DE JESUS</t>
+  </si>
+  <si>
+    <t>MAURICEA DA SILVA CORREIA TAVARES</t>
+  </si>
+  <si>
+    <t>MARIA APARECIDA DA SILVA RIBEIRO</t>
+  </si>
+  <si>
+    <t>ALEXANDRE DE MELO WAGNER JUNIOR</t>
+  </si>
+  <si>
+    <t>SUELLEN PINHEIRO VIANA</t>
+  </si>
+  <si>
+    <t>EDNA LOPES DA SILVA</t>
+  </si>
+  <si>
+    <t>RHILLARY CAMILLE SOARES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>SARAH DE OLIVEIRA PEREZ</t>
+  </si>
+  <si>
+    <t>CARLOS RODRIGO CHAGAS GITIRANA</t>
+  </si>
+  <si>
+    <t>CRISTIANO DE OLIVEIRA CARNEIRO</t>
+  </si>
+  <si>
+    <t>BRAYAN MIGUEL JAFFRA PEREIRA</t>
+  </si>
+  <si>
+    <t>JANAINA MARIA DA SILVA</t>
+  </si>
+  <si>
+    <t>CLEO DALSIOR VOM DOELINGER</t>
+  </si>
+  <si>
+    <t>WELLINGTON FERREIRA DE JESUS</t>
+  </si>
+  <si>
+    <t>BENICIO MARTINS FERNANDES</t>
+  </si>
+  <si>
+    <t>PAOLA MONIQUE DA SILVA TEIXEIRA</t>
+  </si>
+  <si>
+    <t>IDEILDO LUCENA MOURA DA SILVA JUNIOR</t>
+  </si>
+  <si>
+    <t>MARIA DA CONCEICAO DA SILVA</t>
+  </si>
+  <si>
+    <t>VALDIR FERNANDES DE ARAUJO</t>
+  </si>
+  <si>
+    <t>CALINE ESTEFANI DE SOUZA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>MARLENE NUNES HONDA TAVARES</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO DALPRA</t>
+  </si>
+  <si>
+    <t>RAVI SCHULZ XAVIER DA CRUZ</t>
+  </si>
+  <si>
+    <t>KAYKY BRUNNO SOUZA LOPES</t>
+  </si>
+  <si>
+    <t>MÔNICA ALVES GOMES</t>
+  </si>
+  <si>
+    <t>MARCIO CANDIDO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>BARBARA KELLY CARNEIRO LEÃO RODRIGUES</t>
+  </si>
+  <si>
+    <t>ANALIS SOARES SILVA</t>
+  </si>
+  <si>
+    <t>MAICKSON CAIQUE VENANCIO</t>
+  </si>
+  <si>
+    <t>EMILLE FERNANDES CORREA</t>
+  </si>
+  <si>
+    <t>MILENA FREIRE TRAVASSOS COUSSEIRO</t>
+  </si>
+  <si>
+    <t>ROGERIA DORALICE SOARES DA SILVA</t>
+  </si>
+  <si>
+    <t>HEITOR LIMA DA SILVA</t>
+  </si>
+  <si>
+    <t>SABRINA NAZARETH BRAZ DOS SANTOS RODRIGUES</t>
+  </si>
+  <si>
+    <t>IANA CAROLINA BASANTE DE ALBUQUERQUE</t>
+  </si>
+  <si>
+    <t>CLEIDE DE LIMA ALVES</t>
+  </si>
+  <si>
+    <t>CINTHIA KARLA OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>JOSINEIDE LUIZA DE OLIVEIRA VALENTIM</t>
+  </si>
+  <si>
+    <t>JOANNA MORAIS PEREIRA DO MONTE MENDES</t>
+  </si>
+  <si>
+    <t>DAIANA KELLY SOUZA DA SILVA</t>
+  </si>
+  <si>
+    <t>JULIANA TORREAO DE SA MARQUES</t>
+  </si>
+  <si>
+    <t>HEITOR GUILHERME ALVES COSTA</t>
+  </si>
+  <si>
+    <t>MARIA CLARA VASCONCELOS CARVALHO</t>
+  </si>
+  <si>
+    <t>JULIA ROCHA DE ALBUQUERQUE ERNANI SOUZA</t>
+  </si>
+  <si>
+    <t>WERISLAYNI OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>GUILHERME MIGUEL ANGOTI DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ISABELA LORRANE SANTOS ANGOTI PIMENTEL</t>
+  </si>
+  <si>
+    <t>IVENY MARQUES DA COSTA GOMES</t>
+  </si>
+  <si>
+    <t>CAUA HENRIQUE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>VANIA VIEIRA SOUTO MAIOR</t>
+  </si>
+  <si>
+    <t>BRUNO RUAN DE SOUZA</t>
+  </si>
+  <si>
+    <t>08104167430</t>
+  </si>
+  <si>
+    <t>30207266468</t>
+  </si>
+  <si>
+    <t>61793310220</t>
+  </si>
+  <si>
+    <t>03569767426</t>
+  </si>
+  <si>
+    <t>08115624411</t>
+  </si>
+  <si>
+    <t>49081756400</t>
+  </si>
+  <si>
+    <t>00828552428</t>
+  </si>
+  <si>
+    <t>08149246460</t>
+  </si>
+  <si>
+    <t>06667906474</t>
+  </si>
+  <si>
+    <t>03294613466</t>
+  </si>
+  <si>
+    <t>13268764495</t>
+  </si>
+  <si>
+    <t>05075054684</t>
+  </si>
+  <si>
+    <t>04466559457</t>
+  </si>
+  <si>
+    <t>87895145487</t>
+  </si>
+  <si>
+    <t>16780074632</t>
+  </si>
+  <si>
+    <t>04600051467</t>
+  </si>
+  <si>
+    <t>20920514740</t>
+  </si>
+  <si>
+    <t>00424885670</t>
+  </si>
+  <si>
+    <t>19008626624</t>
+  </si>
+  <si>
+    <t>05962686616</t>
+  </si>
+  <si>
+    <t>82453403400</t>
+  </si>
+  <si>
+    <t>04105956400</t>
+  </si>
+  <si>
+    <t>41572521449</t>
+  </si>
+  <si>
+    <t>09142997437</t>
+  </si>
+  <si>
+    <t>16111834215</t>
+  </si>
+  <si>
+    <t>07147768744</t>
+  </si>
+  <si>
+    <t>22628034719</t>
+  </si>
+  <si>
+    <t>70207991677</t>
+  </si>
+  <si>
+    <t>02573399494</t>
+  </si>
+  <si>
+    <t>04979189431</t>
+  </si>
+  <si>
+    <t>03752083484</t>
+  </si>
+  <si>
+    <t>17815299490</t>
+  </si>
+  <si>
+    <t>42021128814</t>
+  </si>
+  <si>
+    <t>15411404789</t>
+  </si>
+  <si>
+    <t>02531839445</t>
+  </si>
+  <si>
+    <t>04799668420</t>
+  </si>
+  <si>
+    <t>05960065436</t>
+  </si>
+  <si>
+    <t>06646531463</t>
+  </si>
+  <si>
+    <t>22696658803</t>
+  </si>
+  <si>
+    <t>03905800403</t>
+  </si>
+  <si>
+    <t>41678206415</t>
+  </si>
+  <si>
+    <t>01401859410</t>
+  </si>
+  <si>
+    <t>06547794490</t>
+  </si>
+  <si>
+    <t>86404725487</t>
+  </si>
+  <si>
+    <t>15965704402</t>
+  </si>
+  <si>
+    <t>11898974586</t>
+  </si>
+  <si>
+    <t>17278581400</t>
+  </si>
+  <si>
+    <t>70282814426</t>
+  </si>
+  <si>
+    <t>15293127608</t>
+  </si>
+  <si>
+    <t>11041195605</t>
+  </si>
+  <si>
+    <t>40184650410</t>
+  </si>
+  <si>
+    <t>18608070626</t>
+  </si>
+  <si>
+    <t>44895852415</t>
+  </si>
+  <si>
+    <t>08930395430</t>
   </si>
   <si>
     <t>Descriï¿½ï¿½o da Demanda</t>
   </si>
   <si>
-    <t>Beneficiário, questiona o não recebimento de boleto para pagamento de mensalidade, referente ao mês 03/2023. Interlocutor relata que tentou entrar em contato com a operadora por meio de contato com os telefones: 40201908,40201899,40209091 e 03007893650, todos os dias desde o dia 14/03/2023  em diversos horários, sem sucesso.</t>
-  </si>
-  <si>
-    <t>Beneficiaria  questiona a não cobertura para CONSULTAS PRESENCIAL COM  CARDIOLOGIA, PSIQUIATRA  E GINECOLOGIA . O procedimento foi solicitado à operadora no dia 30/03/2023 para realização no município de Vila Velha/ES. A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. Relata que ofereceu para 17/04/2023 Tele Atendimento e não concorda.Protocolo 36825320230331256489 data 31/03/2023</t>
-  </si>
-  <si>
-    <t>Beneficiária, questiona a não cobertura para OFTAMOLOGISTA, GINECOLOGISTA, PRONTO ATENDIMENTO. O procedimento foi solicitado à operadora no dia 28/02/2023, para realização no município TIMOTEO-MG. A operadora alega que não possui prestador no município para realização/atendimento do serviço de saúde. Protocolo 36825320230403520933 data 03/04/2023 contato por telefone. Beneficiária informa que não existe atendimento no município pela Operadora.</t>
-  </si>
-  <si>
-    <t>Beneficiário, questiona o não atendimento para PSIQUIATRIA e CIRURGIA PLASTICA. Relata que tentou entrar em contato com a Operadora por meio dos telefones 03003133633 ,08002809130 , 40023633 e aplicativo - na data 03/04/2023, em torno das 14:15hs,sem sucesso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No dia 28/03/2023, estive em Belo Horizonte, na clinica Vida Nova, onde eles agendaram a consulta e me informaram via WhatsApp, ao protocolar meu atendimento mais uma vez fui negado, segundo a recepcionista da clinica, meu plano alegou que eu não tinha cobertura de abrangência, para ser atendimento ali. Acionei a polícia militar via 190, para que um Boletim de Ocorrência Policial fosse redigido, e ficasse registrado o transtorno que essa empresa estava me causando. Após varias ligações e por aproximadamente 40 minutos discutindo e brigando com o pessoal da HAP VIDA por telefone, eles autorizaram minha consulta. Por fim o fato mais grave, é que minha esposa, que é minha dependente nesse plano de saúde, está gestante de 5 meses, e todos os exames de ultrassonografia do meu filho que está sendo gerado, estão sendo feitos no Laboratório Hermes Pardini do Bairro Santo Agostinho em Belo Horizonte, pois foi o único lugar que a HAP via autorzou, 50km de distancia da minha casa. </t>
-  </si>
-  <si>
-    <t>Beneficiária questiona a não cobertura para 41301340  URODINÂMICA COMPLETA. O procedimento foi solicitado à operadora no dia 11/02/2023, para realização no município de Belo Horizonte e a operadora indicou prestadores que não realizam o procedimento. Protocolo 36825320230324904457 – data 24/03/2023.</t>
-  </si>
-  <si>
-    <t>Beneficiária, questiona a falta de atendimento para medicamento ruxolitinibe tratamento oncológico continuo mensal  . A solicitação foi feita à Operadora no dia 23/03/2023, para realização no município Betim. A operadora alega que o pedido está em análise e não apresenta resposta ao pedido. Protocolo: 36825320230323941624 – data  : 23/03/2023</t>
-  </si>
-  <si>
-    <t>Boa tarde!_x000D_
+    <t>Beneficiária, questiona a falta de atendimento para Colecistectomia (conforme guia médica), e nome do médico solicitante Dra. Renata. A solicitação foi feita à Operadora no dia 28/02/2023, para realização no município Recife/PE. A operadora alega que o pedido está em análise, cotação de materiais. Conforme relato da beneficiária a operadora alega que será encaminhado o protocolo porém nunca é encaminhado para seu e-mail (RN483), ultimo contato feito no dia data: 03/04/2023, telefone: 3370-7017 por volta do horário 8h17 da manhã.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a falta de atendimento para Cirurgia de cataratas nos olhos direito e esquerdo (conforme guia médica). A solicitação foi feita à Operadora no dia 15/02/2023, para realização no município Recife. A operadora alega que o pedido está em análise. Protocolo 42238020230328457195  – data 28/03/2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> beneficiário], questiona a falta de atendimento para 31305032-OOFOROPLASTIA OU OOFORECTOMIA LAPAROSCÓPICA_x000D_
+31303188-HISTEROSCOPIA COM RESSECTOSCÓPIO PARA MIOMECTOMIA, POLIPECTOMIA, METROPLASTIA, ENDOMETRECTOMIA E RESSECÇÃO DE SINÉQUIAS/31307205-LIBERAÇÃO LAPAROSCÓPICA DE ADERÊNCIAS PÉLVICAS, COM OU SEM RESSECÇÃO DE CISTOS PERITONEAIS OU SALPINGOLISE. A solicitação foi feita à Operadora no dia 07/02/2023, para realização no município Manaus. A operadora alega que o pedido está em análise ou não apresenta resposta ao pedido. Protocolo:  42238020230324451672- data: 24/03/2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
 _x000D_
-Cancelei o plano de saúde da operadora PREMIUM (HAPVIDA) em 10/2022 e agora no mês de 03/2023 tentei entrar em contato pelo Site, Whatsapp, Aplicativo, chat disponibilizado pela operadora  e recebi o retorno que a solicitação deveria ser realizada através dos telefones 4020 1685 ou 0800 290 9130 ou ainda pelo 4020-7813, porém ao tentar contato nestes números a ligação não completa e não estou conseguindo ter acesso ao documento.</t>
-  </si>
-  <si>
-    <t>Beneficiária, questiona a não cobertura para Ultrassonografia morfológica do segundo trimestre para ser realizada com 22 semanas. O procedimento foi solicitado à operadora no dia 01/03/2023, para realização no município Belo Horizonte/MG. A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. Relata que tinha o atendimento agendado para o prestador Clinica CEDUS, porém foi informada em 04/04/2023 que o local estava descredenciado. protocolo 2023040428215835 Data 04/04/2023.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Interlocutora, que se identifica como filha  do beneficiário, questiona a falta de atendimento para HISTEROSCOPIA DIANOSTICA solicitado em 05/2022 para ser realizado em prestador Otaviano Neves  em Belo Horizonte solicitado pelo  Dr .Vinicius CRM  66852  . A operadora apresenta resposta ao pedido. Protocolo: Não fornecido pelo operadora em 03/04/2023</t>
-  </si>
-  <si>
-    <t>Interlocutora, que se identifica como mãe da beneficiária, questiona a falta de atendimento para ADENO-AMIGDALECTOMIA 1x e TURBINECTOMIA OU TURBINOPLASTIA 2x, solicitadas pelo Dra Rubiana F. S. A. Lima . A solicitação foi feita à Operadora no dia 01/03/2023, para realização no município Belo Horizonte-MG. A operadora alega que o pedido está em análise. Protocolo 36825320230301345717 Data: 02/03/2023</t>
-  </si>
-  <si>
-    <t>Interlocutor(a), que se identifica como esposa do beneficiário, questiona a falta de atendimento para papilotomo, CPRE (conforme guia medica), e Wander Campos . A solicitação foi feita à Operadora no dia 20/01/2023, para realização no município Contagem. A operadora alega que o pedido está em análise e não apresenta resposta ao pedido. Protocolo - 368253202302069969703- data 06/02/2023.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beneficiária questiona a falta de atendimento para consulta com a obstetrícia e local para o parto.  Relata que tentou entrar em contato com a  Operadora por meio do telefone 0800 545 3001 na data 17/12/2021, em torno das 16h, sem sucesso. O prestador solicitado como de preferência do beneficiário Clinica Santa Helena, foi descredenciado e não foi disponibilizada outra alternativa de atendimento no mesmo município Florianópolis. A demanda 5478797 foi aberta para apuração do descredenciamento pela DIPRO. Protocolo 41782320211130123662-data: 30/11/2021 .RN 365_x000D_
+_x000D_
+Beneficiária, questiona a não cobertura para _x000D_
+ECG CONVENCIONAL Dr Carlos Guilhermo P.Runcal . O procedimento foi solicitado no dia 16/03/2023 para realização no município Vitoria de santo antão -PE mas o atendimento ainda não foi disponibilizado pois a operadora solicitou exame(s) complementar(es) não requisitado(s) pelo médico  para a análise da autorização. Protocolo 42238020230403467843 Data: 03/04/2023._x000D_
 </t>
   </si>
   <si>
-    <t>Interlocutora que se identifica como mãe do beneficiário, questiona a falta de atendimento para Consulta com Otorrinolaringologista, Audiometria Tonal e Vocal, Impedanciometria, Videoendoscopia nasossinusal. A solicitação foi feita à Operadora no dia 23/03/2023, para realização no município BETIM. A operadora não apresenta resposta ao pedido, informou apenas que buscaria profissional. Protocolo: 3682532023041042947 - Data: 10/04/2023.</t>
-  </si>
-  <si>
-    <t>Interlocutora, que se identifica como esposa  do beneficiário, questiona a falta de atendimento para cartão com orçamento e valores dos matérias para cirurgia  reconstrução do ligamento cruzado anterior  . A solicitação foi feita à Operadora em julho/2022, para realização no município patos de minas . A operadora  não apresenta resposta ao pedido, operadora já lhe encaminhou uma carta mas não esta\ com os valores dos matérias com o hospital deseja    Protocolo:36825320230410426644 data:1/04/2023.</t>
-  </si>
-  <si>
-    <t>minha filha usa NEOCATE desde os 4 meses de idade, foi solicitado o pedido de intolerancia a lactose no dia 22/3/2023 porem nao tenho retorno quando ligo dizem, que pode levar ate 21 dias uteis mas em consulta ao site da ANS esse prazo seria pra procedimentos PAC, que nao e o caso de um exame de sangue para detectar intolerância a lactose, preciso de um retorno visto que o prazo de 10 dias uteis finalizou em 06/04/2023.</t>
-  </si>
-  <si>
-    <t>Solicitei com 10 dias de antecedência a marcação do exame de ultrassonografia endovaginal,na clínica Santa Helena ltda através do plano,ao chegar no estabelecimento no dia do exame a operadora do plano negou meu procedimento alegando que a clinica não estava mais cadastrada,porém não recebi nenhum contanto prévio mesmo estando com o agendamento feito a dias.</t>
-  </si>
-  <si>
-    <t>Beneficiária, questiona a falta de atendimento para exérese ou sutura de linfoma intramuscular (conforme guia médica), e nome do médico solicitante Emerson Melgaço de Castro. A solicitação foi feita à Operadora no dia 13/02/2023, para realização no município Belo Horizonte. A operadora alega que não apresenta resposta ao pedido. Protocolo:36825320230406591901 – data:04/04/2023.</t>
-  </si>
-  <si>
-    <t>Beneficiária, informa que solicitou o cancelamento do plano  por telefone, em 12/4/23, e até a presente data não houve o cancelamento pois é orientada que haverá pré cancelamento de 60 dias para junho ou maio e ela deseja que seja cancelado de imediato. Protocolo não foi informado data 12/4/23.</t>
-  </si>
-  <si>
-    <t>Interlocutora, que se identifica como  mãe beneficiária, questiona o prazo de atendimento para COLONOSCOPIA e ENDOSCOPIA DIGESTIVA ALTA COM BIÓPSIA E/OU CITOLOGIA. A operadora não autorizou o serviço que foi solicitado no dia 22/03/2023 , porem uma clínica credenciada que a beneficiaria procurou e ela  agendou para o dia 17/04/2023 o procedimento, após o prazo máximo previsto na RN nº 566/2022. Protocolo:36825320230412098231 data:12/04/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  beneficiário, questiona a não cobertura para AUDIOMETRIA TONAL E VOCAL, IMPEDANCIOMETRIA (MEDIDAS DE IMITÂNCIA ACÚSTICA, AUDIOMETRIA VOCAL - PESQUISA DE LIMIAR DE DISCRIMINAÇÃO/INTELIGIBILIDADE (LOGOAUDIOMETRIA). O procedimento foi solicitado à operadora no dia 27/03/2023, para realização no município BELO HORIZONTE./ A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. PROTOCOLO:36825320230328334267  DATA:28/03/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interlocutora , que se identifica como esposa do beneficiário, questiona a não cobertura para  ELETRONEUROMIOGRAFIA MMSS. O procedimento foi solicitado à operadora no dia 03/04/2023 , para realização no município Belo Horizonte  a operadora indicou prestadores que não realizam o procedimento. Esta aguardando resposta da operadora. Protocolo: 3682532023046684449 data: 06/04/2023_x000D_
+    <t>No dia 08/03/2023 foi solicitada liberação para cirurgia até o momento não houve nenhum retorno. tentei ligar diversas vezes ontem e hoje e fica sempre em espera até cair a ligação e continuo sem atendimento. Consegui atendimento à noite e se recusaram a dar informação sobre o status da solicitação.</t>
+  </si>
+  <si>
+    <t>Interlocutor, que se identifica como pai  do beneficiário, questiona o não atendimento para Pediatra e continuidade Terapia Ocupacional. Relata que tentou entrar em contato com a Operadora por meio  dos telefones : 3133707017 0800115859 na data 03/04/2023,em horário comercial , sem sucesso.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona o não atendimento para fisioterapia motora (10 sessões) na coluna cervical e lombar e acupuntura na cervical e lombar. Relata que tentou entrar em contato com a Operadora por meio do telefone 0800 111 5859 - na data 04/04/2023, em torno das 16:20 hs, sem sucesso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beneficiário, questiona o não atendimento para BLOQUEIO DE NERVO PERIFÉRICO e INFILTRAÇÃO DE PONTO GATILHO OU AGULHAMENTO SECO_x000D_
+A solicitação foi feita à operadora no dia 24/03/2023, para realização no município Recife  e a operadora  alega divergência dos códigos . Protocolo:42238020230321442578 data: 04/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interlocutora, que se identifica como esposa do beneficiário, questiona a não cobertura para os materiais , para realização do procedimento 30724058 Artroplastia (qualquer técnica ou versão de quadril) - tratamento cirúrgico, 30731089 Tenodese_x000D_
+ solicitado em 12/01/2023.Interlocutora informa que a operadora está fazendo cotação dos matérias e não tem resposta. Protocolo:42238020230328456346 data:28/03/2023._x000D_
+</t>
+  </si>
+  <si>
+    <t>A beneficiária compareceu ao Núcleo ANS PE, onde relatou estar necessitando realizar o procedimento Colangioressonância de Vias Biliares com urgência (laudo médico juntado), sob risco de vida, mas a Operadora está negando o atendimento sob alegação de carência. A situação da beneficiária é gravíssima, conforme atesta o laudo médico, sendo certo que a mesma necessita de internação hospitalar para realização do procedimento mencionado, para avaliação da necessidade de retirada da vesícula em seguida. Solicitação médica juntada. A usuária solicita análise da ANS.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona o não atendimento para fisioterapia, us mamas e us pélvico. Relata que tentou entrar em contato com a Operadora por meio dos telefones 08001115859, 153133606017 e 533196566997 desde a data 03/04/2023, sem sucesso.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe da beneficiária, questiona a falta de atendimento para ENDOSCOPIA DIGESTIVA ALTA, COM BIÓPSIA, COM INTERNAÇÃO. A solicitação foi feita à Operadora há 20 dias, para realização no município RECIFE. A operadora só autorizou o procedimento e não autorizou a internação, alegando que deve ser solicitado pelo hospital, já o hospital informa que a operadora precisa autorizar. Protocolo: 42238020230404469558 de 04/04/2023.</t>
+  </si>
+  <si>
+    <t>Abri um chamado de liberação de usg endovaginal, mamas e axilares, abdomem total e tireoide. O chamado foi dado como concluído porem sem nenhuma devolutiva de liberação confirmada ou negada._x000D_
+Tentei contato por telefone, todavia não atendem, fica apenas chamada em espera até a ligação cair.</t>
+  </si>
+  <si>
+    <t>As duas afetas a este tema são, ausência de oferecimento de profissional que atenda a especialidade médica homeopatia, desde outubro de 2022 venho tentando me consultar com profissional desta área, e não consigo porque a You saúde embora tenha dito que ofereceria todas as especialidades médicas não o faz, em contato com a operadora em outro de 2022, a mesma disse que contrataria profissional para esta finalidade, em novo contato em dezembro de 2022 disse que eu deveria fazer o requerimento no aplicativo, em janeiro de 2019 fiz o requerimento, negaram sob o argumento de faltar encaminhamento médico, o que não é necessário dada à legislação que mencionei acima, em contato com a ouvidoria me disseram que averiguariam a situação com o jurídico e retornariam em 5 dias mas já fazem mais de 40 dias e mesmo tentando contato através do whatsapp passado nada foi resolvido. Os 5 contatos de nutricionistas colocados no app ou não são de nutricionistas ou não tem profissional que atende pelo plano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No dia 22/03/2023 eu solicitei autorização para o exame de colonoscopia com biópsia, já se passaram 10 dias úteis e ainda não foi autorizado </t>
+  </si>
+  <si>
+    <t>Fiz a migração do plano Hapvida para o you saúde,  e foi nos garantido a redução das carências pela corretora de saúde e quando precisei de exames não foi autorizada. Entrei em contato com a you saúde e a administradora Sindfort e não deram solução._x000D_
+Obs entreguei todos os documentos solicitados no início de janeiro e nada. Estou sendo enganado e lesado .</t>
+  </si>
+  <si>
+    <t>Interlocutor(a), que se identifica como MÃE do beneficiário, questiona exclusão de beneficiário do plano, em 20/03/2023, por inadimplência. Informa que houve descumprimento do contrato [especificar cláusula]. Protocolo  42238020230406476927 – data 06/04/23.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beneficiário, questiona a falta de atendimento para COLUNA VERTEBRAL: INFILTRAÇÃO FORAMINAL OU FACETÁRIA OU ARTICULAR. A solicitação foi feita à Operadora no dia 27/02/2023, para realização no município RECIFE. A operadora alega que o pedido está em análise ou não apresenta resposta ao pedido. Protocolo: 347456 - DATA: 27/02/2023.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe  da beneficiária, questiona a falta de atendimento para medicação de pressão intraocular_x000D_
+tacmetria/ gonioscopia/fundoscopia (sob narcovi ) . A solicitação foi feita à Operadora em fevereiro 2023, para realização no município de vila velha, beneficiaria precisa realizar o exame sob narcovi e a operadora não tem prestador que faça mediante solicitação medica.Protocolo: 42238020230330462274 data:30/03/2023</t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona a falta de atendimento para cirurgia de ligamento do tendão de ombro esquerdo( conforme guia médica). A solicitação foi feita à Operadora no dia 07/20/2023, para realização no município Uberlândia/MG. A operadora não apresenta resposta ao pedido. Protocolo 42238020230410480365 data 10/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interlocutora, que se identifica como mãe do beneficiário, questiona a falta de atendimento para 31203060 - ORQUIDOPEXIA,31009360 - HERNIORRAFIA INGUINAL, e nome do médico solicitante DR. Otavio Augusto Fonseca Reis. A solicitação foi feita à Operadora no dia 03/03/2023, para realização no município Belo Horizonte/BH. A operadora alega que o pedido está em auditoria pelo medico, e não apresenta resposta ao pedido. Protocolo: 42238020230410480327 - Data:10/04/2023._x000D_
+</t>
+  </si>
+  <si>
+    <t>Interlocutor, que se identifica como esposo da beneficiária, questiona a não cobertura para  cirurgia de laparoscopia Urgência e Emergência( conforme guia medica)  . O procedimento foi solicitado no dia 10/04/2023, para realização no município Belo Horizonte aonde a beneficiaria esta no Hospital Socor, entretanto, a operadora negou com a justificativa de que a beneficiária está em carência para o procedimento cirúrgico. Protocolo: Urgência e Emergência – data : 10/04/2023</t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona o não atendimento para tomografia abdominal superior e inferior, médico solicitante Dr. Mateus Melo. Relata que tentou entrar em contato com a Operadora por meio  do aplicativo e telefone 021 3133707017 - desde 01/04/2023, no decorrer do dia -, sem sucesso.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a falta de atendimento para ULTRASSONOGRAFIA TIREÓIDE, ULTRASSONOGRAFIA DE MAMA,ULTRASSONOGRAFIA DE ABDOME TOTAL, ULTRASSONOGRAFIA VADINAL, MAMOGRAFIA CONVENCIONAL e DENSITOMETRIA ÓSSEA - QUALQUER SEGMENTO em regime ambulatorial. A solicitação foi feita à Operadora no dia 23/03/2023, para realização no município Cabo de Santo Agostinho/Pe. A operadora não apresenta resposta ao pedido. Protocolo 42238020230323449141 23/03/2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boa tarde mandei uns exames para autorização desde o dia 21/03/2023 que está em análise preciso fazer urgente esses exames e até agora nada de autoriza </t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a não cobertura para colposcopia e  citologia. O procedimento foi solicitado à operadora no dia 01/2023 , para realização no município Recife e a operadora indicou prestadores que não realizam o procedimento. Protocolo:42238020230410479471- data 10/04/2023</t>
+  </si>
+  <si>
+    <t>Beneficiário  questiona a não cobertura para os materiais , para realização do procedimento HISTERECTOMIA TOTAL(conforme pedido medico)_x000D_
+, solicitado em 02/02/2023. Interlocutora informa que medico Dr doutor Sebastião do Hospital Check up não trabalha com o fornecedor da Operadora. Interlocutora informa que não foi disponibilizado nenhum protocolo de atendimento.</t>
+  </si>
+  <si>
+    <t>Interlocutora que se identifica como esposa do beneficiário questiona a não cobertura para MANOMETRIA  O procedimento foi solicitado à operadora no dia 01/10/2022 para realização no município Vitória, Cariacica, Serra ou Vila Velha/ES. A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. Protocolo:42238020230320439339 - Data: 20/03/2023.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe do beneficiário, questiona a falta de atendimento para exame de Bera com sedação (conforme guia médica), e nome do médico solicitante Dr. Rodrigo Corsino. A solicitação foi feita à Operadora no mês 01/2023, para realização no município Cariacica/ES. A operadora alega que o pedido está em análise, pois não localizou ainda uma rede credenciada para atendimento. Acrescenta que a operadora forneceu a opção do reembolso mas o valor do exame é de R$ 2.400,00, e após aguardar aproximadamente 3 meses a operadora ainda não apresentou respostas, conforme relato. Protocolo: 42238020230302406468 data: 07/03/2023 - deseja acrescentar: 42238020230410479400.</t>
+  </si>
+  <si>
+    <t>_x000D_
+Interlocutor(a), que se identifica como mãe  do beneficiário, questiona a falta de atendimento para CONSULTA COM PSICOLOGO  A solicitação foi feita à Operadora no dia 26/01/2023 para realização no município  de Uberlândia/MG. A operadora não apresenta resposta ao pedido. Protocolo 42238020230206367392   data 06/02/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficiária, questiona o não atendimento para Atendimento de urgência/emergência. Relata que tentou entrar em contato com a Operadora por meio  dos telefones 3370-6017 / 0800 111 5859 - na data 13/04/2023, em torno das 8h, sem sucesso. Questiona também que o resultado dos exames, realizados há 15 dias, ainda não foram disponibilizados no APP._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficiário, questiona o prazo de atendimento para usg orgão superficiais. A operadora autorizou o serviço e não agendou dentro do prazo máximo previsto na RN nº 566/2022. Protocolo 42238020230322445573 data: 22/03/2023._x000D_
 _x000D_
 </t>
   </si>
   <si>
-    <t>Interlocutora, que se identifica como mãe da beneficiária, questiona a não cobertura para consulta com endocrinologista  . O procedimento foi solicitado à operadora no mês 03/2023 , para realização no município Belo Horizonte . A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. Protocolo : 36825320230330977433  Data : 30/03/2023</t>
-  </si>
-  <si>
-    <t>Interlocutora, que se identifica como filha do beneficiário, questiona a falta de atendimento para RM - Multiparamétrica transretal da próstata. A solicitação foi feita à Operadora no dia 14/03/2023, para realização no município Belo Horizonte. A operadora não apresenta resposta ao pedido. Protocolo 36825320230412185311 DATA:12/04/2023.</t>
-  </si>
-  <si>
-    <t>Beneficiária, informa que solicitou à operadora, em 01/03/2023, a exclusão em plano coletivo empresarial Compacta Benefícios, 30/03/202. Até a presente data não houve a exclusão. Relata que recebeu boleto de mensalidade de Abril/2023 para pagamento. Relata que o contato com a operadora foi através de carta (a mão conforme solicitação da operadora), por e-mail, não foi fornecido protocolo.</t>
-  </si>
-  <si>
-    <t>Interlocutora, que se identifica como mãe da beneficiária, questiona a não cobertura para nefrologia que atenda criança e nome do médico solicitante Gilmar Ferraz. O procedimento foi solicitado à operadora no dia 03/2023, para realização no município Belo Horizonte e a operadora indicou prestadores que não realizam o procedimento, operadora indicou prestador que não atende operadora da beneficiária. Protocolo 36825320230414258578 – data 14/04/2023.</t>
-  </si>
-  <si>
-    <t>Interlocutor, que se identifica como marido da beneficiária, questiona a falta de atendimento para 3 X ULTRASSON COM DOPPLER (como escrito em guia pelo medico), e nome do médico solicitante Dr. Luiza. A solicitação foi feita à Operadora no dia 10/03/2023, para realização no município Belo horizonte. A operadora só autorizou um procedimento , mas interlocutor relata que são três por se tratar de uma gestação trigemelar Protocolo nº: não foi fornecido pela operadora pela atendente Lorena em contato telefônico - Data: 14/04/2023.</t>
-  </si>
-  <si>
-    <t>Interlocutora, que se identifica como mãe  do beneficiário, questiona o não atendimento para CONSULTA COM PEDIATRA E EXAMES LABORATORIOS HEMOGRAMA PCR VHF , FERRO , DOSAGEM DE VITAMINA Z , ZINCO , SELENIO , FERRENTINA , GLICEMIA PSH , IGE TOTAL , IGE ESPECIFICA . A solicitação foi feita à Operadora no dia 29/03/2023 , no município Montes Claros  e o agendamento foi realizado para o município Uberaba e Uberlândia . Protocolo 36825320230404294472 DATA 04/04/2023 .</t>
-  </si>
-  <si>
-    <t>Tinha plano pessoa física da promed e transferi para pessoa jurídica, porém no ato da contratação eu entrei na carência de congêneres. Só o parto e terapias que entrei com 180 dias de carência. _x000D_
-Porém o plano de saúde me retornou falando que por motivo de carência não posso realizar o exame, só posso solicitar Apartir do dia 29/05/2023. _x000D_
-Protocolo: 36825320230327813804._x000D_
-Gostaria que resolver a minha situação estou com urgência.</t>
-  </si>
-  <si>
-    <t>Interlocutora, que se identifica como filha do beneficiário, questiona a falta de atendimento para ANGIOPLASTIA TRANSLUMINAL PERCUTÂNEA. A solicitação foi feita à Operadora no dia 16/03/2023, para realização no município Belo Horizonte. A operadora alega que o pedido está em análise e não apresenta resposta ao pedido. Protocolo 36825320230313237068 – data 16/03/2023.</t>
-  </si>
-  <si>
-    <t>Beneficiária, questiona a falta de atendimento para 31303129 HISTERECTOMIA TOTAL COM ANEXECTOMIA (VIA ALTA OU BAIXA). A solicitação foi feita à Operadora no dia 09/02/2023, para realização no município Contagem. A operadora não apresenta resposta ao pedido. Protocolo 36825320230114075499 – data 14/03/2023.</t>
-  </si>
-  <si>
-    <t>Beneficiário questiona a cobrança de mensalidade em duplicidade. Relata que contratou o plano na modalidade "pré-pago" e, ao solicitar cancelamento do plano, foi cobrado a mensalidade referente ao mês 04/2023, que já foi paga em 20/03/2023. Beneficiário informa que entrou em contato com OPS, através do telefone 4020-1685, na data 05/04/2023, mas foi informado de que seria um atendimento informativo e não teria gerado protocolo.</t>
-  </si>
-  <si>
-    <t>SIM</t>
+    <t>Beneficiária, questiona a falta de atendimento para bloqueio de nervo periférico(conforme guia médica)   punção vascular(conforme guia médica) , e nome do médico solicitante não tem. A solicitação foi feita à Operadora no dia 21/01/2023, para realização no município Recife. A operadora alega que o pedido está em análise. Protocolo 42238020230327454044  – data 27/03/2023.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como  mãe da beneficiária, questiona a não cobertura para Atendimento de urgência pediátrico. O procedimento foi solicitado à operadora no dia 13/04/2023, para realização no município Recife- PE e a operadora indicou prestadores que não realizam o procedimento. Protocolo 42238020230413488878 data: 13/04/2023 .</t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona a falta de atendimento para CPO -CIRURGICO DE VARIZES MMI(Varizes - tratamento cirúrgico de dois membros)  . A solicitação foi feita à Operadora no dia 04/03/2023 , para realização no município Recife, PE. A operadora alega que o pedido está em análise e não apresenta resposta ao pedido. Protocolo: 4223802023041248441  – data 12/04/2023</t>
+  </si>
+  <si>
+    <t>Interlocutor, que se identifica como esposo da beneficiária questiona o não atendimento para Urgência e emergência em pronto atendimento. Ressalta que a beneficiária é gestante. A solicitação foi feita à Operadora em 03/2023, no município São Mateus e o agendamento foi realizado para o município Vitória. Protocolo 422380202304134894444 Data 13/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precisei ser atendida na emergência do Hospital Português no Recife e a médica solicitou uma tomografia. Fiz o exame normalmente, não fui informada de nenhuma negativa por parte do plano, mas agora o Hospital quer que eu pague 800,00 reais pelo exame, pois o plano negou a autorização. Só que o exame foi feito. _x000D_
+Logo após observar o exame, a médica pediu meu internamento para tratamento de uma pielonefrite, mas o plano negou o internamento. _x000D_
+O documento que o hospital envia me cobrando é da negativa do internamento. Não do exame. </t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a não cobertura para os material  JOGO TUBO ALTA DIPOLAR , para realização do procedimento COLOCAÇÃO DE DIU , solicitado em 16/03/2023 . Protocolo  42238020230412484463 DATA 12/04/2023</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe do beneficiário, questiona a falta de atendimento para Pronto Atendimento. A solicitação foi feita à Operadora no dia 13/04/2023, para realização no município Recife. A operadora não apresenta resposta ao pedido. Protocolo: 42238020230413488611   data: 13/04/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiária questiona a não cobertura para Ortopedista em caráter de urgência em pronto atendimento. O procedimento foi solicitado à operadora no dia 14/04/2023 para realização no município Recife. A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. Protocolo - A operadora não informou Data 14/04/2023</t>
+  </si>
+  <si>
+    <t>SOLICITEI AUTORIZAÇÃO DE EXAME DE RESSONACIA MAGNETICA  SOB PROT 42238020230414490589, PARA SER REALIZADO EM SUA REDE CREDENCIADA ( SANTA JOANA DIAGNOSTIGO) POREM A MESMO  PRE DETERMINOU LOCAL DE REALIZAÇÃO, MESMO TEM CONVENIO COM O SANTA JOANA, NÃO PERMITIDO QUE O CLIENTE ESCOLA O PRESTADO DE ACORDO COM A REDE QUE O PLANO DE SAUDE OFERECE EM SUA REDE DE CREDENCIADOS, TOLHINDO O DIREITO DE ESCOLHA DO CLIENTE DE ESCOLHAR UM PRESTADO DENTRO DA REDE CREDENCIADA DO PLANO DE SAUDE._x000D_
+O MESMO OCORREU COM MEU DEPEDENTE, O EXAME FOI MARCADO PARA UM DOMINGO  PARA O SANTA JOANA QUE CONFIRMOU QUE ATENDIA O PLANO DE SAUDE E QUANDO CHEGOU LÁ , TIVE QUE ENTRAR EM CONTATO COM O PLANO POQUE A SENHA DE AUTORIZAÇÃO NÃO APARECIA EM SEU SISTEMA E QUANDO LIGUEI ESTAVA PARA OUTRA LOCAL JÁ DETERMIDADO , EM DADO MOMENTO O RAPAZ REALIZOU A TROCA DO PARA O SANTA JOANA E O EXAME FOI REALIZADO_x000D_
+LIGUE 6 X PARA O SAC E A OUVIDORIA E AS MESMA NÃO ATENDE, FAZEM O CLEINTE ESPERAR  POR MAIS DE 20 MIM, SEM OBTER ATENDIMENT</t>
+  </si>
+  <si>
+    <t>Beneficiária questiona o não atendimento para Clínico Geral para atendimento em pronto socorro. Relata que tentou entrar em contato com a Operadora por meio dos telefones 3370-7017 /  08001115859  - na data 14/04/2023, sem sucesso.</t>
+  </si>
+  <si>
+    <t>SOLICITADO COM ANEXO DO PEDIDO MÉDICO A RESSONÂNCIA DOS JOELHOS ONDE DESDE 28/02 NÃO TIVE RESPOSTA. A SOLICITAÇÃO ABERTA ELES DEIXAM STATUS COMO CONCLUÍDO PORÉM NA RESPOSTA ELES COLOCAM QUE ESTÁ SENDO AVALIADO PELA EQUIPE DE AUDITORIA E QUE O PRAZO É DE 21 DIAS ÚTEIS E ATÉ O MOMENTO SEM RETORNO. ABRIR UM CHAMADO NA OUVIDORIA DO YOU TAMBÉM NÃO TIVE RESPOSTAS. ESTOU PRECISANDO DO EXAME E NEM UM RETORNO AO CLIENTE. ELES PRECISAM ATENTAR QUE 21 DIAS ÚTEIS É O PRAZO MÁXIMO. ABRIR OUTRO PROTOCOLO EM 13/04 QUESTIONANDO O RETORNO E ATÉ O MOMENTO TAMBÉM SEM RESPOSTAS, DESTA FORMA, PRECISEI APELAR VIA ANS.</t>
+  </si>
+  <si>
+    <t>SOLICITADO COM ANEXO DO PEDIDO MÉDICO A USG ABDOMEN TOTAL E ENDOVAGINAL ONDE DESDE 10/03 NÃO TIVE RESPOSTA. A SOLICITAÇÃO ABERTA ELES DEIXAM STATUS COMO CONCLUÍDO PORÉM NA RESPOSTA ELES COLOCAM QUE ESTÁ SENDO AVALIADO PELA EQUIPE DE AUDITORIA E QUE O PRAZO É DE 10 DIAS ÚTEIS E ATÉ O MOMENTO SEM RETORNO. ABRIR UM CHAMADO NA OUVIDORIA DO YOU TAMBÉM NÃO TIVE RESPOSTAS. ESTOU PRECISANDO DOS EXAMES E NEM UM RETORNO AO CLIENTE.  ABRIR OUTRO PROTOCOLO EM 13/04 QUESTIONANDO O RETORNO E ATÉ O MOMENTO TAMBÉM SEM RESPOSTAS, DESTA FORMA, PRECISEI APELAR VIA ANS.</t>
+  </si>
+  <si>
+    <t>Interlocutor que se identifica como filho da beneficiária questiona a não cobertura para ENDOCRINOLOGIA E METABOLOGIA, com Dra Gabriela Amanda da Silva Moreira. O atendimento foi solicitado à operadora no dia 04/03/2023 para realização no município Recife/PE.  A operadora descredenciou a profissional e outros serviços do Hospital Santa Joana e até o momento não apresentou outro prestador para realizar o atendimento. Protocolo: 42238020230417494595.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a falta de atendimento para 31005470 Colecistectomia com colangiografia por videolaparoscopia. A solicitação foi feita à Operadora no dia 13/03/2023, para realização no município Recife. A operadora alega que o pedido está em análise [. Protocolo 42538020234417495047 - data  07/04/2023</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como beneficiária, questiona a falta de atendimento para histerectomia. A solicitação foi feita à Operadora no dia 03/2023, para realização no município Recife/PE. A operadora alega que o pedido está em análise . Protocolo 42238020230417495000 data 17/04/2023</t>
+  </si>
+  <si>
+    <t>Foi solicitado a autorização dos exames mencionados acima porém, o qual o plano de saúde disse que o prazo seria 10 dias úteis para resposta, que depois de muitas ligações ele diz que não pode autorizar por falta de data na solicitação médica. _x000D_
+Desde quando isso detalhe é motivo de negativa de uma solicitação?</t>
+  </si>
+  <si>
+    <t>Interlocutor, que se identifica como  pai do beneficiário, questiona a não cobertura para psicóloga ,fonoaudiólogo, terapia ocupacional, psicomotricidade método aba , pneumologista  e alergologista . A operadora indicou os prestadores  e nenhum profissional tem agenda disponível para atendimento. O procedimento foi solicitado à operadora desde o mês 01/2023, para realização no município Abreu e Lima. Protocolo 42238020230417495261 – data : 17/04/2023.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe da beneficiária, questiona a falta de atendimento para 40202038 ENDOSCOPIA DIGESTIVA ALTA COM BIÓPSIA E/OU CITOLOGIA, Solicitante DR FABIO MENEZES DE MELO. A solicitação foi feita à Operadora no dia 27/03/2023, para realização no município JABOATÃO DOS GARARAPES-PE. A operadora alega que o pedido está em análise e não apresenta resposta ao pedido. _x000D_
+Protocolo 42238020230327454875 data 27/03/2023 contato por telefone.</t>
+  </si>
+  <si>
+    <t>Interlocutor, que se identifica como pai da beneficiária questiona a falta de atendimento para Adenoidectomia por videoendoscopia, Amigdalectomia das palatinas, Timpanotomia para tubo de ventilação - unilateral e Turbinectomia ou turbinoplastia - unilateral. A solicitação foi feita à Operadora no dia 08/03/2023 para realização no município Recife. A operadora alega que o pedido está em cotação de materiais. Protocolo 42238020230417495889 Data 17/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A documentação da cirurgia foi entregue ao Hospital Santa Joana em 02/02/23. A operadora You Saúde, recebeu a solicitação de autorização do hospital em 02/03/23. Ao questionar ao hospital sobre a demora de 1 mês para o envio da autorização para o plano, fui informada que pelas regras da You Saúde, em casos de material solicitado pelo médico pede-se o mínimo de 3 cotações com empresas distintas antes de enviar a solicitação de autorização. A morosidade já começou daí. O hospital teve dificuldade em fazer as cotações e em achar fornecedor que aceite receber pela You Saúde. O prazo máximo de 21 dias para autorização do procedimento foi até 30/03/2023.Até a presente data o procedimento ainda não foi autorizado. Liguei em 15/04/2023 para a You Saúde que informou que o procedimento ainda não foi autorizado porquê o hospital não retornou o contato sobre um documento pendente. O hospital não atende no setor de cirurgias. E eu, que estou precisando realizar a cirurgia, fico neste impasse. </t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona suspensão, em 01/2023, por inadimplência. Relata que houve negativa de atendimento para atendimento em Pronto socorro em 17/04/2023, No município de Belo Horizonte no Prestador Mater Day. Contato não gerou protocolo com a operadora no telefone 33707017</t>
+  </si>
+  <si>
+    <t>Interlocutor que se identifica como esposo da beneficiária, questiona suspensão, em 01/2023, por inadimplência. Relata que houve negativa de atendimento para atendimento em Pronto socorro em 17/04/2023, No município de Belo Horizonte no Prestador Mater Day. Contato não gerou protocolo com a operadora no telefone 33707017</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona o não atendimento para Reumatologia, informa também que as consultas agendadas estão sendo canceladas. Relata que tentou entrar em contato com a Operadora por meio do telefones 0800 1115859 e pelo CHAT da operadora - na data 18/04/2023 , em torno das 9:30h, sem sucesso.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe do beneficiário, questiona a não cobertura para consulta no pronto socorro. A solicitação foi feita à operadora no dia 15/04/2023, mas a mesma negou alegando que possui um atraso de 21 dias no pagamento da mensalidade. Protocolo: 42238020230415493191 data: 15/04/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona o não atendimento para mamografia, densitometria óssea, cocoscopia oncótica, ultrassonografia da mama e axila , ultra endovaginal , eco cardiograma transtoracico, teste ergométrico. Fez o pedido pelo app 28/03/2023.Relata que tentou entrar em contato com a Operadora por meio do telefone 08001115859 na data 27/03/2023 , em torno de 15:30, sem sucesso.</t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona o prazo de atendimento para 30208041 - Osteotomias segmentares da maxila ou malar, 30208050 - Osteotomia tipo Lefort, 30208025 - Osteoplastia para prognatismo, micrognatismo ou laterognatismo e 30209021 - Osteoplastias de mandíbula, solicitado em 31/01/2023. A operadora autorizou o serviço e agendou para o dia 18/04/2023. A operadora relata que ainda está fazendo negociação com fornecedores, sendo que já passou o prazo máximo previsto na RN nº 566/2022. Protocolo: 42238020230329458864 – Data:29/03/2023.</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
+    <t>Assistencial</t>
+  </si>
+  <si>
     <t>No Assistencial</t>
-  </si>
-  <si>
-    <t>Assistencial</t>
   </si>
 </sst>
 </file>
@@ -830,13 +1149,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,94 +1189,103 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -966,13 +1294,13 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
@@ -984,308 +1312,305 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
-        <v>45016.65592592592</v>
+        <v>45019.40402777777</v>
       </c>
       <c r="E9">
-        <v>12151325</v>
+        <v>12152365</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>145</v>
+        <v>247</v>
       </c>
       <c r="L9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2">
-        <v>45016.68766203704</v>
+        <v>45019.58508101852</v>
       </c>
       <c r="E10">
-        <v>12151461</v>
+        <v>12153268</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>247</v>
       </c>
       <c r="L10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2">
-        <v>45019.57253472223</v>
+        <v>45019.79054398148</v>
       </c>
       <c r="E11">
-        <v>12153205</v>
+        <v>12154201</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
-        <v>45019.61603009259</v>
+        <v>45020.39399305556</v>
       </c>
       <c r="E12">
-        <v>12153463</v>
+        <v>12154563</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
-        <v>45019.64255787037</v>
+        <v>45020.48076388889</v>
       </c>
       <c r="E13">
-        <v>12153630</v>
+        <v>12154995</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2">
-        <v>45019.82728009259</v>
+        <v>45020.62350694444</v>
       </c>
       <c r="E14">
-        <v>12154294</v>
+        <v>12155773</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2">
-        <v>45020.40943287037</v>
+        <v>45020.70290509259</v>
       </c>
       <c r="E15">
-        <v>12154631</v>
+        <v>12156156</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2">
-        <v>45020.60085648148</v>
+        <v>45020.74233796296</v>
       </c>
       <c r="E16">
-        <v>12155655</v>
+        <v>12156297</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1293,37 +1618,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2">
-        <v>45020.60927083333</v>
+        <v>45021.38717592593</v>
       </c>
       <c r="E17">
-        <v>12155706</v>
+        <v>12156771</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="J17">
         <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1331,37 +1656,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2">
-        <v>45020.61450231481</v>
+        <v>45021.40170138889</v>
       </c>
       <c r="E18">
-        <v>12155732</v>
+        <v>12156826</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="I18" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="J18">
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1369,37 +1694,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2">
-        <v>45020.69599537037</v>
+        <v>45021.46842592592</v>
       </c>
       <c r="E19">
-        <v>12156130</v>
+        <v>12157160</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L19" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1407,37 +1732,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2">
-        <v>45021.60149305555</v>
+        <v>45021.62362268518</v>
       </c>
       <c r="E20">
-        <v>12157899</v>
+        <v>12158020</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="I20" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L20" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1445,37 +1770,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2">
-        <v>45022.54434027777</v>
+        <v>45021.71959490741</v>
       </c>
       <c r="E21">
-        <v>12159646</v>
+        <v>12158435</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="I21" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L21" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1483,37 +1808,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2">
-        <v>45026.38854166667</v>
+        <v>45021.77622685185</v>
       </c>
       <c r="E22">
-        <v>12161100</v>
+        <v>12158576</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="I22" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L22" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1521,37 +1846,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2">
-        <v>45026.44988425926</v>
+        <v>45022.40521990741</v>
       </c>
       <c r="E23">
-        <v>12161386</v>
+        <v>12159014</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="I23" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K23" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1559,37 +1884,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2">
-        <v>45027.36063657407</v>
+        <v>45022.71378472223</v>
       </c>
       <c r="E24">
-        <v>12163407</v>
+        <v>12160376</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K24" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1597,37 +1922,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2">
-        <v>45027.46474537037</v>
+        <v>45026.3640162037</v>
       </c>
       <c r="E25">
-        <v>12163869</v>
+        <v>12161017</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="I25" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1635,37 +1960,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2">
-        <v>45028.37364583334</v>
+        <v>45026.49755787037</v>
       </c>
       <c r="E26">
-        <v>12165805</v>
+        <v>12161650</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="J26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1673,37 +1998,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2">
-        <v>45028.44333333334</v>
+        <v>45026.55969907407</v>
       </c>
       <c r="E27">
-        <v>12166069</v>
+        <v>12162010</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="H27" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K27" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1711,37 +2036,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2">
-        <v>45028.61457175926</v>
+        <v>45026.6209375</v>
       </c>
       <c r="E28">
-        <v>12167081</v>
+        <v>12162415</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="J28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K28" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1749,37 +2074,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2">
-        <v>45028.62655092592</v>
+        <v>45026.62501157408</v>
       </c>
       <c r="E29">
-        <v>12167165</v>
+        <v>12162439</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="I29" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="J29">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1787,37 +2112,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2">
-        <v>45028.73353009259</v>
+        <v>45027.34930555556</v>
       </c>
       <c r="E30">
-        <v>12167700</v>
+        <v>12163370</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="H30" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="J30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1825,37 +2150,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2">
-        <v>45029.42144675926</v>
+        <v>45027.39893518519</v>
       </c>
       <c r="E31">
-        <v>12168346</v>
+        <v>12163535</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="H31" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="I31" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1863,37 +2188,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2">
-        <v>45029.65606481482</v>
+        <v>45027.57700231481</v>
       </c>
       <c r="E32">
-        <v>12169638</v>
+        <v>12164502</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="I32" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="J32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1901,37 +2226,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2">
-        <v>45029.71498842593</v>
+        <v>45027.63116898148</v>
       </c>
       <c r="E33">
-        <v>12169885</v>
+        <v>12164852</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="H33" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="I33" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="J33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1939,37 +2264,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2">
-        <v>45030.44865740741</v>
+        <v>45027.70627314815</v>
       </c>
       <c r="E34">
-        <v>12170717</v>
+        <v>12165245</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="H34" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="I34" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="J34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L34" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1977,37 +2302,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2">
-        <v>45030.47511574074</v>
+        <v>45028.49978009259</v>
       </c>
       <c r="E35">
-        <v>12170838</v>
+        <v>12166383</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="H35" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="I35" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="J35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K35" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2015,34 +2340,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2">
-        <v>45030.63180555555</v>
+        <v>45028.50217592593</v>
       </c>
       <c r="E36">
-        <v>12171665</v>
+        <v>12166396</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>104</v>
+      </c>
+      <c r="H36" t="s">
+        <v>159</v>
       </c>
       <c r="I36" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="J36">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K36" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L36" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2050,37 +2378,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2">
-        <v>45033.56813657407</v>
+        <v>45028.65506944444</v>
       </c>
       <c r="E37">
-        <v>12173695</v>
+        <v>12167333</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="H37" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="I37" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="J37">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K37" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2088,37 +2416,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2">
-        <v>45033.67921296296</v>
+        <v>45028.67699074074</v>
       </c>
       <c r="E38">
-        <v>12174445</v>
+        <v>12167445</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="H38" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="I38" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="J38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K38" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L38" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2126,37 +2454,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2">
-        <v>45033.73219907407</v>
+        <v>45029.349375</v>
       </c>
       <c r="E39">
-        <v>12174676</v>
+        <v>12168095</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="H39" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="I39" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="J39">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K39" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="L39" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2164,37 +2492,1022 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2">
-        <v>45033.76369212963</v>
+        <v>45029.4878125</v>
       </c>
       <c r="E40">
-        <v>12174795</v>
+        <v>12168687</v>
       </c>
       <c r="F40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40" t="s">
+        <v>220</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40" t="s">
+        <v>247</v>
+      </c>
+      <c r="L40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45029.56003472222</v>
+      </c>
+      <c r="E41">
+        <v>12169086</v>
+      </c>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" t="s">
+        <v>164</v>
+      </c>
+      <c r="I41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41" t="s">
+        <v>247</v>
+      </c>
+      <c r="L41" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45029.63378472222</v>
+      </c>
+      <c r="E42">
+        <v>12169516</v>
+      </c>
+      <c r="F42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I42" t="s">
+        <v>222</v>
+      </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42" t="s">
+        <v>247</v>
+      </c>
+      <c r="L42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45029.69349537037</v>
+      </c>
+      <c r="E43">
+        <v>12169806</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" t="s">
+        <v>223</v>
+      </c>
+      <c r="J43">
+        <v>8</v>
+      </c>
+      <c r="K43" t="s">
+        <v>247</v>
+      </c>
+      <c r="L43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45029.69927083333</v>
+      </c>
+      <c r="E44">
+        <v>12169830</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" t="s">
+        <v>167</v>
+      </c>
+      <c r="I44" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
+      <c r="K44" t="s">
+        <v>247</v>
+      </c>
+      <c r="L44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45029.70760416667</v>
+      </c>
+      <c r="E45">
+        <v>12169862</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" t="s">
+        <v>168</v>
+      </c>
+      <c r="I45" t="s">
+        <v>225</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+      <c r="K45" t="s">
+        <v>247</v>
+      </c>
+      <c r="L45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45029.76229166667</v>
+      </c>
+      <c r="E46">
+        <v>12170051</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" t="s">
+        <v>114</v>
+      </c>
+      <c r="H46" t="s">
+        <v>169</v>
+      </c>
+      <c r="I46" t="s">
+        <v>226</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46" t="s">
+        <v>247</v>
+      </c>
+      <c r="L46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45030.37834490741</v>
+      </c>
+      <c r="E47">
+        <v>12170407</v>
+      </c>
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" t="s">
+        <v>115</v>
+      </c>
+      <c r="I47" t="s">
+        <v>227</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+      <c r="K47" t="s">
+        <v>247</v>
+      </c>
+      <c r="L47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45030.68010416667</v>
+      </c>
+      <c r="E48">
+        <v>12171907</v>
+      </c>
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" t="s">
+        <v>170</v>
+      </c>
+      <c r="I48" t="s">
+        <v>228</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+      <c r="K48" t="s">
+        <v>247</v>
+      </c>
+      <c r="L48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="G40" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" t="s">
-        <v>111</v>
-      </c>
-      <c r="I40" t="s">
-        <v>144</v>
-      </c>
-      <c r="J40">
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45030.69832175926</v>
+      </c>
+      <c r="E49">
+        <v>12171995</v>
+      </c>
+      <c r="F49" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" t="s">
+        <v>171</v>
+      </c>
+      <c r="I49" t="s">
+        <v>229</v>
+      </c>
+      <c r="J49">
+        <v>9</v>
+      </c>
+      <c r="K49" t="s">
+        <v>247</v>
+      </c>
+      <c r="L49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45030.81541666666</v>
+      </c>
+      <c r="E50">
+        <v>12172275</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" t="s">
+        <v>172</v>
+      </c>
+      <c r="I50" t="s">
+        <v>230</v>
+      </c>
+      <c r="J50">
+        <v>9</v>
+      </c>
+      <c r="K50" t="s">
+        <v>247</v>
+      </c>
+      <c r="L50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45033.41063657407</v>
+      </c>
+      <c r="E51">
+        <v>12172837</v>
+      </c>
+      <c r="F51" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" t="s">
+        <v>173</v>
+      </c>
+      <c r="I51" t="s">
+        <v>231</v>
+      </c>
+      <c r="J51">
         <v>10</v>
       </c>
-      <c r="K40" t="s">
-        <v>146</v>
-      </c>
-      <c r="L40" t="s">
-        <v>147</v>
+      <c r="K51" t="s">
+        <v>247</v>
+      </c>
+      <c r="L51" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="2">
+        <v>45033.41476851852</v>
+      </c>
+      <c r="E52">
+        <v>12172860</v>
+      </c>
+      <c r="F52" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52" t="s">
+        <v>232</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52" t="s">
+        <v>247</v>
+      </c>
+      <c r="L52" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45033.46383101852</v>
+      </c>
+      <c r="E53">
+        <v>12173082</v>
+      </c>
+      <c r="F53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" t="s">
+        <v>120</v>
+      </c>
+      <c r="H53" t="s">
+        <v>174</v>
+      </c>
+      <c r="I53" t="s">
+        <v>233</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53" t="s">
+        <v>247</v>
+      </c>
+      <c r="L53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45033.53398148148</v>
+      </c>
+      <c r="E54">
+        <v>12173476</v>
+      </c>
+      <c r="F54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" t="s">
+        <v>175</v>
+      </c>
+      <c r="I54" t="s">
+        <v>234</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54" t="s">
+        <v>247</v>
+      </c>
+      <c r="L54" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45033.55947916667</v>
+      </c>
+      <c r="E55">
+        <v>12173633</v>
+      </c>
+      <c r="F55" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" t="s">
+        <v>176</v>
+      </c>
+      <c r="I55" t="s">
+        <v>235</v>
+      </c>
+      <c r="J55">
+        <v>10</v>
+      </c>
+      <c r="K55" t="s">
+        <v>247</v>
+      </c>
+      <c r="L55" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45033.57063657408</v>
+      </c>
+      <c r="E56">
+        <v>12173717</v>
+      </c>
+      <c r="F56" t="s">
+        <v>67</v>
+      </c>
+      <c r="G56" t="s">
+        <v>123</v>
+      </c>
+      <c r="H56" t="s">
+        <v>177</v>
+      </c>
+      <c r="I56" t="s">
+        <v>236</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56" t="s">
+        <v>247</v>
+      </c>
+      <c r="L56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45033.58219907407</v>
+      </c>
+      <c r="E57">
+        <v>12173788</v>
+      </c>
+      <c r="F57" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" t="s">
+        <v>178</v>
+      </c>
+      <c r="I57" t="s">
+        <v>237</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="K57" t="s">
+        <v>247</v>
+      </c>
+      <c r="L57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45033.66788194444</v>
+      </c>
+      <c r="E58">
+        <v>12174377</v>
+      </c>
+      <c r="F58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" t="s">
+        <v>179</v>
+      </c>
+      <c r="I58" t="s">
+        <v>238</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58" t="s">
+        <v>247</v>
+      </c>
+      <c r="L58" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45033.70738425926</v>
+      </c>
+      <c r="E59">
+        <v>12174582</v>
+      </c>
+      <c r="F59" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" t="s">
+        <v>126</v>
+      </c>
+      <c r="H59" t="s">
+        <v>180</v>
+      </c>
+      <c r="I59" t="s">
+        <v>239</v>
+      </c>
+      <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59" t="s">
+        <v>247</v>
+      </c>
+      <c r="L59" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45033.89607638889</v>
+      </c>
+      <c r="E60">
+        <v>12175019</v>
+      </c>
+      <c r="F60" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" t="s">
+        <v>127</v>
+      </c>
+      <c r="H60" t="s">
+        <v>181</v>
+      </c>
+      <c r="I60" t="s">
+        <v>240</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60" t="s">
+        <v>247</v>
+      </c>
+      <c r="L60" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45034.37311342593</v>
+      </c>
+      <c r="E61">
+        <v>12175201</v>
+      </c>
+      <c r="F61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" t="s">
+        <v>128</v>
+      </c>
+      <c r="H61" t="s">
+        <v>182</v>
+      </c>
+      <c r="I61" t="s">
+        <v>241</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61" t="s">
+        <v>247</v>
+      </c>
+      <c r="L61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45034.37660879629</v>
+      </c>
+      <c r="E62">
+        <v>12175213</v>
+      </c>
+      <c r="F62" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" t="s">
+        <v>129</v>
+      </c>
+      <c r="H62" t="s">
+        <v>183</v>
+      </c>
+      <c r="I62" t="s">
+        <v>242</v>
+      </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62" t="s">
+        <v>247</v>
+      </c>
+      <c r="L62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45034.41371527778</v>
+      </c>
+      <c r="E63">
+        <v>12175368</v>
+      </c>
+      <c r="F63" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" t="s">
+        <v>184</v>
+      </c>
+      <c r="I63" t="s">
+        <v>243</v>
+      </c>
+      <c r="J63">
+        <v>10</v>
+      </c>
+      <c r="K63" t="s">
+        <v>247</v>
+      </c>
+      <c r="L63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45034.45064814815</v>
+      </c>
+      <c r="E64">
+        <v>12175551</v>
+      </c>
+      <c r="F64" t="s">
+        <v>74</v>
+      </c>
+      <c r="G64" t="s">
+        <v>131</v>
+      </c>
+      <c r="H64" t="s">
+        <v>185</v>
+      </c>
+      <c r="I64" t="s">
+        <v>244</v>
+      </c>
+      <c r="J64">
+        <v>10</v>
+      </c>
+      <c r="K64" t="s">
+        <v>247</v>
+      </c>
+      <c r="L64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45034.45431712963</v>
+      </c>
+      <c r="E65">
+        <v>12175574</v>
+      </c>
+      <c r="F65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H65" t="s">
+        <v>186</v>
+      </c>
+      <c r="I65" t="s">
+        <v>245</v>
+      </c>
+      <c r="J65">
+        <v>10</v>
+      </c>
+      <c r="K65" t="s">
+        <v>247</v>
+      </c>
+      <c r="L65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45034.52925925926</v>
+      </c>
+      <c r="E66">
+        <v>12175983</v>
+      </c>
+      <c r="F66" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" t="s">
+        <v>133</v>
+      </c>
+      <c r="H66" t="s">
+        <v>187</v>
+      </c>
+      <c r="I66" t="s">
+        <v>246</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66" t="s">
+        <v>247</v>
+      </c>
+      <c r="L66" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="160">
   <si>
     <t>Operadora</t>
   </si>
@@ -64,7 +64,7 @@
     <t>18-04-2023</t>
   </si>
   <si>
-    <t>Extraï¿½do em 18/04/2023 15:43</t>
+    <t>Extraï¿½do em 18/04/2023 18:07</t>
   </si>
   <si>
     <t>Sistema Integrado de Fiscalizaï¿½ï¿½o - NIP</t>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>Interlocutora, que se identifica como mãe do beneficiário, questiona a falta de atendimento para TERAPIA OCUPACIONAL, FONOAUDIOLOGO E PSICOLOGO. A solicitação foi feita à Operadora em Janeiro/2023, para realização no município Belo Horizonte/MG. A operadora não apresenta resposta ao pedido. Protocolo: 34852020230418853930 Data: 18/04/2023.</t>
+  </si>
+  <si>
+    <t>SIM</t>
   </si>
   <si>
     <t>NO</t>
@@ -1058,7 +1061,7 @@
         <v>156</v>
       </c>
       <c r="L9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1096,7 +1099,7 @@
         <v>156</v>
       </c>
       <c r="L10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1134,7 +1137,7 @@
         <v>156</v>
       </c>
       <c r="L11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1172,7 +1175,7 @@
         <v>156</v>
       </c>
       <c r="L12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1207,10 +1210,10 @@
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1245,10 +1248,10 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1283,10 +1286,10 @@
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1321,10 +1324,10 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1359,10 +1362,10 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1397,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1435,10 +1438,10 @@
         <v>4</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1473,10 +1476,10 @@
         <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1511,10 +1514,10 @@
         <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1549,10 +1552,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1587,10 +1590,10 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1625,10 +1628,10 @@
         <v>7</v>
       </c>
       <c r="K24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1663,10 +1666,10 @@
         <v>7</v>
       </c>
       <c r="K25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1701,10 +1704,10 @@
         <v>7</v>
       </c>
       <c r="K26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1739,10 +1742,10 @@
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1777,10 +1780,10 @@
         <v>7</v>
       </c>
       <c r="K28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1815,10 +1818,10 @@
         <v>8</v>
       </c>
       <c r="K29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1853,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="K30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1891,10 +1894,10 @@
         <v>8</v>
       </c>
       <c r="K31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1929,10 +1932,10 @@
         <v>9</v>
       </c>
       <c r="K32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1967,10 +1970,10 @@
         <v>9</v>
       </c>
       <c r="K33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2002,10 +2005,10 @@
         <v>9</v>
       </c>
       <c r="K34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2040,10 +2043,10 @@
         <v>10</v>
       </c>
       <c r="K35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2078,10 +2081,10 @@
         <v>10</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2116,10 +2119,10 @@
         <v>10</v>
       </c>
       <c r="K37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2154,10 +2157,10 @@
         <v>10</v>
       </c>
       <c r="K38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2192,10 +2195,10 @@
         <v>10</v>
       </c>
       <c r="K39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2230,10 +2233,10 @@
         <v>10</v>
       </c>
       <c r="K40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2268,10 +2271,10 @@
         <v>10</v>
       </c>
       <c r="K41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2306,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="K42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -64,7 +64,7 @@
     <t>18-04-2023</t>
   </si>
   <si>
-    <t>Extraï¿½do em 18/04/2023 18:07</t>
+    <t>Extraï¿½do em 18/04/2023 18:47</t>
   </si>
   <si>
     <t>Sistema Integrado de Fiscalizaï¿½ï¿½o - NIP</t>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="154">
   <si>
     <t>Operadora</t>
   </si>
@@ -61,10 +61,10 @@
     <t>417823 - PREMIUM SAÚDE S.A</t>
   </si>
   <si>
-    <t>18-04-2023</t>
-  </si>
-  <si>
-    <t>Extraï¿½do em 18/04/2023 18:47</t>
+    <t>19-04-2023</t>
+  </si>
+  <si>
+    <t>Extraï¿½do em 19/04/2023 14:31</t>
   </si>
   <si>
     <t>Sistema Integrado de Fiscalizaï¿½ï¿½o - NIP</t>
@@ -76,18 +76,6 @@
     <t>Data de Notificaï¿½ï¿½o</t>
   </si>
   <si>
-    <t>8588077</t>
-  </si>
-  <si>
-    <t>8588431</t>
-  </si>
-  <si>
-    <t>8588645</t>
-  </si>
-  <si>
-    <t>8589407</t>
-  </si>
-  <si>
     <t>8589813</t>
   </si>
   <si>
@@ -175,21 +163,15 @@
     <t>8616466</t>
   </si>
   <si>
+    <t>8617540</t>
+  </si>
+  <si>
+    <t>8619372</t>
+  </si>
+  <si>
     <t>Beneficiï¿½rio</t>
   </si>
   <si>
-    <t>BÁRBARA DE OLIVEIRA PATRÍCIO</t>
-  </si>
-  <si>
-    <t>KEPA FREDRICK STOCKNER</t>
-  </si>
-  <si>
-    <t>DAVIDSON LUIZ PEREIRA LOPES</t>
-  </si>
-  <si>
-    <t>KENIA CLAUDIA FARIA CAMPOS</t>
-  </si>
-  <si>
     <t>CRISTIANE BATISTA ROCHA</t>
   </si>
   <si>
@@ -280,16 +262,10 @@
     <t>ENZO GABRIEL MARTINS LOPES</t>
   </si>
   <si>
-    <t>09923132609</t>
-  </si>
-  <si>
-    <t>82492158691</t>
-  </si>
-  <si>
-    <t>01552667642</t>
-  </si>
-  <si>
-    <t>03502184631</t>
+    <t>REINALDO EUSTAQUIO DA SILVA FERREIRA</t>
+  </si>
+  <si>
+    <t>RONALDO DOS SANTOS OLIVEIRA</t>
   </si>
   <si>
     <t>05249911625</t>
@@ -379,19 +355,13 @@
     <t>16612894601</t>
   </si>
   <si>
+    <t>98119443691</t>
+  </si>
+  <si>
+    <t>93953925687</t>
+  </si>
+  <si>
     <t>Descriï¿½ï¿½o da Demanda</t>
-  </si>
-  <si>
-    <t>Beneficiária, questiona a não cobertura para OFTAMOLOGISTA, GINECOLOGISTA, PRONTO ATENDIMENTO. O procedimento foi solicitado à operadora no dia 28/02/2023, para realização no município TIMOTEO-MG. A operadora alega que não possui prestador no município para realização/atendimento do serviço de saúde. Protocolo 36825320230403520933 data 03/04/2023 contato por telefone. Beneficiária informa que não existe atendimento no município pela Operadora.</t>
-  </si>
-  <si>
-    <t>Beneficiário, questiona o não atendimento para PSIQUIATRIA e CIRURGIA PLASTICA. Relata que tentou entrar em contato com a Operadora por meio dos telefones 03003133633 ,08002809130 , 40023633 e aplicativo - na data 03/04/2023, em torno das 14:15hs,sem sucesso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No dia 28/03/2023, estive em Belo Horizonte, na clinica Vida Nova, onde eles agendaram a consulta e me informaram via WhatsApp, ao protocolar meu atendimento mais uma vez fui negado, segundo a recepcionista da clinica, meu plano alegou que eu não tinha cobertura de abrangência, para ser atendimento ali. Acionei a polícia militar via 190, para que um Boletim de Ocorrência Policial fosse redigido, e ficasse registrado o transtorno que essa empresa estava me causando. Após varias ligações e por aproximadamente 40 minutos discutindo e brigando com o pessoal da HAP VIDA por telefone, eles autorizaram minha consulta. Por fim o fato mais grave, é que minha esposa, que é minha dependente nesse plano de saúde, está gestante de 5 meses, e todos os exames de ultrassonografia do meu filho que está sendo gerado, estão sendo feitos no Laboratório Hermes Pardini do Bairro Santo Agostinho em Belo Horizonte, pois foi o único lugar que a HAP via autorzou, 50km de distancia da minha casa. </t>
-  </si>
-  <si>
-    <t>Beneficiária questiona a não cobertura para 41301340  URODINÂMICA COMPLETA. O procedimento foi solicitado à operadora no dia 11/02/2023, para realização no município de Belo Horizonte e a operadora indicou prestadores que não realizam o procedimento. Protocolo 36825320230324904457 – data 24/03/2023.</t>
   </si>
   <si>
     <t>Beneficiária, questiona a falta de atendimento para medicamento ruxolitinibe tratamento oncológico continuo mensal  . A solicitação foi feita à Operadora no dia 23/03/2023, para realização no município Betim. A operadora alega que o pedido está em análise e não apresenta resposta ao pedido. Protocolo: 36825320230323941624 – data  : 23/03/2023</t>
@@ -492,7 +462,10 @@
     <t>Interlocutora, que se identifica como mãe do beneficiário, questiona a falta de atendimento para TERAPIA OCUPACIONAL, FONOAUDIOLOGO E PSICOLOGO. A solicitação foi feita à Operadora em Janeiro/2023, para realização no município Belo Horizonte/MG. A operadora não apresenta resposta ao pedido. Protocolo: 34852020230418853930 Data: 18/04/2023.</t>
   </si>
   <si>
-    <t>SIM</t>
+    <t>beneficiário, informa que, em 18/04/2023, o representante da pessoa jurídica CNPJ:350559640001-11 solicitou a rescisão do contrato coletivo, entretanto, até a presente data, não houve rescisão. Para efetuar a reclamação, relata que tentou entrar em contato com a administradora/operadora por meio do 0800 018 3456 sem sucesso.</t>
+  </si>
+  <si>
+    <t>No final de 2022, informei à administradora do Plano minha decisão do desligamento. E conforme solicitado pela própria empresa, no dia 02/12/2022 enviei a minha carta de desligamento ao e-mail: relacionamentopme@premiumsaude.com.br. Apesar do meu desacordo completamente com a Premium sobre a cobrança do aviso prévio, uma vez que se trata de plano “pré-pago” enviei o documento. Estava ciente que seria o contrato seria cancelado com prazo de 60 dias de aviso prévio (o aviso é contado a partir do recebimento da carta na operadora) e que 2 boletos seriam gerados relacionados ao aviso prévio de 60 dias. Contudo, em virtude de cobranças recorrentes enviadas a nossa caixa postal, verificarmos que a Premium Saúde/ HAP VIDA não realizou qualquer ação relativa ao cancelamento, prosseguindo com as cobranças mensais. Estávamos cientes que teríamos que quitar os boletos do “aviso prévio” que se findaram em 02/2023, mas de forma nenhuma, são devidos os valores que que a administradora está cobrando.</t>
   </si>
   <si>
     <t>NO</t>
@@ -502,6 +475,15 @@
   </si>
   <si>
     <t>No Assistencial</t>
+  </si>
+  <si>
+    <t>XXXXXXX</t>
+  </si>
+  <si>
+    <t>YYYYYYY</t>
+  </si>
+  <si>
+    <t>ZZZZZZZ</t>
   </si>
 </sst>
 </file>
@@ -863,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -923,6 +905,15 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
+      <c r="M2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
@@ -937,6 +928,15 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
+      <c r="M3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
@@ -951,6 +951,15 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
+      <c r="M4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
@@ -965,6 +974,15 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
+      <c r="M5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
@@ -976,6 +994,15 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
+      <c r="M6" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
@@ -987,6 +1014,15 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
+      <c r="M7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
@@ -1008,13 +1044,13 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
@@ -1024,6 +1060,15 @@
       </c>
       <c r="L8" t="s">
         <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" t="s">
+        <v>152</v>
+      </c>
+      <c r="O8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1037,31 +1082,40 @@
         <v>15</v>
       </c>
       <c r="D9" s="2">
-        <v>45019.57253472223</v>
+        <v>45020.40943287037</v>
       </c>
       <c r="E9">
-        <v>12153205</v>
+        <v>12154631</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L9" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="M9" t="s">
+        <v>151</v>
+      </c>
+      <c r="N9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1075,31 +1129,40 @@
         <v>15</v>
       </c>
       <c r="D10" s="2">
-        <v>45019.61603009259</v>
+        <v>45020.60085648148</v>
       </c>
       <c r="E10">
-        <v>12153463</v>
+        <v>12155655</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L10" t="s">
-        <v>158</v>
+        <v>150</v>
+      </c>
+      <c r="M10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N10" t="s">
+        <v>152</v>
+      </c>
+      <c r="O10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1113,31 +1176,40 @@
         <v>15</v>
       </c>
       <c r="D11" s="2">
-        <v>45019.64255787037</v>
+        <v>45020.60927083333</v>
       </c>
       <c r="E11">
-        <v>12153630</v>
+        <v>12155706</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="M11" t="s">
+        <v>151</v>
+      </c>
+      <c r="N11" t="s">
+        <v>152</v>
+      </c>
+      <c r="O11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1151,31 +1223,40 @@
         <v>15</v>
       </c>
       <c r="D12" s="2">
-        <v>45019.82728009259</v>
+        <v>45020.61450231481</v>
       </c>
       <c r="E12">
-        <v>12154294</v>
+        <v>12155732</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="M12" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1189,31 +1270,40 @@
         <v>15</v>
       </c>
       <c r="D13" s="2">
-        <v>45020.40943287037</v>
+        <v>45020.69599537037</v>
       </c>
       <c r="E13">
-        <v>12154631</v>
+        <v>12156130</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="M13" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1227,31 +1317,40 @@
         <v>15</v>
       </c>
       <c r="D14" s="2">
-        <v>45020.60085648148</v>
+        <v>45021.60149305555</v>
       </c>
       <c r="E14">
-        <v>12155655</v>
+        <v>12157899</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>149</v>
+      </c>
+      <c r="M14" t="s">
+        <v>151</v>
+      </c>
+      <c r="N14" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1265,31 +1364,40 @@
         <v>15</v>
       </c>
       <c r="D15" s="2">
-        <v>45020.60927083333</v>
+        <v>45022.54434027777</v>
       </c>
       <c r="E15">
-        <v>12155706</v>
+        <v>12159646</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="M15" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1303,34 +1411,43 @@
         <v>15</v>
       </c>
       <c r="D16" s="2">
-        <v>45020.61450231481</v>
+        <v>45026.38854166667</v>
       </c>
       <c r="E16">
-        <v>12155732</v>
+        <v>12161100</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M16" t="s">
+        <v>151</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1341,34 +1458,43 @@
         <v>15</v>
       </c>
       <c r="D17" s="2">
-        <v>45020.69599537037</v>
+        <v>45026.44988425926</v>
       </c>
       <c r="E17">
-        <v>12156130</v>
+        <v>12161386</v>
       </c>
       <c r="F17" t="s">
         <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M17" t="s">
+        <v>151</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1379,34 +1505,43 @@
         <v>15</v>
       </c>
       <c r="D18" s="2">
-        <v>45021.60149305555</v>
+        <v>45027.36063657407</v>
       </c>
       <c r="E18">
-        <v>12157899</v>
+        <v>12163407</v>
       </c>
       <c r="F18" t="s">
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M18" t="s">
+        <v>151</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1417,34 +1552,43 @@
         <v>15</v>
       </c>
       <c r="D19" s="2">
-        <v>45022.54434027777</v>
+        <v>45027.46474537037</v>
       </c>
       <c r="E19">
-        <v>12159646</v>
+        <v>12163869</v>
       </c>
       <c r="F19" t="s">
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M19" t="s">
+        <v>151</v>
+      </c>
+      <c r="N19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1455,34 +1599,43 @@
         <v>15</v>
       </c>
       <c r="D20" s="2">
-        <v>45026.38854166667</v>
+        <v>45028.37364583334</v>
       </c>
       <c r="E20">
-        <v>12161100</v>
+        <v>12165805</v>
       </c>
       <c r="F20" t="s">
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N20" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1493,34 +1646,43 @@
         <v>15</v>
       </c>
       <c r="D21" s="2">
-        <v>45026.44988425926</v>
+        <v>45028.44333333334</v>
       </c>
       <c r="E21">
-        <v>12161386</v>
+        <v>12166069</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>150</v>
+      </c>
+      <c r="M21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N21" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1531,34 +1693,43 @@
         <v>15</v>
       </c>
       <c r="D22" s="2">
-        <v>45027.36063657407</v>
+        <v>45028.61457175926</v>
       </c>
       <c r="E22">
-        <v>12163407</v>
+        <v>12167081</v>
       </c>
       <c r="F22" t="s">
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I22" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J22">
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M22" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1569,34 +1740,43 @@
         <v>15</v>
       </c>
       <c r="D23" s="2">
-        <v>45027.46474537037</v>
+        <v>45028.62655092592</v>
       </c>
       <c r="E23">
-        <v>12163869</v>
+        <v>12167165</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J23">
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N23" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1607,34 +1787,43 @@
         <v>15</v>
       </c>
       <c r="D24" s="2">
-        <v>45028.37364583334</v>
+        <v>45028.73353009259</v>
       </c>
       <c r="E24">
-        <v>12165805</v>
+        <v>12167700</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I24" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M24" t="s">
+        <v>151</v>
+      </c>
+      <c r="N24" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1645,34 +1834,43 @@
         <v>15</v>
       </c>
       <c r="D25" s="2">
-        <v>45028.44333333334</v>
+        <v>45029.42144675926</v>
       </c>
       <c r="E25">
-        <v>12166069</v>
+        <v>12168346</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J25">
         <v>7</v>
       </c>
       <c r="K25" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M25" t="s">
+        <v>151</v>
+      </c>
+      <c r="N25" t="s">
+        <v>152</v>
+      </c>
+      <c r="O25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1683,34 +1881,43 @@
         <v>15</v>
       </c>
       <c r="D26" s="2">
-        <v>45028.61457175926</v>
+        <v>45029.65606481482</v>
       </c>
       <c r="E26">
-        <v>12167081</v>
+        <v>12169638</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J26">
         <v>7</v>
       </c>
       <c r="K26" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M26" t="s">
+        <v>151</v>
+      </c>
+      <c r="N26" t="s">
+        <v>152</v>
+      </c>
+      <c r="O26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1721,34 +1928,43 @@
         <v>15</v>
       </c>
       <c r="D27" s="2">
-        <v>45028.62655092592</v>
+        <v>45029.71498842593</v>
       </c>
       <c r="E27">
-        <v>12167165</v>
+        <v>12169885</v>
       </c>
       <c r="F27" t="s">
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J27">
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>150</v>
+      </c>
+      <c r="M27" t="s">
+        <v>151</v>
+      </c>
+      <c r="N27" t="s">
+        <v>152</v>
+      </c>
+      <c r="O27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1759,34 +1975,43 @@
         <v>15</v>
       </c>
       <c r="D28" s="2">
-        <v>45028.73353009259</v>
+        <v>45030.44865740741</v>
       </c>
       <c r="E28">
-        <v>12167700</v>
+        <v>12170717</v>
       </c>
       <c r="F28" t="s">
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K28" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M28" t="s">
+        <v>151</v>
+      </c>
+      <c r="N28" t="s">
+        <v>152</v>
+      </c>
+      <c r="O28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1797,34 +2022,43 @@
         <v>15</v>
       </c>
       <c r="D29" s="2">
-        <v>45029.42144675926</v>
+        <v>45030.47511574074</v>
       </c>
       <c r="E29">
-        <v>12168346</v>
+        <v>12170838</v>
       </c>
       <c r="F29" t="s">
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I29" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J29">
         <v>8</v>
       </c>
       <c r="K29" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M29" t="s">
+        <v>151</v>
+      </c>
+      <c r="N29" t="s">
+        <v>152</v>
+      </c>
+      <c r="O29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1835,34 +2069,40 @@
         <v>15</v>
       </c>
       <c r="D30" s="2">
-        <v>45029.65606481482</v>
+        <v>45030.63180555555</v>
       </c>
       <c r="E30">
-        <v>12169638</v>
+        <v>12171665</v>
       </c>
       <c r="F30" t="s">
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J30">
         <v>8</v>
       </c>
       <c r="K30" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M30" t="s">
+        <v>151</v>
+      </c>
+      <c r="N30" t="s">
+        <v>152</v>
+      </c>
+      <c r="O30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1873,34 +2113,43 @@
         <v>15</v>
       </c>
       <c r="D31" s="2">
-        <v>45029.71498842593</v>
+        <v>45033.56813657407</v>
       </c>
       <c r="E31">
-        <v>12169885</v>
+        <v>12173695</v>
       </c>
       <c r="F31" t="s">
         <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K31" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M31" t="s">
+        <v>151</v>
+      </c>
+      <c r="N31" t="s">
+        <v>152</v>
+      </c>
+      <c r="O31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1911,34 +2160,43 @@
         <v>15</v>
       </c>
       <c r="D32" s="2">
-        <v>45030.44865740741</v>
+        <v>45033.67921296296</v>
       </c>
       <c r="E32">
-        <v>12170717</v>
+        <v>12174445</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I32" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J32">
         <v>9</v>
       </c>
       <c r="K32" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M32" t="s">
+        <v>151</v>
+      </c>
+      <c r="N32" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1949,34 +2207,43 @@
         <v>15</v>
       </c>
       <c r="D33" s="2">
-        <v>45030.47511574074</v>
+        <v>45033.73219907407</v>
       </c>
       <c r="E33">
-        <v>12170838</v>
+        <v>12174676</v>
       </c>
       <c r="F33" t="s">
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I33" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J33">
         <v>9</v>
       </c>
       <c r="K33" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M33" t="s">
+        <v>151</v>
+      </c>
+      <c r="N33" t="s">
+        <v>152</v>
+      </c>
+      <c r="O33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1987,31 +2254,43 @@
         <v>15</v>
       </c>
       <c r="D34" s="2">
-        <v>45030.63180555555</v>
+        <v>45033.76369212963</v>
       </c>
       <c r="E34">
-        <v>12171665</v>
+        <v>12174795</v>
       </c>
       <c r="F34" t="s">
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="H34" t="s">
+        <v>108</v>
       </c>
       <c r="I34" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J34">
         <v>9</v>
       </c>
       <c r="K34" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>150</v>
+      </c>
+      <c r="M34" t="s">
+        <v>151</v>
+      </c>
+      <c r="N34" t="s">
+        <v>152</v>
+      </c>
+      <c r="O34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2022,34 +2301,43 @@
         <v>15</v>
       </c>
       <c r="D35" s="2">
-        <v>45033.56813657407</v>
+        <v>45034.41811342593</v>
       </c>
       <c r="E35">
-        <v>12173695</v>
+        <v>12175388</v>
       </c>
       <c r="F35" t="s">
         <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I35" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J35">
         <v>10</v>
       </c>
       <c r="K35" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M35" t="s">
+        <v>151</v>
+      </c>
+      <c r="N35" t="s">
+        <v>152</v>
+      </c>
+      <c r="O35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2060,34 +2348,43 @@
         <v>15</v>
       </c>
       <c r="D36" s="2">
-        <v>45033.67921296296</v>
+        <v>45034.5321875</v>
       </c>
       <c r="E36">
-        <v>12174445</v>
+        <v>12176001</v>
       </c>
       <c r="F36" t="s">
         <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I36" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J36">
         <v>10</v>
       </c>
       <c r="K36" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>150</v>
+      </c>
+      <c r="M36" t="s">
+        <v>151</v>
+      </c>
+      <c r="N36" t="s">
+        <v>152</v>
+      </c>
+      <c r="O36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2098,34 +2395,43 @@
         <v>15</v>
       </c>
       <c r="D37" s="2">
-        <v>45033.73219907407</v>
+        <v>45034.59543981482</v>
       </c>
       <c r="E37">
-        <v>12174676</v>
+        <v>12176390</v>
       </c>
       <c r="F37" t="s">
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I37" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J37">
         <v>10</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M37" t="s">
+        <v>151</v>
+      </c>
+      <c r="N37" t="s">
+        <v>152</v>
+      </c>
+      <c r="O37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2136,34 +2442,43 @@
         <v>15</v>
       </c>
       <c r="D38" s="2">
-        <v>45033.76369212963</v>
+        <v>45034.60657407407</v>
       </c>
       <c r="E38">
-        <v>12174795</v>
+        <v>12176461</v>
       </c>
       <c r="F38" t="s">
         <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I38" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J38">
         <v>10</v>
       </c>
       <c r="K38" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M38" t="s">
+        <v>151</v>
+      </c>
+      <c r="N38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2174,34 +2489,43 @@
         <v>15</v>
       </c>
       <c r="D39" s="2">
-        <v>45034.41811342593</v>
+        <v>45034.80553240741</v>
       </c>
       <c r="E39">
-        <v>12175388</v>
+        <v>12177328</v>
       </c>
       <c r="F39" t="s">
         <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I39" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J39">
         <v>10</v>
       </c>
       <c r="K39" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>150</v>
+      </c>
+      <c r="M39" t="s">
+        <v>151</v>
+      </c>
+      <c r="N39" t="s">
+        <v>152</v>
+      </c>
+      <c r="O39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2212,107 +2536,40 @@
         <v>15</v>
       </c>
       <c r="D40" s="2">
-        <v>45034.5321875</v>
+        <v>45035.59695601852</v>
       </c>
       <c r="E40">
-        <v>12176001</v>
+        <v>12178825</v>
       </c>
       <c r="F40" t="s">
         <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I40" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J40">
         <v>10</v>
       </c>
       <c r="K40" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="2">
-        <v>45034.59543981482</v>
-      </c>
-      <c r="E41">
-        <v>12176390</v>
-      </c>
-      <c r="F41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" t="s">
-        <v>86</v>
-      </c>
-      <c r="H41" t="s">
-        <v>119</v>
-      </c>
-      <c r="I41" t="s">
-        <v>154</v>
-      </c>
-      <c r="J41">
-        <v>10</v>
-      </c>
-      <c r="K41" t="s">
-        <v>157</v>
-      </c>
-      <c r="L41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="2">
-        <v>45034.60657407407</v>
-      </c>
-      <c r="E42">
-        <v>12176461</v>
-      </c>
-      <c r="F42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" t="s">
-        <v>120</v>
-      </c>
-      <c r="I42" t="s">
-        <v>155</v>
-      </c>
-      <c r="J42">
-        <v>10</v>
-      </c>
-      <c r="K42" t="s">
-        <v>157</v>
-      </c>
-      <c r="L42" t="s">
-        <v>158</v>
+        <v>150</v>
+      </c>
+      <c r="M40" t="s">
+        <v>151</v>
+      </c>
+      <c r="N40" t="s">
+        <v>152</v>
+      </c>
+      <c r="O40" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/tarefas.xlsx
+++ b/planilha/tarefas.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\nipon1\planilha\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF3B367-4E7F-4B12-912E-6DFA38BDA538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
-  <si>
-    <t>Operadora</t>
-  </si>
-  <si>
-    <t>Hoje</t>
-  </si>
-  <si>
-    <t>Notificação</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
+  <si>
+    <t>Data da Notificação</t>
   </si>
   <si>
     <t>Demanda</t>
@@ -49,55 +49,316 @@
     <t>Natureza</t>
   </si>
   <si>
-    <t>Contrato</t>
-  </si>
-  <si>
-    <t>Registro</t>
-  </si>
-  <si>
-    <t>Modalidade</t>
-  </si>
-  <si>
-    <t>368253 - HAPVIDA ASSISTENCIA MEDICA S.A</t>
-  </si>
-  <si>
-    <t>20-04-2023</t>
-  </si>
-  <si>
-    <t>8594985</t>
-  </si>
-  <si>
-    <t>8595012</t>
-  </si>
-  <si>
-    <t>8595104</t>
-  </si>
-  <si>
-    <t>CYNTHIA MARIA DE FIGUEIREDO JATOBA</t>
-  </si>
-  <si>
-    <t>VALENTINA MARIA DE FRANÇA</t>
-  </si>
-  <si>
-    <t>FRANCISCA MELINA DE OLIVEIRA CARVALHO</t>
-  </si>
-  <si>
-    <t>85923524449</t>
-  </si>
-  <si>
-    <t>14617571426</t>
-  </si>
-  <si>
-    <t>11296965376</t>
-  </si>
-  <si>
-    <t>Beneficiária, questiona a falta de cobertura para medicamento (Dolantina), solicitado á operadora em 05/04/2023. Operadora negou alegando que não irá mais fornecer o medicamento.  PROTOCOLO 36825320230405629286 DATA 05/04/2023</t>
-  </si>
-  <si>
-    <t>Interlocutora, que se identifica como Mãe da beneficiária, questiona a falta de atendimento para IMUNOFENOTIPAGEM DE SUBPOPULAÇÕES LINFOCITÁRIAS - CITOMETRIA DE FLUXO. A solicitação foi feita à Operadora no dia 29/03/2023, para realização no município RECIFE/PE. A operadora NEGOU SE M APRESENTAR JUSTIFICATIVA. Protocolo 36825320230329167649 – data 29/03/2023.</t>
-  </si>
-  <si>
-    <t>a paciente francisca melina de oliveira carvalho, recebeu o laudo de tea( transtorno do espectro autista), e precisa entrar no grupo tea do hapvida para consultas constantes e acompanhamento com fonoaudióloga, psicologa e terapeuta ocupacional, no entanto não estou conseguindo marcar consultas, por isso venho aqui solicitar marcação de consultas e de preferência com as mesmas profissionais que estavam atendendo a paciente na investigação do autismo , ravena silva borges(Terapeuta ocupacional) e francisca naiane silva borges(psicologa) .</t>
+    <t>7797800</t>
+  </si>
+  <si>
+    <t>8597675</t>
+  </si>
+  <si>
+    <t>8598016</t>
+  </si>
+  <si>
+    <t>8600473</t>
+  </si>
+  <si>
+    <t>8601052</t>
+  </si>
+  <si>
+    <t>8603359</t>
+  </si>
+  <si>
+    <t>8603674</t>
+  </si>
+  <si>
+    <t>8604741</t>
+  </si>
+  <si>
+    <t>8605615</t>
+  </si>
+  <si>
+    <t>8606403</t>
+  </si>
+  <si>
+    <t>8608000</t>
+  </si>
+  <si>
+    <t>8608362</t>
+  </si>
+  <si>
+    <t>8609371</t>
+  </si>
+  <si>
+    <t>8609527</t>
+  </si>
+  <si>
+    <t>8610551</t>
+  </si>
+  <si>
+    <t>8613108</t>
+  </si>
+  <si>
+    <t>8613965</t>
+  </si>
+  <si>
+    <t>8614239</t>
+  </si>
+  <si>
+    <t>8614426</t>
+  </si>
+  <si>
+    <t>8615125</t>
+  </si>
+  <si>
+    <t>8615828</t>
+  </si>
+  <si>
+    <t>8616346</t>
+  </si>
+  <si>
+    <t>8616466</t>
+  </si>
+  <si>
+    <t>8617540</t>
+  </si>
+  <si>
+    <t>8619372</t>
+  </si>
+  <si>
+    <t>DANIELA FARIAS VASCONCELOS</t>
+  </si>
+  <si>
+    <t>CAIO HENRIQUE RODRIGUES FERNANDES</t>
+  </si>
+  <si>
+    <t>DIEGO SANTOS DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>AYLA ALVES COELHO</t>
+  </si>
+  <si>
+    <t>PRISCILA APARECIDA SANTOS FRANCISCO</t>
+  </si>
+  <si>
+    <t>LUDIANE CONCEICAO DOS SANTOS OLIVEIRA MATOS</t>
+  </si>
+  <si>
+    <t>ELENICE DE SIQUEIRA</t>
+  </si>
+  <si>
+    <t>JENIFE BIANCA AMORIM PEREIRA</t>
+  </si>
+  <si>
+    <t>JUCIMAR AMORIM PEREIRA</t>
+  </si>
+  <si>
+    <t>VIRGILIO ISMAR SANTOS GARCIA</t>
+  </si>
+  <si>
+    <t>MELINDA GOULART CRUZ</t>
+  </si>
+  <si>
+    <t>JORGE EUSTACIO MEDEIROS</t>
+  </si>
+  <si>
+    <t>NATALIA SOLANO ROSSELIS PEREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>RAFAELLE FONSECA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>VANESSA WINTER NUNES FORTES</t>
+  </si>
+  <si>
+    <t>OLIVER MIRANDA PORTO</t>
+  </si>
+  <si>
+    <t>FÁTIMA BASÍLIO DE MENEZES</t>
+  </si>
+  <si>
+    <t>RENY DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>CRISTIANA PAZELI RODRIGUES</t>
+  </si>
+  <si>
+    <t>MAXSSUEL VIEIRA SILVA</t>
+  </si>
+  <si>
+    <t>JOMAR WILKER DE MATOS XAVIER</t>
+  </si>
+  <si>
+    <t>JOSE LUIZ LAGE MILITÃO</t>
+  </si>
+  <si>
+    <t>LARA EMANUELLY BARBOSA ALVES DE MELO</t>
+  </si>
+  <si>
+    <t>ENZO GABRIEL MARTINS LOPES</t>
+  </si>
+  <si>
+    <t>REINALDO EUSTAQUIO DA SILVA FERREIRA</t>
+  </si>
+  <si>
+    <t>RONALDO DOS SANTOS OLIVEIRA</t>
+  </si>
+  <si>
+    <t>00925200905</t>
+  </si>
+  <si>
+    <t>17042707664</t>
+  </si>
+  <si>
+    <t>01990602665</t>
+  </si>
+  <si>
+    <t>19014458606</t>
+  </si>
+  <si>
+    <t>10136083641</t>
+  </si>
+  <si>
+    <t>05322831630</t>
+  </si>
+  <si>
+    <t>99433397649</t>
+  </si>
+  <si>
+    <t>10161613608</t>
+  </si>
+  <si>
+    <t>50995707634</t>
+  </si>
+  <si>
+    <t>67349692668</t>
+  </si>
+  <si>
+    <t>18255624660</t>
+  </si>
+  <si>
+    <t>37932152615</t>
+  </si>
+  <si>
+    <t>06150583619</t>
+  </si>
+  <si>
+    <t>17713802681</t>
+  </si>
+  <si>
+    <t>08754611660</t>
+  </si>
+  <si>
+    <t>07878012679</t>
+  </si>
+  <si>
+    <t>22823280600</t>
+  </si>
+  <si>
+    <t>03968114698</t>
+  </si>
+  <si>
+    <t>00946479682</t>
+  </si>
+  <si>
+    <t>05958277642</t>
+  </si>
+  <si>
+    <t>90999695634</t>
+  </si>
+  <si>
+    <t>19176729699</t>
+  </si>
+  <si>
+    <t>16612894601</t>
+  </si>
+  <si>
+    <t>98119443691</t>
+  </si>
+  <si>
+    <t>93953925687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficiária questiona a falta de atendimento para consulta com a obstetrícia e local para o parto.  Relata que tentou entrar em contato com a  Operadora por meio do telefone 0800 545 3001 na data 17/12/2021, em torno das 16h, sem sucesso. O prestador solicitado como de preferência do beneficiário Clinica Santa Helena, foi descredenciado e não foi disponibilizada outra alternativa de atendimento no mesmo município Florianópolis. A demanda 5478797 foi aberta para apuração do descredenciamento pela DIPRO. Protocolo 41782320211130123662-data: 30/11/2021 .RN 365_x000D_
+</t>
+  </si>
+  <si>
+    <t>Interlocutora que se identifica como mãe do beneficiário, questiona a falta de atendimento para Consulta com Otorrinolaringologista, Audiometria Tonal e Vocal, Impedanciometria, Videoendoscopia nasossinusal. A solicitação foi feita à Operadora no dia 23/03/2023, para realização no município BETIM. A operadora não apresenta resposta ao pedido, informou apenas que buscaria profissional. Protocolo: 3682532023041042947 - Data: 10/04/2023.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como esposa  do beneficiário, questiona a falta de atendimento para cartão com orçamento e valores dos matérias para cirurgia  reconstrução do ligamento cruzado anterior  . A solicitação foi feita à Operadora em julho/2022, para realização no município patos de minas . A operadora  não apresenta resposta ao pedido, operadora já lhe encaminhou uma carta mas não esta\ com os valores dos matérias com o hospital deseja    Protocolo:36825320230410426644 data:1/04/2023.</t>
+  </si>
+  <si>
+    <t>minha filha usa NEOCATE desde os 4 meses de idade, foi solicitado o pedido de intolerancia a lactose no dia 22/3/2023 porem nao tenho retorno quando ligo dizem, que pode levar ate 21 dias uteis mas em consulta ao site da ANS esse prazo seria pra procedimentos PAC, que nao e o caso de um exame de sangue para detectar intolerância a lactose, preciso de um retorno visto que o prazo de 10 dias uteis finalizou em 06/04/2023.</t>
+  </si>
+  <si>
+    <t>Solicitei com 10 dias de antecedência a marcação do exame de ultrassonografia endovaginal,na clínica Santa Helena ltda através do plano,ao chegar no estabelecimento no dia do exame a operadora do plano negou meu procedimento alegando que a clinica não estava mais cadastrada,porém não recebi nenhum contanto prévio mesmo estando com o agendamento feito a dias.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a falta de atendimento para exérese ou sutura de linfoma intramuscular (conforme guia médica), e nome do médico solicitante Emerson Melgaço de Castro. A solicitação foi feita à Operadora no dia 13/02/2023, para realização no município Belo Horizonte. A operadora alega que não apresenta resposta ao pedido. Protocolo:36825320230406591901 – data:04/04/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiária, informa que solicitou o cancelamento do plano  por telefone, em 12/4/23, e até a presente data não houve o cancelamento pois é orientada que haverá pré cancelamento de 60 dias para junho ou maio e ela deseja que seja cancelado de imediato. Protocolo não foi informado data 12/4/23.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como  mãe beneficiária, questiona o prazo de atendimento para COLONOSCOPIA e ENDOSCOPIA DIGESTIVA ALTA COM BIÓPSIA E/OU CITOLOGIA. A operadora não autorizou o serviço que foi solicitado no dia 22/03/2023 , porem uma clínica credenciada que a beneficiaria procurou e ela  agendou para o dia 17/04/2023 o procedimento, após o prazo máximo previsto na RN nº 566/2022. Protocolo:36825320230412098231 data:12/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  beneficiário, questiona a não cobertura para AUDIOMETRIA TONAL E VOCAL, IMPEDANCIOMETRIA (MEDIDAS DE IMITÂNCIA ACÚSTICA, AUDIOMETRIA VOCAL - PESQUISA DE LIMIAR DE DISCRIMINAÇÃO/INTELIGIBILIDADE (LOGOAUDIOMETRIA). O procedimento foi solicitado à operadora no dia 27/03/2023, para realização no município BELO HORIZONTE./ A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. PROTOCOLO:36825320230328334267  DATA:28/03/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interlocutora , que se identifica como esposa do beneficiário, questiona a não cobertura para  ELETRONEUROMIOGRAFIA MMSS. O procedimento foi solicitado à operadora no dia 03/04/2023 , para realização no município Belo Horizonte  a operadora indicou prestadores que não realizam o procedimento. Esta aguardando resposta da operadora. Protocolo: 3682532023046684449 data: 06/04/2023_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe da beneficiária, questiona a não cobertura para consulta com endocrinologista  . O procedimento foi solicitado à operadora no mês 03/2023 , para realização no município Belo Horizonte . A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. Protocolo : 36825320230330977433  Data : 30/03/2023</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como filha do beneficiário, questiona a falta de atendimento para RM - Multiparamétrica transretal da próstata. A solicitação foi feita à Operadora no dia 14/03/2023, para realização no município Belo Horizonte. A operadora não apresenta resposta ao pedido. Protocolo 36825320230412185311 DATA:12/04/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiária, informa que solicitou à operadora, em 01/03/2023, a exclusão em plano coletivo empresarial Compacta Benefícios, 30/03/202. Até a presente data não houve a exclusão. Relata que recebeu boleto de mensalidade de Abril/2023 para pagamento. Relata que o contato com a operadora foi através de carta (a mão conforme solicitação da operadora), por e-mail, não foi fornecido protocolo.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe da beneficiária, questiona a não cobertura para nefrologia que atenda criança e nome do médico solicitante Gilmar Ferraz. O procedimento foi solicitado à operadora no dia 03/2023, para realização no município Belo Horizonte e a operadora indicou prestadores que não realizam o procedimento, operadora indicou prestador que não atende operadora da beneficiária. Protocolo 36825320230414258578 – data 14/04/2023.</t>
+  </si>
+  <si>
+    <t>Interlocutor, que se identifica como marido da beneficiária, questiona a falta de atendimento para 3 X ULTRASSON COM DOPPLER (como escrito em guia pelo medico), e nome do médico solicitante Dr. Luiza. A solicitação foi feita à Operadora no dia 10/03/2023, para realização no município Belo horizonte. A operadora só autorizou um procedimento , mas interlocutor relata que são três por se tratar de uma gestação trigemelar Protocolo nº: não foi fornecido pela operadora pela atendente Lorena em contato telefônico - Data: 14/04/2023.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe  do beneficiário, questiona o não atendimento para CONSULTA COM PEDIATRA E EXAMES LABORATORIOS HEMOGRAMA PCR VHF , FERRO , DOSAGEM DE VITAMINA Z , ZINCO , SELENIO , FERRENTINA , GLICEMIA PSH , IGE TOTAL , IGE ESPECIFICA . A solicitação foi feita à Operadora no dia 29/03/2023 , no município Montes Claros  e o agendamento foi realizado para o município Uberaba e Uberlândia . Protocolo 36825320230404294472 DATA 04/04/2023 .</t>
+  </si>
+  <si>
+    <t>Tinha plano pessoa física da promed e transferi para pessoa jurídica, porém no ato da contratação eu entrei na carência de congêneres. Só o parto e terapias que entrei com 180 dias de carência. _x000D_
+Porém o plano de saúde me retornou falando que por motivo de carência não posso realizar o exame, só posso solicitar Apartir do dia 29/05/2023. _x000D_
+Protocolo: 36825320230327813804._x000D_
+Gostaria que resolver a minha situação estou com urgência.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como filha do beneficiário, questiona a falta de atendimento para ANGIOPLASTIA TRANSLUMINAL PERCUTÂNEA. A solicitação foi feita à Operadora no dia 16/03/2023, para realização no município Belo Horizonte. A operadora alega que o pedido está em análise e não apresenta resposta ao pedido. Protocolo 36825320230313237068 – data 16/03/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a falta de atendimento para 31303129 HISTERECTOMIA TOTAL COM ANEXECTOMIA (VIA ALTA OU BAIXA). A solicitação foi feita à Operadora no dia 09/02/2023, para realização no município Contagem. A operadora não apresenta resposta ao pedido. Protocolo 36825320230114075499 – data 14/03/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiário questiona a cobrança de mensalidade em duplicidade. Relata que contratou o plano na modalidade "pré-pago" e, ao solicitar cancelamento do plano, foi cobrado a mensalidade referente ao mês 04/2023, que já foi paga em 20/03/2023. Beneficiário informa que entrou em contato com OPS, através do telefone 4020-1685, na data 05/04/2023, mas foi informado de que seria um atendimento informativo e não teria gerado protocolo.</t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona a não cobertura para Consulta com Reumatologista. O procedimento foi solicitado à operadora no dia 03/04/2023, para realização no município MONTES CLAROS. A operadora alega que não possui prestador em sua rede para realização do serviço de saúde e não apresenta resposta. Não há protocolo, pois, não foi fornecido: (38)32183009  - Data 18/04/2023.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica representante da pessoa jurídica CNPJ 34389548000197/ JL LAGE MILITÃO LTDA , questiona a cobrança de coparticipação no valor R$ 50,00 referente ao consultas realizadas em Janeiro/2023 . Interlocutora relata que o valor correto é R$ 20,00 cada consulta e operadora não corrige o valor e cobra juros. Protocolo 36825320230331396549- data 13/04/2023</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe da beneficiária, questiona a falta de atendimento para consulta com alergologista e infectologista. A solicitação foi feita à Operadora no dia 20/03/2023, para realização no município Belo Horizonte. A operadora indica prestadores que não realizam procedimentos e não apresentam resposta. Protocolo 36825320230413804894 data 13/04/2023.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe do beneficiário, questiona a falta de atendimento para TERAPIA OCUPACIONAL, FONOAUDIOLOGO E PSICOLOGO. A solicitação foi feita à Operadora em Janeiro/2023, para realização no município Belo Horizonte/MG. A operadora não apresenta resposta ao pedido. Protocolo: 34852020230418853930 Data: 18/04/2023.</t>
+  </si>
+  <si>
+    <t>beneficiário, informa que, em 18/04/2023, o representante da pessoa jurídica CNPJ:350559640001-11 solicitou a rescisão do contrato coletivo, entretanto, até a presente data, não houve rescisão. Para efetuar a reclamação, relata que tentou entrar em contato com a administradora/operadora por meio do 0800 018 3456 sem sucesso.</t>
+  </si>
+  <si>
+    <t>No final de 2022, informei à administradora do Plano minha decisão do desligamento. E conforme solicitado pela própria empresa, no dia 02/12/2022 enviei a minha carta de desligamento ao e-mail: relacionamentopme@premiumsaude.com.br. Apesar do meu desacordo completamente com a Premium sobre a cobrança do aviso prévio, uma vez que se trata de plano “pré-pago” enviei o documento. Estava ciente que seria o contrato seria cancelado com prazo de 60 dias de aviso prévio (o aviso é contado a partir do recebimento da carta na operadora) e que 2 boletos seriam gerados relacionados ao aviso prévio de 60 dias. Contudo, em virtude de cobranças recorrentes enviadas a nossa caixa postal, verificarmos que a Premium Saúde/ HAP VIDA não realizou qualquer ação relativa ao cancelamento, prosseguindo com as cobranças mensais. Estávamos cientes que teríamos que quitar os boletos do “aviso prévio” que se findaram em 02/2023, mas de forma nenhuma, são devidos os valores que que a administradora está cobrando.</t>
   </si>
   <si>
     <t>NO</t>
@@ -106,23 +367,17 @@
     <t>Assistencial</t>
   </si>
   <si>
-    <t>XXXXXXX</t>
-  </si>
-  <si>
-    <t>YYYYYYY</t>
-  </si>
-  <si>
-    <t>ZZZZZZZ</t>
+    <t>No Assistencial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,11 +441,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -232,7 +495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,9 +527,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,6 +579,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,14 +772,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,161 +810,834 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45022.544340277767</v>
+      </c>
+      <c r="C2">
+        <v>12159646</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45026.388541666667</v>
+      </c>
+      <c r="C3">
+        <v>12161100</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45026.449884259258</v>
+      </c>
+      <c r="C4">
+        <v>12161386</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45027.360636574071</v>
+      </c>
+      <c r="C5">
+        <v>12163407</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45027.464745370373</v>
+      </c>
+      <c r="C6">
+        <v>12163869</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45028.373645833337</v>
+      </c>
+      <c r="C7">
+        <v>12165805</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45028.443333333344</v>
+      </c>
+      <c r="C8">
+        <v>12166069</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45028.614571759259</v>
+      </c>
+      <c r="C9">
+        <v>12167081</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45028.626550925917</v>
+      </c>
+      <c r="C10">
+        <v>12167165</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45028.733530092592</v>
+      </c>
+      <c r="C11">
+        <v>12167700</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45029.421446759261</v>
+      </c>
+      <c r="C12">
+        <v>12168346</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45029.656064814822</v>
+      </c>
+      <c r="C13">
+        <v>12169638</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45029.714988425927</v>
+      </c>
+      <c r="C14">
+        <v>12169885</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45030.448657407411</v>
+      </c>
+      <c r="C15">
+        <v>12170717</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45022.34775462963</v>
-      </c>
-      <c r="E2">
-        <v>12158826</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45030.475115740737</v>
+      </c>
+      <c r="C16">
+        <v>12170838</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45030.631805555553</v>
+      </c>
+      <c r="C17">
+        <v>12171665</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45033.568136574067</v>
+      </c>
+      <c r="C18">
+        <v>12173695</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45033.679212962961</v>
+      </c>
+      <c r="C19">
+        <v>12174445</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45033.732199074067</v>
+      </c>
+      <c r="C20">
+        <v>12174676</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45033.763692129629</v>
+      </c>
+      <c r="C21">
+        <v>12174795</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45034.418113425927</v>
+      </c>
+      <c r="C22">
+        <v>12175388</v>
+      </c>
+      <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45034.532187500001</v>
+      </c>
+      <c r="C23">
+        <v>12176001</v>
+      </c>
+      <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45034.595439814817</v>
+      </c>
+      <c r="C24">
+        <v>12176390</v>
+      </c>
+      <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45034.606574074067</v>
+      </c>
+      <c r="C25">
+        <v>12176461</v>
+      </c>
+      <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45034.805532407408</v>
+      </c>
+      <c r="C26">
+        <v>12177328</v>
+      </c>
+      <c r="D26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45022.35960648148</v>
-      </c>
-      <c r="E3">
-        <v>12158856</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45022.37938657407</v>
-      </c>
-      <c r="E4">
-        <v>12158913</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
+      <c r="B27" s="2">
+        <v>45035.596956018519</v>
+      </c>
+      <c r="C27">
+        <v>12178825</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
